--- a/config/ctw.xlsx
+++ b/config/ctw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\github\copy-the-world\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DBD495-D9C3-4563-9BFE-52533A86D70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE105055-6391-4E38-A138-C3F7F173A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="3510" windowWidth="28800" windowHeight="15370" activeTab="4" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
+    <workbookView xWindow="5620" yWindow="3510" windowWidth="28800" windowHeight="15370" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>52.3522019,4.9107095</t>
-  </si>
-  <si>
-    <t>Final Fantasy X</t>
   </si>
   <si>
     <t>Level</t>
@@ -1131,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F496CE3C-4FCB-42A2-AD40-19A0C25E579C}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1322,21 +1319,21 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1344,13 +1341,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1358,13 +1355,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1372,13 +1369,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1386,7 +1383,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1395,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1403,16 +1400,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1420,13 +1417,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1434,13 +1431,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1448,16 +1445,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1465,16 +1462,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1482,13 +1479,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1496,13 +1493,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1510,16 +1507,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1527,13 +1524,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1541,13 +1538,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1555,13 +1552,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1569,13 +1566,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1583,13 +1580,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1597,13 +1594,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1611,13 +1608,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,13 +1622,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1639,13 +1636,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1653,13 +1650,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1667,13 +1664,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1681,13 +1678,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1695,13 +1692,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1709,13 +1706,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1723,13 +1720,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1737,13 +1734,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1751,13 +1748,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1765,13 +1762,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1779,13 +1776,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1793,16 +1790,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1810,13 +1807,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1824,16 +1821,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
         <v>84</v>
       </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
-        <v>85</v>
-      </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1841,13 +1838,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1855,13 +1852,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1869,16 +1866,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1886,16 +1883,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1903,16 +1900,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1920,16 +1917,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1937,13 +1934,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1951,13 +1948,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1965,13 +1962,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1979,13 +1976,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1993,13 +1990,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2007,13 +2004,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -2021,13 +2018,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -2035,13 +2032,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -2049,13 +2046,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -2063,13 +2060,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -2077,13 +2074,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -2091,13 +2088,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2105,16 +2102,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -2122,13 +2119,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -2136,16 +2133,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -2153,13 +2150,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -2167,16 +2164,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -2184,13 +2181,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -2198,13 +2195,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -2212,13 +2209,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -2226,16 +2223,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -2243,13 +2240,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -2257,13 +2254,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -2271,13 +2268,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -2285,13 +2282,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -2299,16 +2296,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
         <v>124</v>
       </c>
-      <c r="B68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" t="s">
-        <v>125</v>
-      </c>
       <c r="D68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -2366,18 +2363,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2385,13 +2382,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2399,13 +2396,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2413,13 +2410,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2427,13 +2424,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2441,13 +2438,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2455,13 +2452,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2491,8 +2488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24169BE6-9848-46E7-9522-D69D04E2D41F}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2511,10 +2508,10 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2522,30 +2519,27 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2553,13 +2547,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2612,21 +2606,21 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2634,13 +2628,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2648,13 +2642,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2662,13 +2656,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2676,13 +2670,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2690,13 +2684,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2704,13 +2698,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2718,13 +2712,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2732,13 +2726,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2746,13 +2740,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2760,13 +2754,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2774,13 +2768,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2788,13 +2782,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2802,13 +2796,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2816,13 +2810,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2830,13 +2824,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2844,13 +2838,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2858,13 +2852,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2872,13 +2866,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2886,13 +2880,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2900,13 +2894,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2914,13 +2908,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2928,13 +2922,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2942,13 +2936,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3004,7 +2998,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -3048,139 +3042,139 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3232,73 +3226,73 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/config/ctw.xlsx
+++ b/config/ctw.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\github\copy-the-world\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE105055-6391-4E38-A138-C3F7F173A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DBCC7C-7094-4340-BDE2-B355CE39719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="3510" windowWidth="28800" windowHeight="15370" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
+    <workbookView xWindow="-38510" yWindow="10" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Buildings" sheetId="1" r:id="rId1"/>
-    <sheet name="Levels" sheetId="2" r:id="rId2"/>
-    <sheet name="Rooms" sheetId="3" r:id="rId3"/>
-    <sheet name="Zones" sheetId="8" r:id="rId4"/>
-    <sheet name="PhoneBooths" sheetId="4" r:id="rId5"/>
-    <sheet name="Desks" sheetId="5" r:id="rId6"/>
-    <sheet name="Parking Lots" sheetId="10" r:id="rId7"/>
-    <sheet name="Parking spots" sheetId="6" r:id="rId8"/>
-    <sheet name="Car Chargers" sheetId="9" r:id="rId9"/>
+    <sheet name="Planets" sheetId="11" r:id="rId1"/>
+    <sheet name="Countries" sheetId="12" r:id="rId2"/>
+    <sheet name="Cities" sheetId="13" r:id="rId3"/>
+    <sheet name="Buildings" sheetId="1" r:id="rId4"/>
+    <sheet name="Levels" sheetId="2" r:id="rId5"/>
+    <sheet name="Rooms" sheetId="3" r:id="rId6"/>
+    <sheet name="Zones" sheetId="8" r:id="rId7"/>
+    <sheet name="PhoneBooths" sheetId="4" r:id="rId8"/>
+    <sheet name="Desks" sheetId="5" r:id="rId9"/>
+    <sheet name="Parking Lots" sheetId="10" r:id="rId10"/>
+    <sheet name="Parking spots" sheetId="6" r:id="rId11"/>
+    <sheet name="Car Chargers" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="Buildings">Table1[]</definedName>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="183">
   <si>
     <t>ID</t>
   </si>
@@ -526,6 +529,75 @@
   </si>
   <si>
     <t>D24</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>netherlands</t>
+  </si>
+  <si>
+    <t>germany</t>
+  </si>
+  <si>
+    <t>belgium</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>The Netherlands</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>United States Of America</t>
+  </si>
+  <si>
+    <t>hilversum</t>
+  </si>
+  <si>
+    <t>amsterdam</t>
+  </si>
+  <si>
+    <t>orlando</t>
+  </si>
+  <si>
+    <t>antwerp</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>frankfurt</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>CityTwin</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
@@ -722,11 +794,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{286E368C-FE77-4E6B-9074-2516FF806E1F}" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0">
-  <autoFilter ref="A1:G3" xr:uid="{286E368C-FE77-4E6B-9074-2516FF806E1F}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8A1F753D-10BF-4B35-A59B-2603C486C4ED}" name="Table18" displayName="Table18" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{8A1F753D-10BF-4B35-A59B-2603C486C4ED}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5A58D701-BF8C-47A6-B49C-04EE5C5E3252}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{D98B21AC-6125-4092-9512-08DBC3BF2CE0}" name="Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E23DC274-5C23-43CC-85ED-CD9D9C34F79D}" name="Table6" displayName="Table6" ref="A1:C13" totalsRowShown="0">
+  <autoFilter ref="A1:C13" xr:uid="{E23DC274-5C23-43CC-85ED-CD9D9C34F79D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B2F65E13-5342-4C93-9021-1B4E6C600843}" name="ID"/>
+    <tableColumn id="4" xr3:uid="{88F109CD-4DED-44D0-B3BF-2AC490306E44}" name="Building"/>
+    <tableColumn id="2" xr3:uid="{5CAD5D3B-3338-4D56-9059-03F7714D1A8C}" name="Parking"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FB4A760E-966B-4C6B-897C-D83902AF1BD8}" name="Table9" displayName="Table9" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{FB4A760E-966B-4C6B-897C-D83902AF1BD8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DE28C3ED-6D86-42AA-BB37-7B91C77F571F}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{138CA9E9-BCC2-4728-9A22-49F6B20512F6}" name="Building"/>
+    <tableColumn id="3" xr3:uid="{62C6B8C1-A833-458A-B7C4-ADD9C805A313}" name="Parking Spot"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4E39A4B4-5299-4C0B-87C0-9534BB70D093}" name="Table1811" displayName="Table1811" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{4E39A4B4-5299-4C0B-87C0-9534BB70D093}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CC2A72F3-D3FD-4E0B-9658-88A3C9132BA3}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{EA3C7334-0F95-4EED-B230-BB47635F502D}" name="Planet"/>
+    <tableColumn id="7" xr3:uid="{A9AC266E-232B-47AD-8D74-EC32ED101E1D}" name="Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A47D8A87-7E9C-4E91-8A1A-F1FDCE8AA55D}" name="Table181112" displayName="Table181112" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6" xr:uid="{A47D8A87-7E9C-4E91-8A1A-F1FDCE8AA55D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8332FE7F-DA71-4798-A0D2-8F23EC409017}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{B8D8DBDD-3DAF-4CC9-B4C0-505D964BA019}" name="Country"/>
+    <tableColumn id="7" xr3:uid="{322021A7-CD17-43A9-86EB-91EBCFBE8F27}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{D2525123-156E-466F-A8FC-37F43AFC4D19}" name="Population"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{286E368C-FE77-4E6B-9074-2516FF806E1F}" name="Table1" displayName="Table1" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3" xr:uid="{286E368C-FE77-4E6B-9074-2516FF806E1F}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{CC0D9068-E39E-4DCA-BDFD-DAB0927E9F90}" name="ID"/>
     <tableColumn id="7" xr3:uid="{473F1CEC-5290-4EA9-9033-5EEB95FA3E3B}" name="Name"/>
+    <tableColumn id="9" xr3:uid="{D64CD8FC-A734-4663-92B6-9BBF02A5290A}" name="CityTwin"/>
     <tableColumn id="2" xr3:uid="{D95F549B-1C42-4BE4-9990-8B309CBB714B}" name="Country"/>
     <tableColumn id="3" xr3:uid="{3D62CC33-189C-4765-A3A2-C5691204023F}" name="City"/>
     <tableColumn id="4" xr3:uid="{ECF2DC82-76C7-424B-A6F4-43CD8C67FFFA}" name="PostalCode"/>
@@ -737,7 +870,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{16DBF3CF-DFAA-4226-A74F-3FF95F5614F0}" name="Table2" displayName="Table2" ref="A1:B5" totalsRowShown="0">
   <autoFilter ref="A1:B5" xr:uid="{16DBF3CF-DFAA-4226-A74F-3FF95F5614F0}"/>
   <tableColumns count="2">
@@ -748,7 +881,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{88B3C328-C0A5-41A4-BF4D-2C029E2BF87E}" name="Table3" displayName="Table3" ref="A1:E68" totalsRowShown="0">
   <autoFilter ref="A1:E68" xr:uid="{88B3C328-C0A5-41A4-BF4D-2C029E2BF87E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E26">
@@ -765,7 +898,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7ACCEDDF-2DE4-49BC-B6EC-2DAB6698B40C}" name="Table8" displayName="Table8" ref="A1:D8" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:D8" xr:uid="{7ACCEDDF-2DE4-49BC-B6EC-2DAB6698B40C}"/>
   <tableColumns count="4">
@@ -778,7 +911,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CFA3B6A6-B2B7-4A7E-AD44-23D09DDF8633}" name="Table4" displayName="Table4" ref="A1:E4" totalsRowShown="0">
   <autoFilter ref="A1:E4" xr:uid="{CFA3B6A6-B2B7-4A7E-AD44-23D09DDF8633}"/>
   <tableColumns count="5">
@@ -792,7 +925,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AB610C45-6A0D-43F1-BB8E-3C9A91BF956F}" name="Table5" displayName="Table5" ref="A1:D25" totalsRowShown="0">
   <autoFilter ref="A1:D25" xr:uid="{AB610C45-6A0D-43F1-BB8E-3C9A91BF956F}"/>
   <tableColumns count="4">
@@ -802,30 +935,6 @@
     <tableColumn id="3" xr3:uid="{5467CA94-5087-4D6C-9991-8475D8A1C3B6}" name="Level"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E23DC274-5C23-43CC-85ED-CD9D9C34F79D}" name="Table6" displayName="Table6" ref="A1:C13" totalsRowShown="0">
-  <autoFilter ref="A1:C13" xr:uid="{E23DC274-5C23-43CC-85ED-CD9D9C34F79D}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B2F65E13-5342-4C93-9021-1B4E6C600843}" name="ID"/>
-    <tableColumn id="4" xr3:uid="{88F109CD-4DED-44D0-B3BF-2AC490306E44}" name="Building"/>
-    <tableColumn id="2" xr3:uid="{5CAD5D3B-3338-4D56-9059-03F7714D1A8C}" name="Parking"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FB4A760E-966B-4C6B-897C-D83902AF1BD8}" name="Table9" displayName="Table9" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{FB4A760E-966B-4C6B-897C-D83902AF1BD8}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DE28C3ED-6D86-42AA-BB37-7B91C77F571F}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{138CA9E9-BCC2-4728-9A22-49F6B20512F6}" name="Building"/>
-    <tableColumn id="3" xr3:uid="{62C6B8C1-A833-458A-B7C4-ADD9C805A313}" name="Parking Spot"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1125,23 +1234,622 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA510EF-B804-42E2-B8DD-C1D72D4A589B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C859A245-3C90-4B7C-9DD7-F25A178C6105}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2F0EEF64-2025-4004-A843-169C6D1A285E}">
+          <x14:formula1>
+            <xm:f>Buildings!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D3A0EF-4BE8-40EA-8F85-0C9098AE9314}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{40C1D587-0DE4-4C48-974E-181AAABF8FAF}">
+          <x14:formula1>
+            <xm:f>'Parking Lots'!$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{432E18F6-F329-49DE-B154-489A9CD545F1}">
+          <x14:formula1>
+            <xm:f>Buildings!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D64CDF-AE10-41CD-A603-F1146F496055}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F1A8623-C40F-4361-BEBF-434E53520A32}">
+          <x14:formula1>
+            <xm:f>Buildings!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7ADD32B8-2F64-46F1-9F33-48DE9BD82168}">
+          <x14:formula1>
+            <xm:f>'Parking spots'!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABCCC7B-39F1-4D4A-A87E-82A807CA683D}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4682490A-1B57-4660-8EE0-EDE01CD36C88}">
+          <x14:formula1>
+            <xm:f>Planets!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73738864-F428-4908-AB05-D87D631C82A3}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>90261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>821752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4">
+        <v>284817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5">
+        <v>506922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <v>753056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4BAEB20D-CE9B-46B6-B663-07B4F73E88EC}">
+          <x14:formula1>
+            <xm:f>Countries!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F496CE3C-4FCB-42A2-AD40-19A0C25E579C}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1149,22 +1857,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1172,22 +1883,25 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1195,18 +1909,21 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1216,10 +1933,22 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{795A2530-FDFF-45C7-BE87-94418D306CC7}">
+          <x14:formula1>
+            <xm:f>Cities!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C91AB9F-3898-47A2-861B-71AFD5DEB950}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1292,7 +2021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1535539-AB89-4B69-BFDB-9E52D2F3597C}">
   <dimension ref="A1:E68"/>
   <sheetViews>
@@ -2338,7 +3067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBD7FD1-964D-45AB-A9E2-51A514C7A6F2}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -2484,7 +3213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24169BE6-9848-46E7-9522-D69D04E2D41F}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2585,7 +3314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CFE91E-FDA2-45F8-B52A-C8C5712828C8}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -2973,351 +3702,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C859A245-3C90-4B7C-9DD7-F25A178C6105}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2F0EEF64-2025-4004-A843-169C6D1A285E}">
-          <x14:formula1>
-            <xm:f>Buildings!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D3A0EF-4BE8-40EA-8F85-0C9098AE9314}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="9.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{40C1D587-0DE4-4C48-974E-181AAABF8FAF}">
-          <x14:formula1>
-            <xm:f>'Parking Lots'!$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{432E18F6-F329-49DE-B154-489A9CD545F1}">
-          <x14:formula1>
-            <xm:f>Buildings!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B13</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D64CDF-AE10-41CD-A603-F1146F496055}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F1A8623-C40F-4361-BEBF-434E53520A32}">
-          <x14:formula1>
-            <xm:f>Buildings!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7ADD32B8-2F64-46F1-9F33-48DE9BD82168}">
-          <x14:formula1>
-            <xm:f>'Parking spots'!$A$2:$A$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/config/ctw.xlsx
+++ b/config/ctw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\github\copy-the-world\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DBCC7C-7094-4340-BDE2-B355CE39719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC64F12D-C7A8-4158-9788-3509F5C97EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="10" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="8" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planets" sheetId="11" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Cities" sheetId="13" r:id="rId3"/>
     <sheet name="Buildings" sheetId="1" r:id="rId4"/>
     <sheet name="Levels" sheetId="2" r:id="rId5"/>
-    <sheet name="Rooms" sheetId="3" r:id="rId6"/>
-    <sheet name="Zones" sheetId="8" r:id="rId7"/>
+    <sheet name="Zones" sheetId="8" r:id="rId6"/>
+    <sheet name="Rooms" sheetId="3" r:id="rId7"/>
     <sheet name="PhoneBooths" sheetId="4" r:id="rId8"/>
     <sheet name="Desks" sheetId="5" r:id="rId9"/>
     <sheet name="Parking Lots" sheetId="10" r:id="rId10"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="212">
   <si>
     <t>ID</t>
   </si>
@@ -598,6 +598,93 @@
   </si>
   <si>
     <t>Population</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>Xpirit Orlando</t>
+  </si>
+  <si>
+    <t>FRK</t>
+  </si>
+  <si>
+    <t>Xpirit Germany</t>
+  </si>
+  <si>
+    <t>28.4616643,-81.367894</t>
+  </si>
+  <si>
+    <t>50.1121608,8.656647</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>Xpirit Belgium</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>51.2092121,4.4439108</t>
+  </si>
+  <si>
+    <t>OptimusPrime</t>
+  </si>
+  <si>
+    <t>Bumblebee</t>
+  </si>
+  <si>
+    <t>Cliffjumper</t>
+  </si>
+  <si>
+    <t>Wheeljack</t>
+  </si>
+  <si>
+    <t>Prowl</t>
+  </si>
+  <si>
+    <t>Bilbo</t>
+  </si>
+  <si>
+    <t>Frodo</t>
+  </si>
+  <si>
+    <t>Samwise</t>
+  </si>
+  <si>
+    <t>Meriadoc</t>
+  </si>
+  <si>
+    <t>Belladonna</t>
+  </si>
+  <si>
+    <t>Peregrin</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Wolverine</t>
+  </si>
+  <si>
+    <t>SpiderMan</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Hulk</t>
+  </si>
+  <si>
+    <t>Daredevil</t>
+  </si>
+  <si>
+    <t>Punisher</t>
   </si>
 </sst>
 </file>
@@ -702,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -713,6 +800,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,8 +942,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{286E368C-FE77-4E6B-9074-2516FF806E1F}" name="Table1" displayName="Table1" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{286E368C-FE77-4E6B-9074-2516FF806E1F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{286E368C-FE77-4E6B-9074-2516FF806E1F}" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
+  <autoFilter ref="A1:H6" xr:uid="{286E368C-FE77-4E6B-9074-2516FF806E1F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{CC0D9068-E39E-4DCA-BDFD-DAB0927E9F90}" name="ID"/>
     <tableColumn id="7" xr3:uid="{473F1CEC-5290-4EA9-9033-5EEB95FA3E3B}" name="Name"/>
@@ -871,8 +959,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{16DBF3CF-DFAA-4226-A74F-3FF95F5614F0}" name="Table2" displayName="Table2" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5" xr:uid="{16DBF3CF-DFAA-4226-A74F-3FF95F5614F0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{16DBF3CF-DFAA-4226-A74F-3FF95F5614F0}" name="Table2" displayName="Table2" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11" xr:uid="{16DBF3CF-DFAA-4226-A74F-3FF95F5614F0}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{FE7D0D47-DC0C-43F7-81AE-4C733CE27A01}" name="ID" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{BCB2ED7B-FC9C-482A-B7E5-40AD2BC48DEC}" name="Building"/>
@@ -882,8 +970,21 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{88B3C328-C0A5-41A4-BF4D-2C029E2BF87E}" name="Table3" displayName="Table3" ref="A1:E68" totalsRowShown="0">
-  <autoFilter ref="A1:E68" xr:uid="{88B3C328-C0A5-41A4-BF4D-2C029E2BF87E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7ACCEDDF-2DE4-49BC-B6EC-2DAB6698B40C}" name="Table8" displayName="Table8" ref="A1:D10" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:D10" xr:uid="{7ACCEDDF-2DE4-49BC-B6EC-2DAB6698B40C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E85DA0FE-32F9-4428-811C-D5E3ED923FA6}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{B68FA473-2AD7-4BFA-84E4-9A8F85F569D8}" name="Building" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{C574EEC4-AF96-4547-8821-86BDB9619A97}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{76325719-C930-4888-A2C5-86FF12E71230}" name="Level"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{88B3C328-C0A5-41A4-BF4D-2C029E2BF87E}" name="Table3" displayName="Table3" ref="A1:E85" totalsRowShown="0">
+  <autoFilter ref="A1:E85" xr:uid="{88B3C328-C0A5-41A4-BF4D-2C029E2BF87E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E26">
     <sortCondition ref="A1:A26"/>
   </sortState>
@@ -893,19 +994,6 @@
     <tableColumn id="3" xr3:uid="{553B7577-C52D-4256-9C71-F31A3AAD5A91}" name="Name"/>
     <tableColumn id="5" xr3:uid="{94606806-F489-4FB4-BB42-58D2B96D413F}" name="Zone"/>
     <tableColumn id="4" xr3:uid="{C0AB62C2-5551-4DDB-A88E-E06B3F126747}" name="Level"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7ACCEDDF-2DE4-49BC-B6EC-2DAB6698B40C}" name="Table8" displayName="Table8" ref="A1:D8" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:D8" xr:uid="{7ACCEDDF-2DE4-49BC-B6EC-2DAB6698B40C}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E85DA0FE-32F9-4428-811C-D5E3ED923FA6}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{B68FA473-2AD7-4BFA-84E4-9A8F85F569D8}" name="Building" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{C574EEC4-AF96-4547-8821-86BDB9619A97}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{76325719-C930-4888-A2C5-86FF12E71230}" name="Level"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -926,8 +1014,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AB610C45-6A0D-43F1-BB8E-3C9A91BF956F}" name="Table5" displayName="Table5" ref="A1:D25" totalsRowShown="0">
-  <autoFilter ref="A1:D25" xr:uid="{AB610C45-6A0D-43F1-BB8E-3C9A91BF956F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AB610C45-6A0D-43F1-BB8E-3C9A91BF956F}" name="Table5" displayName="Table5" ref="A1:D95" totalsRowShown="0">
+  <autoFilter ref="A1:D95" xr:uid="{AB610C45-6A0D-43F1-BB8E-3C9A91BF956F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4054AA3F-5E8D-47BD-BF01-D7AEE18D98CB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{350C66A8-75EE-4471-896F-5EEE3965EC40}" name="Building"/>
@@ -1833,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F496CE3C-4FCB-42A2-AD40-19A0C25E579C}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1927,6 +2015,66 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1940,7 +2088,7 @@
           <x14:formula1>
             <xm:f>Cities!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C3</xm:sqref>
+          <xm:sqref>C2:C6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1950,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C91AB9F-3898-47A2-861B-71AFD5DEB950}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1999,6 +2147,54 @@
       </c>
       <c r="B5" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2011,9 +2207,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29A5EA50-D43C-4FF8-A20F-5E0D33A100FB}">
           <x14:formula1>
-            <xm:f>Buildings!$A$2:$A$3</xm:f>
+            <xm:f>Buildings!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B5</xm:sqref>
+          <xm:sqref>B2:B11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2022,15 +2218,190 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1535539-AB89-4B69-BFDB-9E52D2F3597C}">
-  <dimension ref="A1:E68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBD7FD1-964D-45AB-A9E2-51A514C7A6F2}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE597BE1-6971-4332-9870-A7224090FC9A}">
+          <x14:formula1>
+            <xm:f>Buildings!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1535539-AB89-4B69-BFDB-9E52D2F3597C}">
+  <dimension ref="A1:E85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.453125" customWidth="1"/>
     <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1796875" customWidth="1"/>
@@ -3038,6 +3409,262 @@
       </c>
       <c r="E68">
         <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" t="s">
+        <v>193</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" t="s">
+        <v>194</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" t="s">
+        <v>195</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" t="s">
+        <v>197</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" t="s">
+        <v>200</v>
+      </c>
+      <c r="D76" t="s">
+        <v>204</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" t="s">
+        <v>205</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" t="s">
+        <v>205</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" t="s">
+        <v>205</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>206</v>
+      </c>
+      <c r="B80" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" t="s">
+        <v>206</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>207</v>
+      </c>
+      <c r="B81" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" t="s">
+        <v>207</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>208</v>
+      </c>
+      <c r="B82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" t="s">
+        <v>208</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" t="s">
+        <v>209</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>210</v>
+      </c>
+      <c r="B84" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" t="s">
+        <v>210</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" t="s">
+        <v>211</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3051,161 +3678,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{493E7F9D-254A-45D1-AD23-64FD31EC9A50}">
           <x14:formula1>
-            <xm:f>Buildings!$A$2:$A$3</xm:f>
+            <xm:f>Buildings!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B68</xm:sqref>
+          <xm:sqref>B2:B85</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{91AAD73E-737E-49C3-B84B-7501CFDA2DEB}">
           <x14:formula1>
-            <xm:f>Zones!$A$2:$A$8</xm:f>
+            <xm:f>Zones!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D68</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBD7FD1-964D-45AB-A9E2-51A514C7A6F2}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE597BE1-6971-4332-9870-A7224090FC9A}">
-          <x14:formula1>
-            <xm:f>Buildings!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B8</xm:sqref>
+          <xm:sqref>D2:D85</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3316,10 +3797,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CFE91E-FDA2-45F8-B52A-C8C5712828C8}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3675,6 +4156,836 @@
       </c>
       <c r="D25">
         <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" t="s">
+        <v>204</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" t="s">
+        <v>204</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>189</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" t="s">
+        <v>189</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" t="s">
+        <v>189</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3688,15 +4999,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0F6C4BAD-05B0-4AAA-BD07-A1A2565B6D1F}">
           <x14:formula1>
-            <xm:f>Buildings!$A$2:$A$3</xm:f>
+            <xm:f>Buildings!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B25</xm:sqref>
+          <xm:sqref>B2:B95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECF9E65C-C06A-4F19-968E-E461C4F0B928}">
           <x14:formula1>
-            <xm:f>Zones!$A$2:$A$8</xm:f>
+            <xm:f>Zones!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C25</xm:sqref>
+          <xm:sqref>C2:C95</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/config/ctw.xlsx
+++ b/config/ctw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\github\copy-the-world\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829CF891-EF0E-4999-B869-67990225A067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F681EA2C-2EBD-4AC4-B022-EF54696EE565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="8" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="9" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planets" sheetId="11" r:id="rId1"/>
@@ -22,14 +22,17 @@
     <sheet name="PhoneBooths" sheetId="4" r:id="rId7"/>
     <sheet name="Rooms" sheetId="3" r:id="rId8"/>
     <sheet name="RoomMotionSensors" sheetId="14" r:id="rId9"/>
-    <sheet name="Desks" sheetId="5" r:id="rId10"/>
-    <sheet name="DeskMotionSensors" sheetId="15" r:id="rId11"/>
-    <sheet name="Parking Lots" sheetId="10" r:id="rId12"/>
-    <sheet name="Parking spots" sheetId="6" r:id="rId13"/>
-    <sheet name="Car Chargers" sheetId="9" r:id="rId14"/>
+    <sheet name="TemperatureSensors" sheetId="17" r:id="rId10"/>
+    <sheet name="Co2Sensors" sheetId="16" r:id="rId11"/>
+    <sheet name="Desks" sheetId="5" r:id="rId12"/>
+    <sheet name="DeskMotionSensors" sheetId="15" r:id="rId13"/>
+    <sheet name="Parking Lots" sheetId="10" r:id="rId14"/>
+    <sheet name="Parking spots" sheetId="6" r:id="rId15"/>
+    <sheet name="Car Chargers" sheetId="9" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="Buildings" localSheetId="10">Table1[]</definedName>
+    <definedName name="Buildings" localSheetId="12">Table1[]</definedName>
+    <definedName name="Buildings" localSheetId="9">Table1[]</definedName>
     <definedName name="Buildings">Table1[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="560">
   <si>
     <t>ID</t>
   </si>
@@ -1228,6 +1231,510 @@
   </si>
   <si>
     <t>Target</t>
+  </si>
+  <si>
+    <t>0a8a49bc-88f5-492b-98e5-9f0612479ac1</t>
+  </si>
+  <si>
+    <t>77e71ea6-c0bf-4b7b-8562-2bffdbfd19fe</t>
+  </si>
+  <si>
+    <t>d5b856ee-848e-4d9c-b081-ca42519a7776</t>
+  </si>
+  <si>
+    <t>62a6f226-24ce-4939-a75d-e3b2402ff5d3</t>
+  </si>
+  <si>
+    <t>c6c4f21b-5f85-4df9-beab-5f89236e5bed</t>
+  </si>
+  <si>
+    <t>989fecd9-0767-41ff-bb05-7975da1636ee</t>
+  </si>
+  <si>
+    <t>a9d5cd8d-a8d0-4198-a7ef-19c0028f9c6e</t>
+  </si>
+  <si>
+    <t>26b4304e-d677-4754-9b14-29f7f1393d4a</t>
+  </si>
+  <si>
+    <t>3bee27b1-2cb4-4295-b7ff-982ac4fb9ef9</t>
+  </si>
+  <si>
+    <t>4bc23a48-1504-472d-a52b-37ec3f27585b</t>
+  </si>
+  <si>
+    <t>a71fa979-ba99-4a5d-8c3b-6e9c20eea0a5</t>
+  </si>
+  <si>
+    <t>2ae71ccb-d82e-43fb-a57f-8d789f872fa9</t>
+  </si>
+  <si>
+    <t>2db23dc8-6ffa-48a0-9ed2-d6c39fc22218</t>
+  </si>
+  <si>
+    <t>5f2b526b-a544-4485-9d34-287fb6c02964</t>
+  </si>
+  <si>
+    <t>b3f96253-183a-46d2-a886-079eef642048</t>
+  </si>
+  <si>
+    <t>4fd524f7-646c-4099-be8d-b86b4ee24a57</t>
+  </si>
+  <si>
+    <t>877c5131-3615-4465-93d2-05e5bfb26a9c</t>
+  </si>
+  <si>
+    <t>91a62499-f422-4271-8866-8e903ed2cdaa</t>
+  </si>
+  <si>
+    <t>3ce56bb7-ee5e-4211-8de6-660e984a60c7</t>
+  </si>
+  <si>
+    <t>bb8a2d4a-4082-4a45-a9fd-842f6c52e567</t>
+  </si>
+  <si>
+    <t>e6c5e6c8-22af-40b1-a985-a7b38e6ecf9e</t>
+  </si>
+  <si>
+    <t>f10fdabd-6a70-498d-a7b5-7d29d14f2f2a</t>
+  </si>
+  <si>
+    <t>e9d99cfc-9517-49f5-9fe8-02deb829aeb6</t>
+  </si>
+  <si>
+    <t>1f407657-a58a-42ea-8966-d8fe87a4eb4d</t>
+  </si>
+  <si>
+    <t>84f453a5-345a-42c0-8a90-77056fbd65cc</t>
+  </si>
+  <si>
+    <t>e4693737-ada2-4118-bfaa-9cea6683add4</t>
+  </si>
+  <si>
+    <t>3ed0b5db-23bb-494d-b2dc-beeffb74ad83</t>
+  </si>
+  <si>
+    <t>9dd47856-c6fe-48bf-81c2-70d9fc9ec716</t>
+  </si>
+  <si>
+    <t>de72de20-2a26-40f2-b03e-71f44345d133</t>
+  </si>
+  <si>
+    <t>77fd9533-9304-4884-a5b8-2481ee5dc0e1</t>
+  </si>
+  <si>
+    <t>6c089bc8-a4db-4244-be44-cf0a5b86bd20</t>
+  </si>
+  <si>
+    <t>b52fcbd7-b83d-449e-913e-ccea383b11ac</t>
+  </si>
+  <si>
+    <t>2f451a9d-7b37-448d-8a75-e3fb0cbf9fd7</t>
+  </si>
+  <si>
+    <t>9833feef-27ce-4d91-8ea7-c70d40dc6ca0</t>
+  </si>
+  <si>
+    <t>49c6e8a3-3114-4ccb-936d-192453d3e04e</t>
+  </si>
+  <si>
+    <t>2665500b-31d6-4165-a2eb-2cd010343617</t>
+  </si>
+  <si>
+    <t>bb38f6b2-c476-4bc6-a485-826ca07d6762</t>
+  </si>
+  <si>
+    <t>a3bfd261-7d7d-4ed0-b822-27ad83b740f6</t>
+  </si>
+  <si>
+    <t>86fa34da-0bba-44d4-bc70-02b5c31b0250</t>
+  </si>
+  <si>
+    <t>15223921-99b1-4613-b81b-f5aa85cd6f97</t>
+  </si>
+  <si>
+    <t>23ac4262-2e1e-4ac8-9e65-8737cd93556f</t>
+  </si>
+  <si>
+    <t>b9a89306-c3c3-4a63-8709-3b9134d78aca</t>
+  </si>
+  <si>
+    <t>6d1046b3-595f-40be-827d-a508b92aa1cd</t>
+  </si>
+  <si>
+    <t>67e687e5-e626-45a1-b813-16ed85783c7b</t>
+  </si>
+  <si>
+    <t>65901648-17d6-4cb1-b95e-540ff02a2059</t>
+  </si>
+  <si>
+    <t>25d286da-34ef-4b5d-9c90-e1c1ae353aae</t>
+  </si>
+  <si>
+    <t>7d04bd83-11b7-42aa-845a-0d484da64cbb</t>
+  </si>
+  <si>
+    <t>549cd38d-cc03-4bce-b52c-49c0c330b999</t>
+  </si>
+  <si>
+    <t>fdf56022-c9d5-4c13-bafd-ef678f437b73</t>
+  </si>
+  <si>
+    <t>0bc314cd-ca53-4ea2-b48f-aa55333c3cc9</t>
+  </si>
+  <si>
+    <t>55cbcbda-770f-4d6e-9273-120dc976ae54</t>
+  </si>
+  <si>
+    <t>b7acfdc3-ca51-4544-8a43-1fb6549eafe4</t>
+  </si>
+  <si>
+    <t>e9697ca9-f881-4543-99df-27d1aaad91c3</t>
+  </si>
+  <si>
+    <t>9390f795-6cb6-4154-8ab3-bd456120443c</t>
+  </si>
+  <si>
+    <t>db9d9487-9c6e-4ce3-aaf3-387ac1523131</t>
+  </si>
+  <si>
+    <t>4c586dff-ee45-41fc-ab90-ac1fcebb5c68</t>
+  </si>
+  <si>
+    <t>ea627141-a378-4a96-9648-245db15a462b</t>
+  </si>
+  <si>
+    <t>909479d6-2ef0-44d5-ba7d-b7594b585810</t>
+  </si>
+  <si>
+    <t>65764a8f-23e5-4c78-8402-b549d7c95742</t>
+  </si>
+  <si>
+    <t>c4da107b-718b-4275-acd1-f19ee8e7454f</t>
+  </si>
+  <si>
+    <t>9743f346-04b2-416f-97e5-36610dc2c185</t>
+  </si>
+  <si>
+    <t>cb05848b-94f0-41ce-bacd-a1a88e11ebf9</t>
+  </si>
+  <si>
+    <t>78a7e9ed-4c7c-4d3a-baf1-1f4b7ff6cc40</t>
+  </si>
+  <si>
+    <t>cbfb8aeb-e782-4ab9-a7c4-e786dcf6a96c</t>
+  </si>
+  <si>
+    <t>8cfb443b-f8f3-4517-aa17-566280e855ef</t>
+  </si>
+  <si>
+    <t>8f4e871c-d4a8-4b84-ae8c-bebb77801334</t>
+  </si>
+  <si>
+    <t>a4bb05a5-4847-4ebc-a56b-e2d539c159f5</t>
+  </si>
+  <si>
+    <t>c8f0da6d-79be-42f8-b3ef-c7929780e836</t>
+  </si>
+  <si>
+    <t>916a631b-fd80-4f44-8aee-fc6d8958771c</t>
+  </si>
+  <si>
+    <t>73644c50-ed8d-49bb-a0b7-41829c95afb6</t>
+  </si>
+  <si>
+    <t>77e23cda-b472-44da-ac86-1cab35d77560</t>
+  </si>
+  <si>
+    <t>ee5378df-d7c4-4c18-b271-1ecf2f81a7a3</t>
+  </si>
+  <si>
+    <t>1768e8de-1c4e-4f2e-85b2-bf9a229d87c3</t>
+  </si>
+  <si>
+    <t>39aabde2-8272-4899-b1ab-810f68f1eef0</t>
+  </si>
+  <si>
+    <t>421d05c6-13a2-4f7a-ab9e-d327135d1d67</t>
+  </si>
+  <si>
+    <t>e16eeb54-2b69-43d9-8d01-b92758c5a1be</t>
+  </si>
+  <si>
+    <t>5ad02131-c9e1-4d7b-99a1-2385def95043</t>
+  </si>
+  <si>
+    <t>4ad7412a-1a83-4d5a-aca6-a91b2a60edd4</t>
+  </si>
+  <si>
+    <t>5f37021d-3b86-4983-8212-07819e013935</t>
+  </si>
+  <si>
+    <t>6e98ac87-9e8c-41cd-8a25-a5eec7f3f756</t>
+  </si>
+  <si>
+    <t>fb091cba-8b86-41a1-8ba9-0e9702750fdf</t>
+  </si>
+  <si>
+    <t>ded01f0e-3940-4f7c-b4a7-0275b56c2a27</t>
+  </si>
+  <si>
+    <t>5b704a46-4547-4229-b2b4-f8901cfc705b</t>
+  </si>
+  <si>
+    <t>3e14ebb9-b3f3-4e8e-891f-7f258cfa4330</t>
+  </si>
+  <si>
+    <t>6fd11497-b552-44f9-b777-ee68e96480c2</t>
+  </si>
+  <si>
+    <t>edb06af4-3dcb-42af-8fd0-63acf5d7241e</t>
+  </si>
+  <si>
+    <t>00b6d8f2-0cf1-420b-bb62-034d63f703ef</t>
+  </si>
+  <si>
+    <t>ad5685a4-b313-4d63-aca1-9d9abe810d92</t>
+  </si>
+  <si>
+    <t>7e8e44e7-d6d6-4c9b-b55c-1d13d3371fec</t>
+  </si>
+  <si>
+    <t>19f6672f-2ba9-438a-8c2a-d6a8dfc7193d</t>
+  </si>
+  <si>
+    <t>fe7bd466-f3c1-42ae-bcf4-364bb76077da</t>
+  </si>
+  <si>
+    <t>a853e27d-e1f2-4045-9188-6b49953bd19a</t>
+  </si>
+  <si>
+    <t>d15ccd1c-bbe5-4a24-88d3-09acb3862c0e</t>
+  </si>
+  <si>
+    <t>0fb87bc8-a0f4-4bf8-b4e1-533909044662</t>
+  </si>
+  <si>
+    <t>0bc921cd-97b0-4c1a-879c-83edcc6006f5</t>
+  </si>
+  <si>
+    <t>e22110b9-49df-4c97-b5c7-5ef8c4ee1094</t>
+  </si>
+  <si>
+    <t>902ea00a-58b5-465b-aa0e-22ea1841795a</t>
+  </si>
+  <si>
+    <t>cd115851-8731-416d-be3b-3caaff89fc70</t>
+  </si>
+  <si>
+    <t>b6a5a7bc-94c1-40c6-8ae6-0b4854b16bc0</t>
+  </si>
+  <si>
+    <t>3f7c69d6-8b46-481d-a017-e93a8a4a2b35</t>
+  </si>
+  <si>
+    <t>a48011c8-dacf-4380-845d-81bf539534f7</t>
+  </si>
+  <si>
+    <t>1bebf795-cd8d-4a6d-994c-ea54f3885b4d</t>
+  </si>
+  <si>
+    <t>3b7a4e66-9423-4531-a0c7-ddefff130ac0</t>
+  </si>
+  <si>
+    <t>a9928777-cd85-4a7d-b246-a3d25dd02028</t>
+  </si>
+  <si>
+    <t>73167e3b-901d-44a5-865d-3bd9aa0e22cf</t>
+  </si>
+  <si>
+    <t>c4afa966-7e52-4aaf-b229-8f7174b997f1</t>
+  </si>
+  <si>
+    <t>4ac5ff53-e242-4d31-9dea-0f15cc9f12b0</t>
+  </si>
+  <si>
+    <t>f38fca6d-b1ba-4632-9cad-3ccf4f58d790</t>
+  </si>
+  <si>
+    <t>04664e9d-2940-41f7-a102-5675b86e8356</t>
+  </si>
+  <si>
+    <t>2d4e94e5-ec69-431f-a58a-818b3c97949e</t>
+  </si>
+  <si>
+    <t>82114c5f-1d68-4a4d-8b67-7d8135391277</t>
+  </si>
+  <si>
+    <t>732c15be-2422-4123-93ed-450ff291b543</t>
+  </si>
+  <si>
+    <t>55c7ee5c-16eb-4790-ae84-ecd36f7520c7</t>
+  </si>
+  <si>
+    <t>27cc3ff5-54e6-40fd-8ac6-412b2a76e2e8</t>
+  </si>
+  <si>
+    <t>73cb856e-fe8d-420c-ae62-ced408213d5a</t>
+  </si>
+  <si>
+    <t>126bc440-a21d-4b75-b06d-32fa4cf979c4</t>
+  </si>
+  <si>
+    <t>de259ad1-c068-4506-ae54-416450d01b0d</t>
+  </si>
+  <si>
+    <t>bc30866c-2b67-4375-a169-192018bda8fc</t>
+  </si>
+  <si>
+    <t>eba0130e-133b-4a12-abec-553ae1d09ebb</t>
+  </si>
+  <si>
+    <t>88adb491-9394-4edb-b317-dc2a53be4dbb</t>
+  </si>
+  <si>
+    <t>1343e7fc-76bb-43d3-8422-441a3ad10aaa</t>
+  </si>
+  <si>
+    <t>e54d3a14-af21-44e8-890d-c9be48be960a</t>
+  </si>
+  <si>
+    <t>46d7d7c9-97b5-4422-9698-9dd42aa696a0</t>
+  </si>
+  <si>
+    <t>fd412e37-2eb0-4041-8680-c63274226ef0</t>
+  </si>
+  <si>
+    <t>f73e9d4c-c3c3-4569-8161-9dfeb66e81c7</t>
+  </si>
+  <si>
+    <t>98c44997-9c16-460a-8e4d-847e430b6d55</t>
+  </si>
+  <si>
+    <t>cee566a7-1371-492b-aa5f-49e87e983ae6</t>
+  </si>
+  <si>
+    <t>4ab42ec4-7b33-4b55-8e97-c3c1bf6cd054</t>
+  </si>
+  <si>
+    <t>03704981-c20a-4aa7-944a-1a0e72b7cafe</t>
+  </si>
+  <si>
+    <t>1cb438a9-ef0f-4912-89f9-1fc5befb1e41</t>
+  </si>
+  <si>
+    <t>2993df51-ec76-463b-b07b-6ef1f63f3da7</t>
+  </si>
+  <si>
+    <t>faf0d66d-0a9d-4e78-a872-8f3f5289d05f</t>
+  </si>
+  <si>
+    <t>970c10dd-0db8-4cc4-a3e2-1a224a8d2e64</t>
+  </si>
+  <si>
+    <t>b6eab9ff-891d-4916-a244-4a4ee196889a</t>
+  </si>
+  <si>
+    <t>3b3594f5-1164-4663-b59e-fee83f8b8466</t>
+  </si>
+  <si>
+    <t>32b529d4-d0d3-4d68-be34-294251debb06</t>
+  </si>
+  <si>
+    <t>7635be66-3069-4581-9828-29f7570d6421</t>
+  </si>
+  <si>
+    <t>3a556536-eb66-4e71-8903-c8447f879cdb</t>
+  </si>
+  <si>
+    <t>1171ec4c-f2df-48f3-9954-e9e6a2f0f384</t>
+  </si>
+  <si>
+    <t>2fae00a3-4312-4cc9-ad55-e793aeb3ecab</t>
+  </si>
+  <si>
+    <t>23bee881-bd37-477a-9b69-e1e16de86e23</t>
+  </si>
+  <si>
+    <t>8bed7495-e60f-4f84-9daf-8dc607dfcc60</t>
+  </si>
+  <si>
+    <t>1dd8ac25-ce09-430d-8202-dbdb85dc04e8</t>
+  </si>
+  <si>
+    <t>390d3c74-305a-43ae-a4cb-483c7ee0ccad</t>
+  </si>
+  <si>
+    <t>57a8fdee-de8b-4ef5-8b80-f7f4d2c56e5c</t>
+  </si>
+  <si>
+    <t>826fbb9d-0f95-4eac-af7f-999675b33c72</t>
+  </si>
+  <si>
+    <t>cf87b2b0-d7e4-4237-b46a-929e14d9b963</t>
+  </si>
+  <si>
+    <t>260ece90-232a-4e3c-ac46-a82d4131e0d5</t>
+  </si>
+  <si>
+    <t>362bf759-8735-42f8-97f6-85676c6e0ddf</t>
+  </si>
+  <si>
+    <t>9dad864d-9f3a-4c46-903e-828d1c39bdf4</t>
+  </si>
+  <si>
+    <t>5f4afb8c-76b9-463a-8d08-280f9280b55b</t>
+  </si>
+  <si>
+    <t>7fa0f352-b04a-4872-9daf-aadfa207f209</t>
+  </si>
+  <si>
+    <t>690c4c75-a6ed-43bf-91c3-10b0c1a84ae1</t>
+  </si>
+  <si>
+    <t>e42d243b-6e07-4354-ab33-9d6b3a971713</t>
+  </si>
+  <si>
+    <t>3c668f88-bf51-4286-9b29-70a4e5bd8cb8</t>
+  </si>
+  <si>
+    <t>a4034355-b563-497b-ac49-6b93ab1a7c7b</t>
+  </si>
+  <si>
+    <t>1f764ba9-b02b-485e-b730-152708b17ef5</t>
+  </si>
+  <si>
+    <t>d8734d88-243c-43e8-88c9-fb88f6b99412</t>
+  </si>
+  <si>
+    <t>5e4d12a7-a654-4b0d-9f7b-dbd2f3377a71</t>
+  </si>
+  <si>
+    <t>2995267a-2675-4d3b-83f3-4cfb3d23c4e0</t>
+  </si>
+  <si>
+    <t>ecbe8939-d600-4613-a39e-ccfec0870442</t>
+  </si>
+  <si>
+    <t>7f1b57e7-5dc0-4e83-8726-f77bba126282</t>
+  </si>
+  <si>
+    <t>2b8920a7-4c71-41d2-9016-de4f4ad16e5c</t>
+  </si>
+  <si>
+    <t>27223a8e-582a-40d1-bff2-9657d50a153a</t>
+  </si>
+  <si>
+    <t>050c0d18-6388-4f99-8d20-70a63ac30794</t>
+  </si>
+  <si>
+    <t>942c762f-b671-4f64-91b5-6cf36be23506</t>
+  </si>
+  <si>
+    <t>4acfc5af-3476-4701-b06a-945810a01fb2</t>
+  </si>
+  <si>
+    <t>0f44608d-5f67-4a96-aa93-d08533a3a351</t>
   </si>
 </sst>
 </file>
@@ -1934,6 +2441,1572 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E385D5A-40C9-462D-AD16-FC1D40C4A3E2}">
+  <dimension ref="A1:B85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B8" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B9" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B10" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B11" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B12" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B13" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B14" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>489</v>
+      </c>
+      <c r="B15" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>490</v>
+      </c>
+      <c r="B16" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>491</v>
+      </c>
+      <c r="B17" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>492</v>
+      </c>
+      <c r="B18" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>493</v>
+      </c>
+      <c r="B19" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>494</v>
+      </c>
+      <c r="B20" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>495</v>
+      </c>
+      <c r="B21" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>496</v>
+      </c>
+      <c r="B22" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>497</v>
+      </c>
+      <c r="B23" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>498</v>
+      </c>
+      <c r="B24" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>499</v>
+      </c>
+      <c r="B25" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>500</v>
+      </c>
+      <c r="B26" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>501</v>
+      </c>
+      <c r="B27" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>502</v>
+      </c>
+      <c r="B28" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>503</v>
+      </c>
+      <c r="B29" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>504</v>
+      </c>
+      <c r="B30" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>505</v>
+      </c>
+      <c r="B31" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>506</v>
+      </c>
+      <c r="B32" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>507</v>
+      </c>
+      <c r="B33" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.09</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>508</v>
+      </c>
+      <c r="B34" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>509</v>
+      </c>
+      <c r="B35" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>510</v>
+      </c>
+      <c r="B36" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>511</v>
+      </c>
+      <c r="B37" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>512</v>
+      </c>
+      <c r="B38" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>513</v>
+      </c>
+      <c r="B39" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="B40" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>515</v>
+      </c>
+      <c r="B41" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>516</v>
+      </c>
+      <c r="B42" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.08</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>517</v>
+      </c>
+      <c r="B43" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.09</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>518</v>
+      </c>
+      <c r="B44" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="B45" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>520</v>
+      </c>
+      <c r="B46" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>521</v>
+      </c>
+      <c r="B47" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>522</v>
+      </c>
+      <c r="B48" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>523</v>
+      </c>
+      <c r="B49" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.03</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>524</v>
+      </c>
+      <c r="B50" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.04</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>525</v>
+      </c>
+      <c r="B51" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>526</v>
+      </c>
+      <c r="B52" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>527</v>
+      </c>
+      <c r="B53" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>528</v>
+      </c>
+      <c r="B54" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.08</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>529</v>
+      </c>
+      <c r="B55" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>530</v>
+      </c>
+      <c r="B56" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>531</v>
+      </c>
+      <c r="B57" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>532</v>
+      </c>
+      <c r="B58" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>533</v>
+      </c>
+      <c r="B59" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>534</v>
+      </c>
+      <c r="B60" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.02</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>535</v>
+      </c>
+      <c r="B61" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.03</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>536</v>
+      </c>
+      <c r="B62" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.04</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>537</v>
+      </c>
+      <c r="B63" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>538</v>
+      </c>
+      <c r="B64" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>539</v>
+      </c>
+      <c r="B65" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.07</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>540</v>
+      </c>
+      <c r="B66" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.08</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>541</v>
+      </c>
+      <c r="B67" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.09</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>542</v>
+      </c>
+      <c r="B68" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>543</v>
+      </c>
+      <c r="B69" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>orl-0-optimusprime</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>544</v>
+      </c>
+      <c r="B70" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>orl-0-bumblebee</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>545</v>
+      </c>
+      <c r="B71" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>orl-0-cliffjumper</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>546</v>
+      </c>
+      <c r="B72" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>orl-1-wheeljack</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>547</v>
+      </c>
+      <c r="B73" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>orl-1-prowl</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>548</v>
+      </c>
+      <c r="B74" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-bilbo</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>549</v>
+      </c>
+      <c r="B75" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-frodo</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>550</v>
+      </c>
+      <c r="B76" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-samwise</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>551</v>
+      </c>
+      <c r="B77" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-meriadoc</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>552</v>
+      </c>
+      <c r="B78" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-belladonna</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>553</v>
+      </c>
+      <c r="B79" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-peregrin</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>554</v>
+      </c>
+      <c r="B80" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-2-wolverine</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>555</v>
+      </c>
+      <c r="B81" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-2-spiderman</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>556</v>
+      </c>
+      <c r="B82" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-3-thor</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>557</v>
+      </c>
+      <c r="B83" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-3-hulk</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>558</v>
+      </c>
+      <c r="B84" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-4-daredevil</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>559</v>
+      </c>
+      <c r="B85" s="11" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-4-punisher</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C19D2-729C-4E84-B2FE-45F185621D28}">
+  <dimension ref="A1:B85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B9" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B16" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>409</v>
+      </c>
+      <c r="B19" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B20" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>411</v>
+      </c>
+      <c r="B21" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>412</v>
+      </c>
+      <c r="B22" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>413</v>
+      </c>
+      <c r="B23" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>414</v>
+      </c>
+      <c r="B24" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>415</v>
+      </c>
+      <c r="B25" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>416</v>
+      </c>
+      <c r="B26" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>417</v>
+      </c>
+      <c r="B27" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>418</v>
+      </c>
+      <c r="B28" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>420</v>
+      </c>
+      <c r="B30" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>423</v>
+      </c>
+      <c r="B33" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.09</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>424</v>
+      </c>
+      <c r="B34" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>426</v>
+      </c>
+      <c r="B36" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>427</v>
+      </c>
+      <c r="B37" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>428</v>
+      </c>
+      <c r="B38" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>429</v>
+      </c>
+      <c r="B39" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B40" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>431</v>
+      </c>
+      <c r="B41" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>432</v>
+      </c>
+      <c r="B42" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.08</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>433</v>
+      </c>
+      <c r="B43" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.09</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>434</v>
+      </c>
+      <c r="B44" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B45" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>436</v>
+      </c>
+      <c r="B46" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>437</v>
+      </c>
+      <c r="B47" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>438</v>
+      </c>
+      <c r="B48" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>439</v>
+      </c>
+      <c r="B49" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.03</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>440</v>
+      </c>
+      <c r="B50" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.04</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>441</v>
+      </c>
+      <c r="B51" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>442</v>
+      </c>
+      <c r="B52" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>443</v>
+      </c>
+      <c r="B53" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>444</v>
+      </c>
+      <c r="B54" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.08</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>445</v>
+      </c>
+      <c r="B55" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>446</v>
+      </c>
+      <c r="B56" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>447</v>
+      </c>
+      <c r="B57" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>448</v>
+      </c>
+      <c r="B58" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>449</v>
+      </c>
+      <c r="B59" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>450</v>
+      </c>
+      <c r="B60" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.02</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>451</v>
+      </c>
+      <c r="B61" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.03</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>452</v>
+      </c>
+      <c r="B62" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.04</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>453</v>
+      </c>
+      <c r="B63" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>454</v>
+      </c>
+      <c r="B64" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>455</v>
+      </c>
+      <c r="B65" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.07</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>456</v>
+      </c>
+      <c r="B66" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.08</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>457</v>
+      </c>
+      <c r="B67" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.09</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>458</v>
+      </c>
+      <c r="B68" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>459</v>
+      </c>
+      <c r="B69" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>orl-0-optimusprime</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>460</v>
+      </c>
+      <c r="B70" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>orl-0-bumblebee</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>461</v>
+      </c>
+      <c r="B71" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>orl-0-cliffjumper</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>462</v>
+      </c>
+      <c r="B72" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>orl-1-wheeljack</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>463</v>
+      </c>
+      <c r="B73" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>orl-1-prowl</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>464</v>
+      </c>
+      <c r="B74" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-bilbo</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>465</v>
+      </c>
+      <c r="B75" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-frodo</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>466</v>
+      </c>
+      <c r="B76" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-samwise</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>467</v>
+      </c>
+      <c r="B77" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-meriadoc</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>468</v>
+      </c>
+      <c r="B78" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-belladonna</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>469</v>
+      </c>
+      <c r="B79" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-peregrin</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>470</v>
+      </c>
+      <c r="B80" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-2-wolverine</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>471</v>
+      </c>
+      <c r="B81" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-2-spiderman</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>472</v>
+      </c>
+      <c r="B82" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-3-thor</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>473</v>
+      </c>
+      <c r="B83" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-3-hulk</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>474</v>
+      </c>
+      <c r="B84" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-4-daredevil</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>475</v>
+      </c>
+      <c r="B85" s="11" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-4-punisher</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CFE91E-FDA2-45F8-B52A-C8C5712828C8}">
   <dimension ref="A1:E95"/>
   <sheetViews>
@@ -3533,7 +5606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2BF07D-DE80-42CA-ADD3-7A061146A9C7}">
   <dimension ref="A1:B95"/>
   <sheetViews>
@@ -4406,7 +6479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C859A245-3C90-4B7C-9DD7-F25A178C6105}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4452,7 +6525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D3A0EF-4BE8-40EA-8F85-0C9098AE9314}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -4635,7 +6708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D64CDF-AE10-41CD-A603-F1146F496055}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -7182,8 +9255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3A9034-3F18-4A30-98AB-4FE0DA6214B0}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection sqref="A1:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/config/ctw.xlsx
+++ b/config/ctw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\github\copy-the-world\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F681EA2C-2EBD-4AC4-B022-EF54696EE565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C477086-A29C-48F9-8AF2-B942A59A2AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="9" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
+    <workbookView xWindow="-32230" yWindow="4210" windowWidth="28800" windowHeight="15370" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planets" sheetId="11" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="572">
   <si>
     <t>ID</t>
   </si>
@@ -1735,6 +1735,42 @@
   </si>
   <si>
     <t>0f44608d-5f67-4a96-aa93-d08533a3a351</t>
+  </si>
+  <si>
+    <t>mercury</t>
+  </si>
+  <si>
+    <t>venus</t>
+  </si>
+  <si>
+    <t>jupiter</t>
+  </si>
+  <si>
+    <t>saturn</t>
+  </si>
+  <si>
+    <t>uranus</t>
+  </si>
+  <si>
+    <t>neptune</t>
+  </si>
+  <si>
+    <t>Neptune</t>
+  </si>
+  <si>
+    <t>Uranus</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>Jupiter</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>Mercury</t>
   </si>
 </sst>
 </file>
@@ -1852,7 +1888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1863,8 +1899,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1953,8 +1988,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8A1F753D-10BF-4B35-A59B-2603C486C4ED}" name="Table18" displayName="Table18" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{8A1F753D-10BF-4B35-A59B-2603C486C4ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8A1F753D-10BF-4B35-A59B-2603C486C4ED}" name="Table18" displayName="Table18" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{8A1F753D-10BF-4B35-A59B-2603C486C4ED}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5A58D701-BF8C-47A6-B49C-04EE5C5E3252}" name="ID"/>
     <tableColumn id="7" xr3:uid="{D98B21AC-6125-4092-9512-08DBC3BF2CE0}" name="Name"/>
@@ -2400,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA510EF-B804-42E2-B8DD-C1D72D4A589B}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2430,6 +2465,54 @@
       </c>
       <c r="B3" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B9" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E385D5A-40C9-462D-AD16-FC1D40C4A3E2}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
@@ -2466,7 +2549,7 @@
       <c r="A2" t="s">
         <v>476</v>
       </c>
-      <c r="B2" s="10" t="str">
+      <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.03</v>
       </c>
@@ -2475,7 +2558,7 @@
       <c r="A3" t="s">
         <v>477</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.04</v>
       </c>
@@ -2484,7 +2567,7 @@
       <c r="A4" t="s">
         <v>478</v>
       </c>
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.06</v>
       </c>
@@ -2493,7 +2576,7 @@
       <c r="A5" t="s">
         <v>479</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.07</v>
       </c>
@@ -2502,7 +2585,7 @@
       <c r="A6" t="s">
         <v>480</v>
       </c>
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.08</v>
       </c>
@@ -2511,7 +2594,7 @@
       <c r="A7" t="s">
         <v>481</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.09</v>
       </c>
@@ -2520,7 +2603,7 @@
       <c r="A8" t="s">
         <v>482</v>
       </c>
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.10</v>
       </c>
@@ -2529,7 +2612,7 @@
       <c r="A9" t="s">
         <v>483</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.01</v>
       </c>
@@ -2538,7 +2621,7 @@
       <c r="A10" t="s">
         <v>484</v>
       </c>
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.02</v>
       </c>
@@ -2547,7 +2630,7 @@
       <c r="A11" t="s">
         <v>485</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.03</v>
       </c>
@@ -2556,7 +2639,7 @@
       <c r="A12" t="s">
         <v>486</v>
       </c>
-      <c r="B12" s="10" t="str">
+      <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.04</v>
       </c>
@@ -2565,7 +2648,7 @@
       <c r="A13" t="s">
         <v>487</v>
       </c>
-      <c r="B13" s="10" t="str">
+      <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.05</v>
       </c>
@@ -2574,7 +2657,7 @@
       <c r="A14" t="s">
         <v>488</v>
       </c>
-      <c r="B14" s="10" t="str">
+      <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.06</v>
       </c>
@@ -2583,7 +2666,7 @@
       <c r="A15" t="s">
         <v>489</v>
       </c>
-      <c r="B15" s="10" t="str">
+      <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.07</v>
       </c>
@@ -2592,7 +2675,7 @@
       <c r="A16" t="s">
         <v>490</v>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.08</v>
       </c>
@@ -2601,7 +2684,7 @@
       <c r="A17" t="s">
         <v>491</v>
       </c>
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.01</v>
       </c>
@@ -2610,7 +2693,7 @@
       <c r="A18" t="s">
         <v>492</v>
       </c>
-      <c r="B18" s="10" t="str">
+      <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.02</v>
       </c>
@@ -2619,7 +2702,7 @@
       <c r="A19" t="s">
         <v>493</v>
       </c>
-      <c r="B19" s="10" t="str">
+      <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.03</v>
       </c>
@@ -2628,7 +2711,7 @@
       <c r="A20" t="s">
         <v>494</v>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.04</v>
       </c>
@@ -2637,7 +2720,7 @@
       <c r="A21" t="s">
         <v>495</v>
       </c>
-      <c r="B21" s="10" t="str">
+      <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.05</v>
       </c>
@@ -2646,7 +2729,7 @@
       <c r="A22" t="s">
         <v>496</v>
       </c>
-      <c r="B22" s="10" t="str">
+      <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.06</v>
       </c>
@@ -2655,7 +2738,7 @@
       <c r="A23" t="s">
         <v>497</v>
       </c>
-      <c r="B23" s="10" t="str">
+      <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.08</v>
       </c>
@@ -2664,7 +2747,7 @@
       <c r="A24" t="s">
         <v>498</v>
       </c>
-      <c r="B24" s="10" t="str">
+      <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.09</v>
       </c>
@@ -2673,7 +2756,7 @@
       <c r="A25" t="s">
         <v>499</v>
       </c>
-      <c r="B25" s="10" t="str">
+      <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.10</v>
       </c>
@@ -2682,7 +2765,7 @@
       <c r="A26" t="s">
         <v>500</v>
       </c>
-      <c r="B26" s="10" t="str">
+      <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.11</v>
       </c>
@@ -2691,7 +2774,7 @@
       <c r="A27" t="s">
         <v>501</v>
       </c>
-      <c r="B27" s="10" t="str">
+      <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.02</v>
       </c>
@@ -2700,7 +2783,7 @@
       <c r="A28" t="s">
         <v>502</v>
       </c>
-      <c r="B28" s="10" t="str">
+      <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.03</v>
       </c>
@@ -2709,7 +2792,7 @@
       <c r="A29" t="s">
         <v>503</v>
       </c>
-      <c r="B29" s="10" t="str">
+      <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.04</v>
       </c>
@@ -2718,7 +2801,7 @@
       <c r="A30" t="s">
         <v>504</v>
       </c>
-      <c r="B30" s="10" t="str">
+      <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.05</v>
       </c>
@@ -2727,7 +2810,7 @@
       <c r="A31" t="s">
         <v>505</v>
       </c>
-      <c r="B31" s="10" t="str">
+      <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.06</v>
       </c>
@@ -2736,7 +2819,7 @@
       <c r="A32" t="s">
         <v>506</v>
       </c>
-      <c r="B32" s="10" t="str">
+      <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.08</v>
       </c>
@@ -2745,7 +2828,7 @@
       <c r="A33" t="s">
         <v>507</v>
       </c>
-      <c r="B33" s="10" t="str">
+      <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.09</v>
       </c>
@@ -2754,7 +2837,7 @@
       <c r="A34" t="s">
         <v>508</v>
       </c>
-      <c r="B34" s="10" t="str">
+      <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.10</v>
       </c>
@@ -2763,7 +2846,7 @@
       <c r="A35" t="s">
         <v>509</v>
       </c>
-      <c r="B35" s="10" t="str">
+      <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.11</v>
       </c>
@@ -2772,7 +2855,7 @@
       <c r="A36" t="s">
         <v>510</v>
       </c>
-      <c r="B36" s="10" t="str">
+      <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.12</v>
       </c>
@@ -2781,7 +2864,7 @@
       <c r="A37" t="s">
         <v>511</v>
       </c>
-      <c r="B37" s="10" t="str">
+      <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.01</v>
       </c>
@@ -2790,7 +2873,7 @@
       <c r="A38" t="s">
         <v>512</v>
       </c>
-      <c r="B38" s="10" t="str">
+      <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.02</v>
       </c>
@@ -2799,16 +2882,16 @@
       <c r="A39" t="s">
         <v>513</v>
       </c>
-      <c r="B39" s="10" t="str">
+      <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.03</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="B40" s="10" t="str">
+      <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.05</v>
       </c>
@@ -2817,7 +2900,7 @@
       <c r="A41" t="s">
         <v>515</v>
       </c>
-      <c r="B41" s="10" t="str">
+      <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.06</v>
       </c>
@@ -2826,7 +2909,7 @@
       <c r="A42" t="s">
         <v>516</v>
       </c>
-      <c r="B42" s="10" t="str">
+      <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.08</v>
       </c>
@@ -2835,7 +2918,7 @@
       <c r="A43" t="s">
         <v>517</v>
       </c>
-      <c r="B43" s="10" t="str">
+      <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.09</v>
       </c>
@@ -2844,16 +2927,16 @@
       <c r="A44" t="s">
         <v>518</v>
       </c>
-      <c r="B44" s="10" t="str">
+      <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.10</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="B45" s="10" t="str">
+      <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.11</v>
       </c>
@@ -2862,7 +2945,7 @@
       <c r="A46" t="s">
         <v>520</v>
       </c>
-      <c r="B46" s="10" t="str">
+      <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.12</v>
       </c>
@@ -2871,7 +2954,7 @@
       <c r="A47" t="s">
         <v>521</v>
       </c>
-      <c r="B47" s="10" t="str">
+      <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.01</v>
       </c>
@@ -2880,7 +2963,7 @@
       <c r="A48" t="s">
         <v>522</v>
       </c>
-      <c r="B48" s="10" t="str">
+      <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.02</v>
       </c>
@@ -2889,7 +2972,7 @@
       <c r="A49" t="s">
         <v>523</v>
       </c>
-      <c r="B49" s="10" t="str">
+      <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.03</v>
       </c>
@@ -2898,7 +2981,7 @@
       <c r="A50" t="s">
         <v>524</v>
       </c>
-      <c r="B50" s="10" t="str">
+      <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.04</v>
       </c>
@@ -2907,7 +2990,7 @@
       <c r="A51" t="s">
         <v>525</v>
       </c>
-      <c r="B51" s="10" t="str">
+      <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.05</v>
       </c>
@@ -2916,7 +2999,7 @@
       <c r="A52" t="s">
         <v>526</v>
       </c>
-      <c r="B52" s="10" t="str">
+      <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.06</v>
       </c>
@@ -2925,7 +3008,7 @@
       <c r="A53" t="s">
         <v>527</v>
       </c>
-      <c r="B53" s="10" t="str">
+      <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.07</v>
       </c>
@@ -2934,7 +3017,7 @@
       <c r="A54" t="s">
         <v>528</v>
       </c>
-      <c r="B54" s="10" t="str">
+      <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.08</v>
       </c>
@@ -2943,7 +3026,7 @@
       <c r="A55" t="s">
         <v>529</v>
       </c>
-      <c r="B55" s="10" t="str">
+      <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.09</v>
       </c>
@@ -2952,7 +3035,7 @@
       <c r="A56" t="s">
         <v>530</v>
       </c>
-      <c r="B56" s="10" t="str">
+      <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.10</v>
       </c>
@@ -2961,7 +3044,7 @@
       <c r="A57" t="s">
         <v>531</v>
       </c>
-      <c r="B57" s="10" t="str">
+      <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.11</v>
       </c>
@@ -2970,7 +3053,7 @@
       <c r="A58" t="s">
         <v>532</v>
       </c>
-      <c r="B58" s="10" t="str">
+      <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.12</v>
       </c>
@@ -2979,7 +3062,7 @@
       <c r="A59" t="s">
         <v>533</v>
       </c>
-      <c r="B59" s="10" t="str">
+      <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.01</v>
       </c>
@@ -2988,7 +3071,7 @@
       <c r="A60" t="s">
         <v>534</v>
       </c>
-      <c r="B60" s="10" t="str">
+      <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.02</v>
       </c>
@@ -2997,7 +3080,7 @@
       <c r="A61" t="s">
         <v>535</v>
       </c>
-      <c r="B61" s="10" t="str">
+      <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.03</v>
       </c>
@@ -3006,7 +3089,7 @@
       <c r="A62" t="s">
         <v>536</v>
       </c>
-      <c r="B62" s="10" t="str">
+      <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.04</v>
       </c>
@@ -3015,7 +3098,7 @@
       <c r="A63" t="s">
         <v>537</v>
       </c>
-      <c r="B63" s="10" t="str">
+      <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.05</v>
       </c>
@@ -3024,7 +3107,7 @@
       <c r="A64" t="s">
         <v>538</v>
       </c>
-      <c r="B64" s="10" t="str">
+      <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.06</v>
       </c>
@@ -3033,7 +3116,7 @@
       <c r="A65" t="s">
         <v>539</v>
       </c>
-      <c r="B65" s="10" t="str">
+      <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.07</v>
       </c>
@@ -3042,7 +3125,7 @@
       <c r="A66" t="s">
         <v>540</v>
       </c>
-      <c r="B66" s="10" t="str">
+      <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.08</v>
       </c>
@@ -3051,7 +3134,7 @@
       <c r="A67" t="s">
         <v>541</v>
       </c>
-      <c r="B67" s="10" t="str">
+      <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.09</v>
       </c>
@@ -3060,7 +3143,7 @@
       <c r="A68" t="s">
         <v>542</v>
       </c>
-      <c r="B68" s="10" t="str">
+      <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.10</v>
       </c>
@@ -3069,7 +3152,7 @@
       <c r="A69" t="s">
         <v>543</v>
       </c>
-      <c r="B69" s="10" t="str">
+      <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>orl-0-optimusprime</v>
       </c>
@@ -3078,7 +3161,7 @@
       <c r="A70" t="s">
         <v>544</v>
       </c>
-      <c r="B70" s="10" t="str">
+      <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>orl-0-bumblebee</v>
       </c>
@@ -3087,7 +3170,7 @@
       <c r="A71" t="s">
         <v>545</v>
       </c>
-      <c r="B71" s="10" t="str">
+      <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>orl-0-cliffjumper</v>
       </c>
@@ -3096,7 +3179,7 @@
       <c r="A72" t="s">
         <v>546</v>
       </c>
-      <c r="B72" s="10" t="str">
+      <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>orl-1-wheeljack</v>
       </c>
@@ -3105,7 +3188,7 @@
       <c r="A73" t="s">
         <v>547</v>
       </c>
-      <c r="B73" s="10" t="str">
+      <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>orl-1-prowl</v>
       </c>
@@ -3114,7 +3197,7 @@
       <c r="A74" t="s">
         <v>548</v>
       </c>
-      <c r="B74" s="10" t="str">
+      <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-bilbo</v>
       </c>
@@ -3123,7 +3206,7 @@
       <c r="A75" t="s">
         <v>549</v>
       </c>
-      <c r="B75" s="10" t="str">
+      <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-frodo</v>
       </c>
@@ -3132,7 +3215,7 @@
       <c r="A76" t="s">
         <v>550</v>
       </c>
-      <c r="B76" s="10" t="str">
+      <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-samwise</v>
       </c>
@@ -3141,7 +3224,7 @@
       <c r="A77" t="s">
         <v>551</v>
       </c>
-      <c r="B77" s="10" t="str">
+      <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-meriadoc</v>
       </c>
@@ -3150,7 +3233,7 @@
       <c r="A78" t="s">
         <v>552</v>
       </c>
-      <c r="B78" s="10" t="str">
+      <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-belladonna</v>
       </c>
@@ -3159,7 +3242,7 @@
       <c r="A79" t="s">
         <v>553</v>
       </c>
-      <c r="B79" s="10" t="str">
+      <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-peregrin</v>
       </c>
@@ -3168,7 +3251,7 @@
       <c r="A80" t="s">
         <v>554</v>
       </c>
-      <c r="B80" s="10" t="str">
+      <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-2-wolverine</v>
       </c>
@@ -3177,7 +3260,7 @@
       <c r="A81" t="s">
         <v>555</v>
       </c>
-      <c r="B81" s="10" t="str">
+      <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-2-spiderman</v>
       </c>
@@ -3186,7 +3269,7 @@
       <c r="A82" t="s">
         <v>556</v>
       </c>
-      <c r="B82" s="10" t="str">
+      <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-3-thor</v>
       </c>
@@ -3195,7 +3278,7 @@
       <c r="A83" t="s">
         <v>557</v>
       </c>
-      <c r="B83" s="10" t="str">
+      <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-3-hulk</v>
       </c>
@@ -3204,7 +3287,7 @@
       <c r="A84" t="s">
         <v>558</v>
       </c>
-      <c r="B84" s="10" t="str">
+      <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-4-daredevil</v>
       </c>
@@ -3213,7 +3296,7 @@
       <c r="A85" t="s">
         <v>559</v>
       </c>
-      <c r="B85" s="11" t="str">
+      <c r="B85" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-4-punisher</v>
       </c>
@@ -3249,7 +3332,7 @@
       <c r="A2" t="s">
         <v>392</v>
       </c>
-      <c r="B2" s="10" t="str">
+      <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.03</v>
       </c>
@@ -3258,7 +3341,7 @@
       <c r="A3" t="s">
         <v>393</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.04</v>
       </c>
@@ -3267,7 +3350,7 @@
       <c r="A4" t="s">
         <v>394</v>
       </c>
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.06</v>
       </c>
@@ -3276,7 +3359,7 @@
       <c r="A5" t="s">
         <v>395</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.07</v>
       </c>
@@ -3285,7 +3368,7 @@
       <c r="A6" t="s">
         <v>396</v>
       </c>
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.08</v>
       </c>
@@ -3294,7 +3377,7 @@
       <c r="A7" t="s">
         <v>397</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.09</v>
       </c>
@@ -3303,7 +3386,7 @@
       <c r="A8" t="s">
         <v>398</v>
       </c>
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.10</v>
       </c>
@@ -3312,7 +3395,7 @@
       <c r="A9" t="s">
         <v>399</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.01</v>
       </c>
@@ -3321,7 +3404,7 @@
       <c r="A10" t="s">
         <v>400</v>
       </c>
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.02</v>
       </c>
@@ -3330,7 +3413,7 @@
       <c r="A11" t="s">
         <v>401</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.03</v>
       </c>
@@ -3339,7 +3422,7 @@
       <c r="A12" t="s">
         <v>402</v>
       </c>
-      <c r="B12" s="10" t="str">
+      <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.04</v>
       </c>
@@ -3348,7 +3431,7 @@
       <c r="A13" t="s">
         <v>403</v>
       </c>
-      <c r="B13" s="10" t="str">
+      <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.05</v>
       </c>
@@ -3357,7 +3440,7 @@
       <c r="A14" t="s">
         <v>404</v>
       </c>
-      <c r="B14" s="10" t="str">
+      <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.06</v>
       </c>
@@ -3366,7 +3449,7 @@
       <c r="A15" t="s">
         <v>405</v>
       </c>
-      <c r="B15" s="10" t="str">
+      <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.07</v>
       </c>
@@ -3375,7 +3458,7 @@
       <c r="A16" t="s">
         <v>406</v>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.08</v>
       </c>
@@ -3384,7 +3467,7 @@
       <c r="A17" t="s">
         <v>407</v>
       </c>
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.01</v>
       </c>
@@ -3393,7 +3476,7 @@
       <c r="A18" t="s">
         <v>408</v>
       </c>
-      <c r="B18" s="10" t="str">
+      <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.02</v>
       </c>
@@ -3402,7 +3485,7 @@
       <c r="A19" t="s">
         <v>409</v>
       </c>
-      <c r="B19" s="10" t="str">
+      <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.03</v>
       </c>
@@ -3411,7 +3494,7 @@
       <c r="A20" t="s">
         <v>410</v>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.04</v>
       </c>
@@ -3420,7 +3503,7 @@
       <c r="A21" t="s">
         <v>411</v>
       </c>
-      <c r="B21" s="10" t="str">
+      <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.05</v>
       </c>
@@ -3429,7 +3512,7 @@
       <c r="A22" t="s">
         <v>412</v>
       </c>
-      <c r="B22" s="10" t="str">
+      <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.06</v>
       </c>
@@ -3438,7 +3521,7 @@
       <c r="A23" t="s">
         <v>413</v>
       </c>
-      <c r="B23" s="10" t="str">
+      <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.08</v>
       </c>
@@ -3447,7 +3530,7 @@
       <c r="A24" t="s">
         <v>414</v>
       </c>
-      <c r="B24" s="10" t="str">
+      <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.09</v>
       </c>
@@ -3456,7 +3539,7 @@
       <c r="A25" t="s">
         <v>415</v>
       </c>
-      <c r="B25" s="10" t="str">
+      <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.10</v>
       </c>
@@ -3465,7 +3548,7 @@
       <c r="A26" t="s">
         <v>416</v>
       </c>
-      <c r="B26" s="10" t="str">
+      <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.11</v>
       </c>
@@ -3474,7 +3557,7 @@
       <c r="A27" t="s">
         <v>417</v>
       </c>
-      <c r="B27" s="10" t="str">
+      <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.02</v>
       </c>
@@ -3483,7 +3566,7 @@
       <c r="A28" t="s">
         <v>418</v>
       </c>
-      <c r="B28" s="10" t="str">
+      <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.03</v>
       </c>
@@ -3492,7 +3575,7 @@
       <c r="A29" t="s">
         <v>419</v>
       </c>
-      <c r="B29" s="10" t="str">
+      <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.04</v>
       </c>
@@ -3501,7 +3584,7 @@
       <c r="A30" t="s">
         <v>420</v>
       </c>
-      <c r="B30" s="10" t="str">
+      <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.05</v>
       </c>
@@ -3510,7 +3593,7 @@
       <c r="A31" t="s">
         <v>421</v>
       </c>
-      <c r="B31" s="10" t="str">
+      <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.06</v>
       </c>
@@ -3519,7 +3602,7 @@
       <c r="A32" t="s">
         <v>422</v>
       </c>
-      <c r="B32" s="10" t="str">
+      <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.08</v>
       </c>
@@ -3528,7 +3611,7 @@
       <c r="A33" t="s">
         <v>423</v>
       </c>
-      <c r="B33" s="10" t="str">
+      <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.09</v>
       </c>
@@ -3537,7 +3620,7 @@
       <c r="A34" t="s">
         <v>424</v>
       </c>
-      <c r="B34" s="10" t="str">
+      <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.10</v>
       </c>
@@ -3546,7 +3629,7 @@
       <c r="A35" t="s">
         <v>425</v>
       </c>
-      <c r="B35" s="10" t="str">
+      <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.11</v>
       </c>
@@ -3555,7 +3638,7 @@
       <c r="A36" t="s">
         <v>426</v>
       </c>
-      <c r="B36" s="10" t="str">
+      <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.12</v>
       </c>
@@ -3564,7 +3647,7 @@
       <c r="A37" t="s">
         <v>427</v>
       </c>
-      <c r="B37" s="10" t="str">
+      <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.01</v>
       </c>
@@ -3573,7 +3656,7 @@
       <c r="A38" t="s">
         <v>428</v>
       </c>
-      <c r="B38" s="10" t="str">
+      <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.02</v>
       </c>
@@ -3582,16 +3665,16 @@
       <c r="A39" t="s">
         <v>429</v>
       </c>
-      <c r="B39" s="10" t="str">
+      <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.03</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="B40" s="10" t="str">
+      <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.05</v>
       </c>
@@ -3600,7 +3683,7 @@
       <c r="A41" t="s">
         <v>431</v>
       </c>
-      <c r="B41" s="10" t="str">
+      <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.06</v>
       </c>
@@ -3609,7 +3692,7 @@
       <c r="A42" t="s">
         <v>432</v>
       </c>
-      <c r="B42" s="10" t="str">
+      <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.08</v>
       </c>
@@ -3618,7 +3701,7 @@
       <c r="A43" t="s">
         <v>433</v>
       </c>
-      <c r="B43" s="10" t="str">
+      <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.09</v>
       </c>
@@ -3627,16 +3710,16 @@
       <c r="A44" t="s">
         <v>434</v>
       </c>
-      <c r="B44" s="10" t="str">
+      <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.10</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="B45" s="10" t="str">
+      <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.11</v>
       </c>
@@ -3645,7 +3728,7 @@
       <c r="A46" t="s">
         <v>436</v>
       </c>
-      <c r="B46" s="10" t="str">
+      <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.12</v>
       </c>
@@ -3654,7 +3737,7 @@
       <c r="A47" t="s">
         <v>437</v>
       </c>
-      <c r="B47" s="10" t="str">
+      <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.01</v>
       </c>
@@ -3663,7 +3746,7 @@
       <c r="A48" t="s">
         <v>438</v>
       </c>
-      <c r="B48" s="10" t="str">
+      <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.02</v>
       </c>
@@ -3672,7 +3755,7 @@
       <c r="A49" t="s">
         <v>439</v>
       </c>
-      <c r="B49" s="10" t="str">
+      <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.03</v>
       </c>
@@ -3681,7 +3764,7 @@
       <c r="A50" t="s">
         <v>440</v>
       </c>
-      <c r="B50" s="10" t="str">
+      <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.04</v>
       </c>
@@ -3690,7 +3773,7 @@
       <c r="A51" t="s">
         <v>441</v>
       </c>
-      <c r="B51" s="10" t="str">
+      <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.05</v>
       </c>
@@ -3699,7 +3782,7 @@
       <c r="A52" t="s">
         <v>442</v>
       </c>
-      <c r="B52" s="10" t="str">
+      <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.06</v>
       </c>
@@ -3708,7 +3791,7 @@
       <c r="A53" t="s">
         <v>443</v>
       </c>
-      <c r="B53" s="10" t="str">
+      <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.07</v>
       </c>
@@ -3717,7 +3800,7 @@
       <c r="A54" t="s">
         <v>444</v>
       </c>
-      <c r="B54" s="10" t="str">
+      <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.08</v>
       </c>
@@ -3726,7 +3809,7 @@
       <c r="A55" t="s">
         <v>445</v>
       </c>
-      <c r="B55" s="10" t="str">
+      <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.09</v>
       </c>
@@ -3735,7 +3818,7 @@
       <c r="A56" t="s">
         <v>446</v>
       </c>
-      <c r="B56" s="10" t="str">
+      <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.10</v>
       </c>
@@ -3744,7 +3827,7 @@
       <c r="A57" t="s">
         <v>447</v>
       </c>
-      <c r="B57" s="10" t="str">
+      <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.11</v>
       </c>
@@ -3753,7 +3836,7 @@
       <c r="A58" t="s">
         <v>448</v>
       </c>
-      <c r="B58" s="10" t="str">
+      <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.12</v>
       </c>
@@ -3762,7 +3845,7 @@
       <c r="A59" t="s">
         <v>449</v>
       </c>
-      <c r="B59" s="10" t="str">
+      <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.01</v>
       </c>
@@ -3771,7 +3854,7 @@
       <c r="A60" t="s">
         <v>450</v>
       </c>
-      <c r="B60" s="10" t="str">
+      <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.02</v>
       </c>
@@ -3780,7 +3863,7 @@
       <c r="A61" t="s">
         <v>451</v>
       </c>
-      <c r="B61" s="10" t="str">
+      <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.03</v>
       </c>
@@ -3789,7 +3872,7 @@
       <c r="A62" t="s">
         <v>452</v>
       </c>
-      <c r="B62" s="10" t="str">
+      <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.04</v>
       </c>
@@ -3798,7 +3881,7 @@
       <c r="A63" t="s">
         <v>453</v>
       </c>
-      <c r="B63" s="10" t="str">
+      <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.05</v>
       </c>
@@ -3807,7 +3890,7 @@
       <c r="A64" t="s">
         <v>454</v>
       </c>
-      <c r="B64" s="10" t="str">
+      <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.06</v>
       </c>
@@ -3816,7 +3899,7 @@
       <c r="A65" t="s">
         <v>455</v>
       </c>
-      <c r="B65" s="10" t="str">
+      <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.07</v>
       </c>
@@ -3825,7 +3908,7 @@
       <c r="A66" t="s">
         <v>456</v>
       </c>
-      <c r="B66" s="10" t="str">
+      <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.08</v>
       </c>
@@ -3834,7 +3917,7 @@
       <c r="A67" t="s">
         <v>457</v>
       </c>
-      <c r="B67" s="10" t="str">
+      <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.09</v>
       </c>
@@ -3843,7 +3926,7 @@
       <c r="A68" t="s">
         <v>458</v>
       </c>
-      <c r="B68" s="10" t="str">
+      <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.10</v>
       </c>
@@ -3852,7 +3935,7 @@
       <c r="A69" t="s">
         <v>459</v>
       </c>
-      <c r="B69" s="10" t="str">
+      <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>orl-0-optimusprime</v>
       </c>
@@ -3861,7 +3944,7 @@
       <c r="A70" t="s">
         <v>460</v>
       </c>
-      <c r="B70" s="10" t="str">
+      <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>orl-0-bumblebee</v>
       </c>
@@ -3870,7 +3953,7 @@
       <c r="A71" t="s">
         <v>461</v>
       </c>
-      <c r="B71" s="10" t="str">
+      <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>orl-0-cliffjumper</v>
       </c>
@@ -3879,7 +3962,7 @@
       <c r="A72" t="s">
         <v>462</v>
       </c>
-      <c r="B72" s="10" t="str">
+      <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>orl-1-wheeljack</v>
       </c>
@@ -3888,7 +3971,7 @@
       <c r="A73" t="s">
         <v>463</v>
       </c>
-      <c r="B73" s="10" t="str">
+      <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>orl-1-prowl</v>
       </c>
@@ -3897,7 +3980,7 @@
       <c r="A74" t="s">
         <v>464</v>
       </c>
-      <c r="B74" s="10" t="str">
+      <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-bilbo</v>
       </c>
@@ -3906,7 +3989,7 @@
       <c r="A75" t="s">
         <v>465</v>
       </c>
-      <c r="B75" s="10" t="str">
+      <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-frodo</v>
       </c>
@@ -3915,7 +3998,7 @@
       <c r="A76" t="s">
         <v>466</v>
       </c>
-      <c r="B76" s="10" t="str">
+      <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-samwise</v>
       </c>
@@ -3924,7 +4007,7 @@
       <c r="A77" t="s">
         <v>467</v>
       </c>
-      <c r="B77" s="10" t="str">
+      <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-meriadoc</v>
       </c>
@@ -3933,7 +4016,7 @@
       <c r="A78" t="s">
         <v>468</v>
       </c>
-      <c r="B78" s="10" t="str">
+      <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-belladonna</v>
       </c>
@@ -3942,7 +4025,7 @@
       <c r="A79" t="s">
         <v>469</v>
       </c>
-      <c r="B79" s="10" t="str">
+      <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-peregrin</v>
       </c>
@@ -3951,7 +4034,7 @@
       <c r="A80" t="s">
         <v>470</v>
       </c>
-      <c r="B80" s="10" t="str">
+      <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-2-wolverine</v>
       </c>
@@ -3960,7 +4043,7 @@
       <c r="A81" t="s">
         <v>471</v>
       </c>
-      <c r="B81" s="10" t="str">
+      <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-2-spiderman</v>
       </c>
@@ -3969,7 +4052,7 @@
       <c r="A82" t="s">
         <v>472</v>
       </c>
-      <c r="B82" s="10" t="str">
+      <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-3-thor</v>
       </c>
@@ -3978,7 +4061,7 @@
       <c r="A83" t="s">
         <v>473</v>
       </c>
-      <c r="B83" s="10" t="str">
+      <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-3-hulk</v>
       </c>
@@ -3987,7 +4070,7 @@
       <c r="A84" t="s">
         <v>474</v>
       </c>
-      <c r="B84" s="10" t="str">
+      <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-4-daredevil</v>
       </c>
@@ -3996,7 +4079,7 @@
       <c r="A85" t="s">
         <v>475</v>
       </c>
-      <c r="B85" s="11" t="str">
+      <c r="B85" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-4-punisher</v>
       </c>
@@ -5632,7 +5715,7 @@
       <c r="A2" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="10" t="str">
+      <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d1</v>
       </c>
@@ -5641,7 +5724,7 @@
       <c r="A3" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d2</v>
       </c>
@@ -5650,7 +5733,7 @@
       <c r="A4" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d3</v>
       </c>
@@ -5659,7 +5742,7 @@
       <c r="A5" t="s">
         <v>300</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d4</v>
       </c>
@@ -5668,7 +5751,7 @@
       <c r="A6" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d5</v>
       </c>
@@ -5677,16 +5760,16 @@
       <c r="A7" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d7</v>
       </c>
@@ -5695,7 +5778,7 @@
       <c r="A9" t="s">
         <v>304</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d8</v>
       </c>
@@ -5704,7 +5787,7 @@
       <c r="A10" t="s">
         <v>305</v>
       </c>
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d9</v>
       </c>
@@ -5713,7 +5796,7 @@
       <c r="A11" t="s">
         <v>306</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d10</v>
       </c>
@@ -5722,7 +5805,7 @@
       <c r="A12" t="s">
         <v>307</v>
       </c>
-      <c r="B12" s="10" t="str">
+      <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d11</v>
       </c>
@@ -5731,7 +5814,7 @@
       <c r="A13" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="10" t="str">
+      <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d12</v>
       </c>
@@ -5740,7 +5823,7 @@
       <c r="A14" t="s">
         <v>309</v>
       </c>
-      <c r="B14" s="10" t="str">
+      <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d13</v>
       </c>
@@ -5749,7 +5832,7 @@
       <c r="A15" t="s">
         <v>310</v>
       </c>
-      <c r="B15" s="10" t="str">
+      <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d14</v>
       </c>
@@ -5758,7 +5841,7 @@
       <c r="A16" t="s">
         <v>311</v>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d15</v>
       </c>
@@ -5767,7 +5850,7 @@
       <c r="A17" t="s">
         <v>312</v>
       </c>
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d16</v>
       </c>
@@ -5776,7 +5859,7 @@
       <c r="A18" t="s">
         <v>313</v>
       </c>
-      <c r="B18" s="10" t="str">
+      <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d17</v>
       </c>
@@ -5785,7 +5868,7 @@
       <c r="A19" t="s">
         <v>314</v>
       </c>
-      <c r="B19" s="10" t="str">
+      <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d18</v>
       </c>
@@ -5794,7 +5877,7 @@
       <c r="A20" t="s">
         <v>315</v>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d19</v>
       </c>
@@ -5803,7 +5886,7 @@
       <c r="A21" t="s">
         <v>316</v>
       </c>
-      <c r="B21" s="10" t="str">
+      <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d20</v>
       </c>
@@ -5812,7 +5895,7 @@
       <c r="A22" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="10" t="str">
+      <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d21</v>
       </c>
@@ -5821,7 +5904,7 @@
       <c r="A23" t="s">
         <v>318</v>
       </c>
-      <c r="B23" s="10" t="str">
+      <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d22</v>
       </c>
@@ -5830,7 +5913,7 @@
       <c r="A24" t="s">
         <v>319</v>
       </c>
-      <c r="B24" s="10" t="str">
+      <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d23</v>
       </c>
@@ -5839,7 +5922,7 @@
       <c r="A25" t="s">
         <v>320</v>
       </c>
-      <c r="B25" s="10" t="str">
+      <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>xhq-1-c1-d24</v>
       </c>
@@ -5848,7 +5931,7 @@
       <c r="A26" t="s">
         <v>321</v>
       </c>
-      <c r="B26" s="10" t="str">
+      <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-0-d1</v>
       </c>
@@ -5857,7 +5940,7 @@
       <c r="A27" t="s">
         <v>322</v>
       </c>
-      <c r="B27" s="10" t="str">
+      <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-0-d2</v>
       </c>
@@ -5866,7 +5949,7 @@
       <c r="A28" t="s">
         <v>323</v>
       </c>
-      <c r="B28" s="10" t="str">
+      <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-0-d3</v>
       </c>
@@ -5875,7 +5958,7 @@
       <c r="A29" t="s">
         <v>324</v>
       </c>
-      <c r="B29" s="10" t="str">
+      <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-0-d4</v>
       </c>
@@ -5884,7 +5967,7 @@
       <c r="A30" t="s">
         <v>325</v>
       </c>
-      <c r="B30" s="10" t="str">
+      <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-0-d5</v>
       </c>
@@ -5893,7 +5976,7 @@
       <c r="A31" t="s">
         <v>326</v>
       </c>
-      <c r="B31" s="10" t="str">
+      <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-0-d6</v>
       </c>
@@ -5902,7 +5985,7 @@
       <c r="A32" t="s">
         <v>327</v>
       </c>
-      <c r="B32" s="10" t="str">
+      <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-0-d7</v>
       </c>
@@ -5911,7 +5994,7 @@
       <c r="A33" t="s">
         <v>328</v>
       </c>
-      <c r="B33" s="10" t="str">
+      <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-0-d8</v>
       </c>
@@ -5920,7 +6003,7 @@
       <c r="A34" t="s">
         <v>329</v>
       </c>
-      <c r="B34" s="10" t="str">
+      <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-0-d9</v>
       </c>
@@ -5929,7 +6012,7 @@
       <c r="A35" t="s">
         <v>330</v>
       </c>
-      <c r="B35" s="10" t="str">
+      <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-0-d10</v>
       </c>
@@ -5938,7 +6021,7 @@
       <c r="A36" t="s">
         <v>331</v>
       </c>
-      <c r="B36" s="10" t="str">
+      <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-0-d11</v>
       </c>
@@ -5947,7 +6030,7 @@
       <c r="A37" t="s">
         <v>332</v>
       </c>
-      <c r="B37" s="10" t="str">
+      <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-0-d12</v>
       </c>
@@ -5956,7 +6039,7 @@
       <c r="A38" t="s">
         <v>333</v>
       </c>
-      <c r="B38" s="10" t="str">
+      <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-0-d13</v>
       </c>
@@ -5965,16 +6048,16 @@
       <c r="A39" t="s">
         <v>334</v>
       </c>
-      <c r="B39" s="10" t="str">
+      <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-1-d1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B40" s="10" t="str">
+      <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-1-d2</v>
       </c>
@@ -5983,7 +6066,7 @@
       <c r="A41" t="s">
         <v>336</v>
       </c>
-      <c r="B41" s="10" t="str">
+      <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-1-d3</v>
       </c>
@@ -5992,7 +6075,7 @@
       <c r="A42" t="s">
         <v>337</v>
       </c>
-      <c r="B42" s="10" t="str">
+      <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-1-d4</v>
       </c>
@@ -6001,7 +6084,7 @@
       <c r="A43" t="s">
         <v>338</v>
       </c>
-      <c r="B43" s="10" t="str">
+      <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-1-d5</v>
       </c>
@@ -6010,7 +6093,7 @@
       <c r="A44" t="s">
         <v>339</v>
       </c>
-      <c r="B44" s="10" t="str">
+      <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-1-d6</v>
       </c>
@@ -6019,7 +6102,7 @@
       <c r="A45" t="s">
         <v>340</v>
       </c>
-      <c r="B45" s="10" t="str">
+      <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-1-d7</v>
       </c>
@@ -6028,7 +6111,7 @@
       <c r="A46" t="s">
         <v>341</v>
       </c>
-      <c r="B46" s="10" t="str">
+      <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-1-d8</v>
       </c>
@@ -6037,7 +6120,7 @@
       <c r="A47" t="s">
         <v>342</v>
       </c>
-      <c r="B47" s="10" t="str">
+      <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-1-d9</v>
       </c>
@@ -6046,7 +6129,7 @@
       <c r="A48" t="s">
         <v>343</v>
       </c>
-      <c r="B48" s="10" t="str">
+      <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-1-d10</v>
       </c>
@@ -6055,7 +6138,7 @@
       <c r="A49" t="s">
         <v>344</v>
       </c>
-      <c r="B49" s="10" t="str">
+      <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-1-d11</v>
       </c>
@@ -6064,7 +6147,7 @@
       <c r="A50" t="s">
         <v>345</v>
       </c>
-      <c r="B50" s="10" t="str">
+      <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-1-d12</v>
       </c>
@@ -6073,7 +6156,7 @@
       <c r="A51" t="s">
         <v>346</v>
       </c>
-      <c r="B51" s="10" t="str">
+      <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>orl-1-d13</v>
       </c>
@@ -6082,7 +6165,7 @@
       <c r="A52" t="s">
         <v>347</v>
       </c>
-      <c r="B52" s="10" t="str">
+      <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f1-d1</v>
       </c>
@@ -6091,7 +6174,7 @@
       <c r="A53" t="s">
         <v>348</v>
       </c>
-      <c r="B53" s="10" t="str">
+      <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f1-d2</v>
       </c>
@@ -6100,7 +6183,7 @@
       <c r="A54" t="s">
         <v>349</v>
       </c>
-      <c r="B54" s="10" t="str">
+      <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f1-d3</v>
       </c>
@@ -6109,7 +6192,7 @@
       <c r="A55" t="s">
         <v>350</v>
       </c>
-      <c r="B55" s="10" t="str">
+      <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f1-d4</v>
       </c>
@@ -6118,7 +6201,7 @@
       <c r="A56" t="s">
         <v>351</v>
       </c>
-      <c r="B56" s="10" t="str">
+      <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f1-d5</v>
       </c>
@@ -6127,7 +6210,7 @@
       <c r="A57" t="s">
         <v>352</v>
       </c>
-      <c r="B57" s="10" t="str">
+      <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f1-d6</v>
       </c>
@@ -6136,7 +6219,7 @@
       <c r="A58" t="s">
         <v>353</v>
       </c>
-      <c r="B58" s="10" t="str">
+      <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f1-d7</v>
       </c>
@@ -6145,16 +6228,16 @@
       <c r="A59" t="s">
         <v>354</v>
       </c>
-      <c r="B59" s="10" t="str">
+      <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f1-d8</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="B60" s="10" t="str">
+      <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f1-d9</v>
       </c>
@@ -6163,7 +6246,7 @@
       <c r="A61" t="s">
         <v>356</v>
       </c>
-      <c r="B61" s="10" t="str">
+      <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f1-d10</v>
       </c>
@@ -6172,7 +6255,7 @@
       <c r="A62" t="s">
         <v>357</v>
       </c>
-      <c r="B62" s="10" t="str">
+      <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f2-d1</v>
       </c>
@@ -6181,7 +6264,7 @@
       <c r="A63" t="s">
         <v>358</v>
       </c>
-      <c r="B63" s="10" t="str">
+      <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f2-d2</v>
       </c>
@@ -6190,7 +6273,7 @@
       <c r="A64" t="s">
         <v>359</v>
       </c>
-      <c r="B64" s="10" t="str">
+      <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f2-d3</v>
       </c>
@@ -6199,7 +6282,7 @@
       <c r="A65" t="s">
         <v>360</v>
       </c>
-      <c r="B65" s="10" t="str">
+      <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f2-d4</v>
       </c>
@@ -6208,7 +6291,7 @@
       <c r="A66" t="s">
         <v>361</v>
       </c>
-      <c r="B66" s="10" t="str">
+      <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f2-d5</v>
       </c>
@@ -6217,7 +6300,7 @@
       <c r="A67" t="s">
         <v>362</v>
       </c>
-      <c r="B67" s="10" t="str">
+      <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f2-d6</v>
       </c>
@@ -6226,7 +6309,7 @@
       <c r="A68" t="s">
         <v>363</v>
       </c>
-      <c r="B68" s="10" t="str">
+      <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f2-d7</v>
       </c>
@@ -6235,7 +6318,7 @@
       <c r="A69" t="s">
         <v>364</v>
       </c>
-      <c r="B69" s="10" t="str">
+      <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f2-d8</v>
       </c>
@@ -6244,7 +6327,7 @@
       <c r="A70" t="s">
         <v>365</v>
       </c>
-      <c r="B70" s="10" t="str">
+      <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f2-d9</v>
       </c>
@@ -6253,7 +6336,7 @@
       <c r="A71" t="s">
         <v>366</v>
       </c>
-      <c r="B71" s="10" t="str">
+      <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>frk-0-f2-d10</v>
       </c>
@@ -6262,7 +6345,7 @@
       <c r="A72" t="s">
         <v>367</v>
       </c>
-      <c r="B72" s="10" t="str">
+      <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-2-d1</v>
       </c>
@@ -6271,7 +6354,7 @@
       <c r="A73" t="s">
         <v>368</v>
       </c>
-      <c r="B73" s="10" t="str">
+      <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-2-d2</v>
       </c>
@@ -6280,7 +6363,7 @@
       <c r="A74" t="s">
         <v>369</v>
       </c>
-      <c r="B74" s="10" t="str">
+      <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-2-d3</v>
       </c>
@@ -6289,7 +6372,7 @@
       <c r="A75" t="s">
         <v>370</v>
       </c>
-      <c r="B75" s="10" t="str">
+      <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-2-d4</v>
       </c>
@@ -6298,7 +6381,7 @@
       <c r="A76" t="s">
         <v>371</v>
       </c>
-      <c r="B76" s="10" t="str">
+      <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-2-d5</v>
       </c>
@@ -6307,7 +6390,7 @@
       <c r="A77" t="s">
         <v>372</v>
       </c>
-      <c r="B77" s="10" t="str">
+      <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-2-d6</v>
       </c>
@@ -6316,7 +6399,7 @@
       <c r="A78" t="s">
         <v>373</v>
       </c>
-      <c r="B78" s="10" t="str">
+      <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-2-d7</v>
       </c>
@@ -6325,7 +6408,7 @@
       <c r="A79" t="s">
         <v>374</v>
       </c>
-      <c r="B79" s="10" t="str">
+      <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-2-d8</v>
       </c>
@@ -6334,7 +6417,7 @@
       <c r="A80" t="s">
         <v>375</v>
       </c>
-      <c r="B80" s="10" t="str">
+      <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-3-d1</v>
       </c>
@@ -6343,7 +6426,7 @@
       <c r="A81" t="s">
         <v>376</v>
       </c>
-      <c r="B81" s="10" t="str">
+      <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-3-d2</v>
       </c>
@@ -6352,7 +6435,7 @@
       <c r="A82" t="s">
         <v>377</v>
       </c>
-      <c r="B82" s="10" t="str">
+      <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-3-d3</v>
       </c>
@@ -6361,7 +6444,7 @@
       <c r="A83" t="s">
         <v>378</v>
       </c>
-      <c r="B83" s="10" t="str">
+      <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-3-d4</v>
       </c>
@@ -6370,7 +6453,7 @@
       <c r="A84" t="s">
         <v>379</v>
       </c>
-      <c r="B84" s="10" t="str">
+      <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-3-d5</v>
       </c>
@@ -6379,7 +6462,7 @@
       <c r="A85" t="s">
         <v>380</v>
       </c>
-      <c r="B85" s="10" t="str">
+      <c r="B85" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-3-d6</v>
       </c>
@@ -6388,7 +6471,7 @@
       <c r="A86" t="s">
         <v>381</v>
       </c>
-      <c r="B86" s="10" t="str">
+      <c r="B86" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-3-d7</v>
       </c>
@@ -6397,7 +6480,7 @@
       <c r="A87" t="s">
         <v>382</v>
       </c>
-      <c r="B87" s="10" t="str">
+      <c r="B87" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-3-d8</v>
       </c>
@@ -6406,7 +6489,7 @@
       <c r="A88" t="s">
         <v>383</v>
       </c>
-      <c r="B88" s="10" t="str">
+      <c r="B88" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-4-d1</v>
       </c>
@@ -6415,7 +6498,7 @@
       <c r="A89" t="s">
         <v>384</v>
       </c>
-      <c r="B89" s="10" t="str">
+      <c r="B89" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-4-d2</v>
       </c>
@@ -6424,7 +6507,7 @@
       <c r="A90" t="s">
         <v>385</v>
       </c>
-      <c r="B90" s="10" t="str">
+      <c r="B90" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-4-d3</v>
       </c>
@@ -6433,7 +6516,7 @@
       <c r="A91" t="s">
         <v>386</v>
       </c>
-      <c r="B91" s="10" t="str">
+      <c r="B91" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-4-d4</v>
       </c>
@@ -6442,7 +6525,7 @@
       <c r="A92" t="s">
         <v>387</v>
       </c>
-      <c r="B92" s="10" t="str">
+      <c r="B92" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-4-d5</v>
       </c>
@@ -6451,7 +6534,7 @@
       <c r="A93" t="s">
         <v>388</v>
       </c>
-      <c r="B93" s="10" t="str">
+      <c r="B93" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-4-d6</v>
       </c>
@@ -6460,7 +6543,7 @@
       <c r="A94" t="s">
         <v>389</v>
       </c>
-      <c r="B94" s="10" t="str">
+      <c r="B94" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-4-d7</v>
       </c>
@@ -6469,7 +6552,7 @@
       <c r="A95" t="s">
         <v>390</v>
       </c>
-      <c r="B95" s="11" t="str">
+      <c r="B95" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
         <v>ant-4-d8</v>
       </c>
@@ -9277,7 +9360,7 @@
       <c r="A2" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="10" t="str">
+      <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.03</v>
       </c>
@@ -9286,7 +9369,7 @@
       <c r="A3" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.04</v>
       </c>
@@ -9295,7 +9378,7 @@
       <c r="A4" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.06</v>
       </c>
@@ -9304,7 +9387,7 @@
       <c r="A5" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.07</v>
       </c>
@@ -9313,7 +9396,7 @@
       <c r="A6" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.08</v>
       </c>
@@ -9322,7 +9405,7 @@
       <c r="A7" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.09</v>
       </c>
@@ -9331,7 +9414,7 @@
       <c r="A8" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-c1.10</v>
       </c>
@@ -9340,7 +9423,7 @@
       <c r="A9" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.01</v>
       </c>
@@ -9349,7 +9432,7 @@
       <c r="A10" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.02</v>
       </c>
@@ -9358,7 +9441,7 @@
       <c r="A11" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.03</v>
       </c>
@@ -9367,7 +9450,7 @@
       <c r="A12" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="10" t="str">
+      <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.04</v>
       </c>
@@ -9376,7 +9459,7 @@
       <c r="A13" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="10" t="str">
+      <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.05</v>
       </c>
@@ -9385,7 +9468,7 @@
       <c r="A14" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="10" t="str">
+      <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.06</v>
       </c>
@@ -9394,7 +9477,7 @@
       <c r="A15" t="s">
         <v>226</v>
       </c>
-      <c r="B15" s="10" t="str">
+      <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.07</v>
       </c>
@@ -9403,7 +9486,7 @@
       <c r="A16" t="s">
         <v>227</v>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-a0.08</v>
       </c>
@@ -9412,7 +9495,7 @@
       <c r="A17" t="s">
         <v>228</v>
       </c>
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.01</v>
       </c>
@@ -9421,7 +9504,7 @@
       <c r="A18" t="s">
         <v>229</v>
       </c>
-      <c r="B18" s="10" t="str">
+      <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.02</v>
       </c>
@@ -9430,7 +9513,7 @@
       <c r="A19" t="s">
         <v>230</v>
       </c>
-      <c r="B19" s="10" t="str">
+      <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.03</v>
       </c>
@@ -9439,7 +9522,7 @@
       <c r="A20" t="s">
         <v>231</v>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.04</v>
       </c>
@@ -9448,7 +9531,7 @@
       <c r="A21" t="s">
         <v>232</v>
       </c>
-      <c r="B21" s="10" t="str">
+      <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.05</v>
       </c>
@@ -9457,7 +9540,7 @@
       <c r="A22" t="s">
         <v>233</v>
       </c>
-      <c r="B22" s="10" t="str">
+      <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.06</v>
       </c>
@@ -9466,7 +9549,7 @@
       <c r="A23" t="s">
         <v>234</v>
       </c>
-      <c r="B23" s="10" t="str">
+      <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.08</v>
       </c>
@@ -9475,7 +9558,7 @@
       <c r="A24" t="s">
         <v>235</v>
       </c>
-      <c r="B24" s="10" t="str">
+      <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.09</v>
       </c>
@@ -9484,7 +9567,7 @@
       <c r="A25" t="s">
         <v>236</v>
       </c>
-      <c r="B25" s="10" t="str">
+      <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.10</v>
       </c>
@@ -9493,7 +9576,7 @@
       <c r="A26" t="s">
         <v>237</v>
       </c>
-      <c r="B26" s="10" t="str">
+      <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-0-c0.11</v>
       </c>
@@ -9502,7 +9585,7 @@
       <c r="A27" t="s">
         <v>238</v>
       </c>
-      <c r="B27" s="10" t="str">
+      <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.02</v>
       </c>
@@ -9511,7 +9594,7 @@
       <c r="A28" t="s">
         <v>239</v>
       </c>
-      <c r="B28" s="10" t="str">
+      <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.03</v>
       </c>
@@ -9520,7 +9603,7 @@
       <c r="A29" t="s">
         <v>240</v>
       </c>
-      <c r="B29" s="10" t="str">
+      <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.04</v>
       </c>
@@ -9529,7 +9612,7 @@
       <c r="A30" t="s">
         <v>241</v>
       </c>
-      <c r="B30" s="10" t="str">
+      <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.05</v>
       </c>
@@ -9538,7 +9621,7 @@
       <c r="A31" t="s">
         <v>242</v>
       </c>
-      <c r="B31" s="10" t="str">
+      <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.06</v>
       </c>
@@ -9547,7 +9630,7 @@
       <c r="A32" t="s">
         <v>243</v>
       </c>
-      <c r="B32" s="10" t="str">
+      <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.08</v>
       </c>
@@ -9556,7 +9639,7 @@
       <c r="A33" t="s">
         <v>244</v>
       </c>
-      <c r="B33" s="10" t="str">
+      <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.09</v>
       </c>
@@ -9565,7 +9648,7 @@
       <c r="A34" t="s">
         <v>245</v>
       </c>
-      <c r="B34" s="10" t="str">
+      <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.10</v>
       </c>
@@ -9574,7 +9657,7 @@
       <c r="A35" t="s">
         <v>246</v>
       </c>
-      <c r="B35" s="10" t="str">
+      <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.11</v>
       </c>
@@ -9583,7 +9666,7 @@
       <c r="A36" t="s">
         <v>247</v>
       </c>
-      <c r="B36" s="10" t="str">
+      <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-b1.12</v>
       </c>
@@ -9592,7 +9675,7 @@
       <c r="A37" t="s">
         <v>248</v>
       </c>
-      <c r="B37" s="10" t="str">
+      <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.01</v>
       </c>
@@ -9601,7 +9684,7 @@
       <c r="A38" t="s">
         <v>249</v>
       </c>
-      <c r="B38" s="10" t="str">
+      <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.02</v>
       </c>
@@ -9610,16 +9693,16 @@
       <c r="A39" t="s">
         <v>250</v>
       </c>
-      <c r="B39" s="10" t="str">
+      <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.03</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B40" s="10" t="str">
+      <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.05</v>
       </c>
@@ -9628,7 +9711,7 @@
       <c r="A41" t="s">
         <v>252</v>
       </c>
-      <c r="B41" s="10" t="str">
+      <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.06</v>
       </c>
@@ -9637,7 +9720,7 @@
       <c r="A42" t="s">
         <v>253</v>
       </c>
-      <c r="B42" s="10" t="str">
+      <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.08</v>
       </c>
@@ -9646,7 +9729,7 @@
       <c r="A43" t="s">
         <v>254</v>
       </c>
-      <c r="B43" s="10" t="str">
+      <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.09</v>
       </c>
@@ -9655,7 +9738,7 @@
       <c r="A44" t="s">
         <v>255</v>
       </c>
-      <c r="B44" s="10" t="str">
+      <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.10</v>
       </c>
@@ -9664,7 +9747,7 @@
       <c r="A45" t="s">
         <v>256</v>
       </c>
-      <c r="B45" s="10" t="str">
+      <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.11</v>
       </c>
@@ -9673,7 +9756,7 @@
       <c r="A46" t="s">
         <v>257</v>
       </c>
-      <c r="B46" s="10" t="str">
+      <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-1-a1.12</v>
       </c>
@@ -9682,7 +9765,7 @@
       <c r="A47" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="10" t="str">
+      <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.01</v>
       </c>
@@ -9691,7 +9774,7 @@
       <c r="A48" t="s">
         <v>259</v>
       </c>
-      <c r="B48" s="10" t="str">
+      <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.02</v>
       </c>
@@ -9700,7 +9783,7 @@
       <c r="A49" t="s">
         <v>260</v>
       </c>
-      <c r="B49" s="10" t="str">
+      <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.03</v>
       </c>
@@ -9709,7 +9792,7 @@
       <c r="A50" t="s">
         <v>261</v>
       </c>
-      <c r="B50" s="10" t="str">
+      <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.04</v>
       </c>
@@ -9718,7 +9801,7 @@
       <c r="A51" t="s">
         <v>262</v>
       </c>
-      <c r="B51" s="10" t="str">
+      <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.05</v>
       </c>
@@ -9727,7 +9810,7 @@
       <c r="A52" t="s">
         <v>263</v>
       </c>
-      <c r="B52" s="10" t="str">
+      <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.06</v>
       </c>
@@ -9736,7 +9819,7 @@
       <c r="A53" t="s">
         <v>264</v>
       </c>
-      <c r="B53" s="10" t="str">
+      <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.07</v>
       </c>
@@ -9745,7 +9828,7 @@
       <c r="A54" t="s">
         <v>265</v>
       </c>
-      <c r="B54" s="10" t="str">
+      <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.08</v>
       </c>
@@ -9754,7 +9837,7 @@
       <c r="A55" t="s">
         <v>266</v>
       </c>
-      <c r="B55" s="10" t="str">
+      <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.09</v>
       </c>
@@ -9763,7 +9846,7 @@
       <c r="A56" t="s">
         <v>267</v>
       </c>
-      <c r="B56" s="10" t="str">
+      <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.10</v>
       </c>
@@ -9772,7 +9855,7 @@
       <c r="A57" t="s">
         <v>268</v>
       </c>
-      <c r="B57" s="10" t="str">
+      <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.11</v>
       </c>
@@ -9781,7 +9864,7 @@
       <c r="A58" t="s">
         <v>269</v>
       </c>
-      <c r="B58" s="10" t="str">
+      <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-b2.12</v>
       </c>
@@ -9790,7 +9873,7 @@
       <c r="A59" t="s">
         <v>270</v>
       </c>
-      <c r="B59" s="10" t="str">
+      <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.01</v>
       </c>
@@ -9799,7 +9882,7 @@
       <c r="A60" t="s">
         <v>271</v>
       </c>
-      <c r="B60" s="10" t="str">
+      <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.02</v>
       </c>
@@ -9808,7 +9891,7 @@
       <c r="A61" t="s">
         <v>272</v>
       </c>
-      <c r="B61" s="10" t="str">
+      <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.03</v>
       </c>
@@ -9817,7 +9900,7 @@
       <c r="A62" t="s">
         <v>273</v>
       </c>
-      <c r="B62" s="10" t="str">
+      <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.04</v>
       </c>
@@ -9826,7 +9909,7 @@
       <c r="A63" t="s">
         <v>274</v>
       </c>
-      <c r="B63" s="10" t="str">
+      <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.05</v>
       </c>
@@ -9835,7 +9918,7 @@
       <c r="A64" t="s">
         <v>275</v>
       </c>
-      <c r="B64" s="10" t="str">
+      <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.06</v>
       </c>
@@ -9844,7 +9927,7 @@
       <c r="A65" t="s">
         <v>276</v>
       </c>
-      <c r="B65" s="10" t="str">
+      <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.07</v>
       </c>
@@ -9853,7 +9936,7 @@
       <c r="A66" t="s">
         <v>277</v>
       </c>
-      <c r="B66" s="10" t="str">
+      <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.08</v>
       </c>
@@ -9862,7 +9945,7 @@
       <c r="A67" t="s">
         <v>278</v>
       </c>
-      <c r="B67" s="10" t="str">
+      <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.09</v>
       </c>
@@ -9871,7 +9954,7 @@
       <c r="A68" t="s">
         <v>279</v>
       </c>
-      <c r="B68" s="10" t="str">
+      <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>xhq-2-a2.10</v>
       </c>
@@ -9880,7 +9963,7 @@
       <c r="A69" t="s">
         <v>280</v>
       </c>
-      <c r="B69" s="10" t="str">
+      <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>orl-0-optimusprime</v>
       </c>
@@ -9889,7 +9972,7 @@
       <c r="A70" t="s">
         <v>281</v>
       </c>
-      <c r="B70" s="10" t="str">
+      <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>orl-0-bumblebee</v>
       </c>
@@ -9898,7 +9981,7 @@
       <c r="A71" t="s">
         <v>282</v>
       </c>
-      <c r="B71" s="10" t="str">
+      <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>orl-0-cliffjumper</v>
       </c>
@@ -9907,7 +9990,7 @@
       <c r="A72" t="s">
         <v>283</v>
       </c>
-      <c r="B72" s="10" t="str">
+      <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>orl-1-wheeljack</v>
       </c>
@@ -9916,7 +9999,7 @@
       <c r="A73" t="s">
         <v>284</v>
       </c>
-      <c r="B73" s="10" t="str">
+      <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>orl-1-prowl</v>
       </c>
@@ -9925,7 +10008,7 @@
       <c r="A74" t="s">
         <v>285</v>
       </c>
-      <c r="B74" s="10" t="str">
+      <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-bilbo</v>
       </c>
@@ -9934,7 +10017,7 @@
       <c r="A75" t="s">
         <v>286</v>
       </c>
-      <c r="B75" s="10" t="str">
+      <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-frodo</v>
       </c>
@@ -9943,7 +10026,7 @@
       <c r="A76" t="s">
         <v>287</v>
       </c>
-      <c r="B76" s="10" t="str">
+      <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-samwise</v>
       </c>
@@ -9952,7 +10035,7 @@
       <c r="A77" t="s">
         <v>288</v>
       </c>
-      <c r="B77" s="10" t="str">
+      <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-meriadoc</v>
       </c>
@@ -9961,7 +10044,7 @@
       <c r="A78" t="s">
         <v>289</v>
       </c>
-      <c r="B78" s="10" t="str">
+      <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-belladonna</v>
       </c>
@@ -9970,7 +10053,7 @@
       <c r="A79" t="s">
         <v>290</v>
       </c>
-      <c r="B79" s="10" t="str">
+      <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>frk-0-peregrin</v>
       </c>
@@ -9979,7 +10062,7 @@
       <c r="A80" t="s">
         <v>291</v>
       </c>
-      <c r="B80" s="10" t="str">
+      <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-2-wolverine</v>
       </c>
@@ -9988,7 +10071,7 @@
       <c r="A81" t="s">
         <v>292</v>
       </c>
-      <c r="B81" s="10" t="str">
+      <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-2-spiderman</v>
       </c>
@@ -9997,7 +10080,7 @@
       <c r="A82" t="s">
         <v>293</v>
       </c>
-      <c r="B82" s="10" t="str">
+      <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-3-thor</v>
       </c>
@@ -10006,7 +10089,7 @@
       <c r="A83" t="s">
         <v>294</v>
       </c>
-      <c r="B83" s="10" t="str">
+      <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-3-hulk</v>
       </c>
@@ -10015,7 +10098,7 @@
       <c r="A84" t="s">
         <v>295</v>
       </c>
-      <c r="B84" s="10" t="str">
+      <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-4-daredevil</v>
       </c>
@@ -10024,7 +10107,7 @@
       <c r="A85" t="s">
         <v>296</v>
       </c>
-      <c r="B85" s="11" t="str">
+      <c r="B85" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
         <v>ant-4-punisher</v>
       </c>

--- a/config/ctw.xlsx
+++ b/config/ctw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\github\copy-the-world\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github\copy-the-world\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C477086-A29C-48F9-8AF2-B942A59A2AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3A8FD9-B334-42A0-B1F8-0A2CF3181F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32230" yWindow="4210" windowWidth="28800" windowHeight="15370" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
+    <workbookView xWindow="-32400" yWindow="640" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planets" sheetId="11" r:id="rId1"/>
@@ -43,9 +43,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -55,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="761">
   <si>
     <t>ID</t>
   </si>
@@ -564,9 +562,6 @@
     <t>usa</t>
   </si>
   <si>
-    <t>The Netherlands</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -1771,6 +1766,576 @@
   </si>
   <si>
     <t>Mercury</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palestine State</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +2470,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2023,10 +2591,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4E39A4B4-5299-4C0B-87C0-9534BB70D093}" name="Table1811" displayName="Table1811" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{4E39A4B4-5299-4C0B-87C0-9534BB70D093}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4E39A4B4-5299-4C0B-87C0-9534BB70D093}" name="Table1811" displayName="Table1811" ref="A1:C195" totalsRowShown="0">
+  <autoFilter ref="A1:C195" xr:uid="{4E39A4B4-5299-4C0B-87C0-9534BB70D093}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CC2A72F3-D3FD-4E0B-9658-88A3C9132BA3}" name="ID"/>
+    <tableColumn id="1" xr3:uid="{CC2A72F3-D3FD-4E0B-9658-88A3C9132BA3}" name="ID" dataDxfId="0">
+      <calculatedColumnFormula>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{EA3C7334-0F95-4EED-B230-BB47635F502D}" name="Planet"/>
     <tableColumn id="7" xr3:uid="{A9AC266E-232B-47AD-8D74-EC32ED101E1D}" name="Name"/>
   </tableColumns>
@@ -2068,7 +2638,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{16DBF3CF-DFAA-4226-A74F-3FF95F5614F0}" name="Table2" displayName="Table2" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{16DBF3CF-DFAA-4226-A74F-3FF95F5614F0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FE7D0D47-DC0C-43F7-81AE-4C733CE27A01}" name="ID" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{FE7D0D47-DC0C-43F7-81AE-4C733CE27A01}" name="ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{BCB2ED7B-FC9C-482A-B7E5-40AD2BC48DEC}" name="Building"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2076,11 +2646,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7ACCEDDF-2DE4-49BC-B6EC-2DAB6698B40C}" name="Table8" displayName="Table8" ref="A1:D10" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7ACCEDDF-2DE4-49BC-B6EC-2DAB6698B40C}" name="Table8" displayName="Table8" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D10" xr:uid="{7ACCEDDF-2DE4-49BC-B6EC-2DAB6698B40C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E85DA0FE-32F9-4428-811C-D5E3ED923FA6}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{B68FA473-2AD7-4BFA-84E4-9A8F85F569D8}" name="Building" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B68FA473-2AD7-4BFA-84E4-9A8F85F569D8}" name="Building" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{C574EEC4-AF96-4547-8821-86BDB9619A97}" name="Name"/>
     <tableColumn id="4" xr3:uid="{76325719-C930-4888-A2C5-86FF12E71230}" name="Level"/>
   </tableColumns>
@@ -2114,7 +2684,7 @@
     <tableColumn id="3" xr3:uid="{553B7577-C52D-4256-9C71-F31A3AAD5A91}" name="Name"/>
     <tableColumn id="5" xr3:uid="{94606806-F489-4FB4-BB42-58D2B96D413F}" name="Zone"/>
     <tableColumn id="4" xr3:uid="{C0AB62C2-5551-4DDB-A88E-E06B3F126747}" name="Level"/>
-    <tableColumn id="6" xr3:uid="{B673594F-DC7C-4798-8B09-7FE5A8304541}" name="TwinId (Generated)" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{B673594F-DC7C-4798-8B09-7FE5A8304541}" name="TwinId (Generated)" dataDxfId="2">
       <calculatedColumnFormula>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2130,7 +2700,7 @@
     <tableColumn id="2" xr3:uid="{350C66A8-75EE-4471-896F-5EEE3965EC40}" name="Building"/>
     <tableColumn id="4" xr3:uid="{0924DE52-08A4-4103-A802-0802735A30AC}" name="Zone"/>
     <tableColumn id="3" xr3:uid="{5467CA94-5087-4D6C-9991-8475D8A1C3B6}" name="Level"/>
-    <tableColumn id="5" xr3:uid="{223B6C68-C6C1-4F6A-A913-4644E3944B8E}" name="TwinId (Generated)" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{223B6C68-C6C1-4F6A-A913-4644E3944B8E}" name="TwinId (Generated)" dataDxfId="1">
       <calculatedColumnFormula>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2437,7 +3007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA510EF-B804-42E2-B8DD-C1D72D4A589B}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2469,50 +3039,50 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B9" t="s">
         <v>565</v>
-      </c>
-      <c r="B9" t="s">
-        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -2527,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E385D5A-40C9-462D-AD16-FC1D40C4A3E2}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2542,12 +3112,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2556,7 +3126,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2565,7 +3135,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2574,7 +3144,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2583,7 +3153,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2592,7 +3162,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2601,7 +3171,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2610,7 +3180,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2619,7 +3189,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2628,7 +3198,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2637,7 +3207,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2646,7 +3216,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2655,7 +3225,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2664,7 +3234,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2673,7 +3243,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2682,7 +3252,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2691,7 +3261,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2700,7 +3270,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2709,7 +3279,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2718,7 +3288,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2727,7 +3297,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2736,7 +3306,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2745,7 +3315,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2754,7 +3324,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2763,7 +3333,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2772,7 +3342,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2781,7 +3351,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2790,7 +3360,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2799,7 +3369,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2808,7 +3378,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2817,7 +3387,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2826,7 +3396,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2835,7 +3405,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2844,7 +3414,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2853,7 +3423,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2862,7 +3432,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2871,7 +3441,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2880,7 +3450,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2889,7 +3459,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2898,7 +3468,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2907,7 +3477,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2916,7 +3486,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2925,7 +3495,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2934,7 +3504,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2943,7 +3513,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2952,7 +3522,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2961,7 +3531,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2970,7 +3540,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2979,7 +3549,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2988,7 +3558,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2997,7 +3567,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3006,7 +3576,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3015,7 +3585,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3024,7 +3594,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3033,7 +3603,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3042,7 +3612,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3051,7 +3621,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3060,7 +3630,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3069,7 +3639,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3078,7 +3648,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3087,7 +3657,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3096,7 +3666,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3105,7 +3675,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3114,7 +3684,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3123,7 +3693,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3132,7 +3702,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3141,7 +3711,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3150,7 +3720,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3159,7 +3729,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3168,7 +3738,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3177,7 +3747,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3186,7 +3756,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3195,7 +3765,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3204,7 +3774,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3213,7 +3783,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3222,7 +3792,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3231,7 +3801,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3240,7 +3810,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3249,7 +3819,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3258,7 +3828,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3267,7 +3837,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3276,7 +3846,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3285,7 +3855,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3294,7 +3864,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B85" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3310,8 +3880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C19D2-729C-4E84-B2FE-45F185621D28}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3325,12 +3895,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3339,7 +3909,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3348,7 +3918,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3357,7 +3927,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3366,7 +3936,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3375,7 +3945,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3384,7 +3954,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3393,7 +3963,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3402,7 +3972,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3411,7 +3981,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3420,7 +3990,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3429,7 +3999,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3438,7 +4008,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3447,7 +4017,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3456,7 +4026,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3465,7 +4035,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3474,7 +4044,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3483,7 +4053,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3492,7 +4062,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3501,7 +4071,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3510,7 +4080,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3519,7 +4089,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3528,7 +4098,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3537,7 +4107,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3546,7 +4116,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3555,7 +4125,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3564,7 +4134,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3573,7 +4143,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3582,7 +4152,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3591,7 +4161,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3600,7 +4170,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3609,7 +4179,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3618,7 +4188,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3627,7 +4197,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3636,7 +4206,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3645,7 +4215,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3654,7 +4224,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3663,7 +4233,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3672,7 +4242,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3681,7 +4251,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3690,7 +4260,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3699,7 +4269,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3708,7 +4278,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3717,7 +4287,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3726,7 +4296,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3735,7 +4305,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3744,7 +4314,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3753,7 +4323,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3762,7 +4332,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3771,7 +4341,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3780,7 +4350,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3789,7 +4359,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3798,7 +4368,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3807,7 +4377,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3816,7 +4386,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3825,7 +4395,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3834,7 +4404,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3843,7 +4413,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3852,7 +4422,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3861,7 +4431,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3870,7 +4440,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3879,7 +4449,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3888,7 +4458,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3897,7 +4467,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3906,7 +4476,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3915,7 +4485,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3924,7 +4494,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3933,7 +4503,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3942,7 +4512,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3951,7 +4521,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3960,7 +4530,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3969,7 +4539,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3978,7 +4548,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3987,7 +4557,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3996,7 +4566,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4005,7 +4575,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4014,7 +4584,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4023,7 +4593,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4032,7 +4602,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4041,7 +4611,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4050,7 +4620,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4059,7 +4629,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4068,7 +4638,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4077,7 +4647,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B85" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4117,7 +4687,7 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4557,7 +5127,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4572,7 +5142,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4587,7 +5157,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4602,7 +5172,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4617,7 +5187,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4632,7 +5202,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4647,7 +5217,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4662,7 +5232,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4677,7 +5247,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4692,7 +5262,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4707,7 +5277,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -4722,7 +5292,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4737,7 +5307,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -4752,7 +5322,7 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4767,7 +5337,7 @@
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4782,7 +5352,7 @@
         <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4797,7 +5367,7 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -4812,7 +5382,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4827,7 +5397,7 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -4842,7 +5412,7 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -4857,7 +5427,7 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4872,7 +5442,7 @@
         <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -4887,7 +5457,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -4902,7 +5472,7 @@
         <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -4917,7 +5487,7 @@
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -4932,7 +5502,7 @@
         <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -4947,10 +5517,10 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -4965,10 +5535,10 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -4983,10 +5553,10 @@
         <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5001,10 +5571,10 @@
         <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -5019,10 +5589,10 @@
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5037,10 +5607,10 @@
         <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -5055,10 +5625,10 @@
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -5073,10 +5643,10 @@
         <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5091,10 +5661,10 @@
         <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -5109,10 +5679,10 @@
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -5127,10 +5697,10 @@
         <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -5145,10 +5715,10 @@
         <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -5163,10 +5733,10 @@
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -5181,10 +5751,10 @@
         <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -5199,10 +5769,10 @@
         <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -5217,10 +5787,10 @@
         <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -5235,10 +5805,10 @@
         <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -5253,10 +5823,10 @@
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -5271,10 +5841,10 @@
         <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -5289,10 +5859,10 @@
         <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -5307,7 +5877,7 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -5322,7 +5892,7 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -5337,7 +5907,7 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -5352,7 +5922,7 @@
         <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -5367,7 +5937,7 @@
         <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -5382,7 +5952,7 @@
         <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -5397,7 +5967,7 @@
         <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -5412,7 +5982,7 @@
         <v>33</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -5427,7 +5997,7 @@
         <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -5442,7 +6012,7 @@
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -5457,7 +6027,7 @@
         <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -5472,7 +6042,7 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -5487,7 +6057,7 @@
         <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -5502,7 +6072,7 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -5517,7 +6087,7 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -5532,7 +6102,7 @@
         <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -5547,7 +6117,7 @@
         <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -5562,7 +6132,7 @@
         <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -5577,7 +6147,7 @@
         <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -5592,7 +6162,7 @@
         <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D91">
         <v>4</v>
@@ -5607,7 +6177,7 @@
         <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -5622,7 +6192,7 @@
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -5637,7 +6207,7 @@
         <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -5652,7 +6222,7 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -5708,12 +6278,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5722,7 +6292,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5731,7 +6301,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5740,7 +6310,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5749,7 +6319,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5758,7 +6328,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5767,7 +6337,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5776,7 +6346,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5785,7 +6355,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5794,7 +6364,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5803,7 +6373,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5812,7 +6382,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5821,7 +6391,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5830,7 +6400,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5839,7 +6409,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5848,7 +6418,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5857,7 +6427,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5866,7 +6436,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5875,7 +6445,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5884,7 +6454,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5893,7 +6463,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5902,7 +6472,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5911,7 +6481,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5920,7 +6490,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5929,7 +6499,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5938,7 +6508,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5947,7 +6517,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5956,7 +6526,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5965,7 +6535,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5974,7 +6544,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5983,7 +6553,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5992,7 +6562,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6001,7 +6571,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6010,7 +6580,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6019,7 +6589,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6028,7 +6598,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6037,7 +6607,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6046,7 +6616,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6055,7 +6625,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6064,7 +6634,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6073,7 +6643,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6082,7 +6652,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6091,7 +6661,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6100,7 +6670,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6109,7 +6679,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6118,7 +6688,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6127,7 +6697,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6136,7 +6706,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6145,7 +6715,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6154,7 +6724,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6163,7 +6733,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6172,7 +6742,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6181,7 +6751,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6190,7 +6760,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6199,7 +6769,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6208,7 +6778,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6217,7 +6787,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6226,7 +6796,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6235,7 +6805,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6244,7 +6814,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6253,7 +6823,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6262,7 +6832,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6271,7 +6841,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6280,7 +6850,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6289,7 +6859,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6298,7 +6868,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6307,7 +6877,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6316,7 +6886,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6325,7 +6895,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6334,7 +6904,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6343,7 +6913,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6352,7 +6922,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6361,7 +6931,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6370,7 +6940,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6379,7 +6949,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6388,7 +6958,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6397,7 +6967,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6406,7 +6976,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6415,7 +6985,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6424,7 +6994,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6433,7 +7003,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6442,7 +7012,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6451,7 +7021,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6460,7 +7030,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B85" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6469,7 +7039,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B86" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6478,7 +7048,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B87" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6487,7 +7057,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B88" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6496,7 +7066,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B89" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6505,7 +7075,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B90" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6514,7 +7084,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B91" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6523,7 +7093,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B92" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6532,7 +7102,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B93" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6541,7 +7111,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B94" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6550,7 +7120,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B95" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6911,17 +7481,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABCCC7B-39F1-4D4A-A87E-82A807CA683D}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -6936,47 +7506,2331 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>165</v>
+      <c r="A2" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>netherlands</v>
       </c>
       <c r="B2" t="s">
         <v>160</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>germany</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>belgium</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>unitedstatesofamerica</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" t="s">
-        <v>172</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>afghanistan</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>albania</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>algeria</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>andorra</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>angola</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>antiguaandbarbuda</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>argentina</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>armenia</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>australia</v>
+      </c>
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>austria</v>
+      </c>
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>azerbaijan</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>bahamas</v>
+      </c>
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>bahrain</v>
+      </c>
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>bangladesh</v>
+      </c>
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>barbados</v>
+      </c>
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>belarus</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>belize</v>
+      </c>
+      <c r="B22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>benin</v>
+      </c>
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>bhutan</v>
+      </c>
+      <c r="B24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>bolivia</v>
+      </c>
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>bosniaandherzegovina</v>
+      </c>
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>botswana</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>brazil</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>brunei</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>bulgaria</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>burkinafaso</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>burundi</v>
+      </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>côted'ivoire</v>
+      </c>
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>caboverde</v>
+      </c>
+      <c r="B34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>cambodia</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>cameroon</v>
+      </c>
+      <c r="B36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>canada</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>centralafricanrepublic</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>chad</v>
+      </c>
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>chile</v>
+      </c>
+      <c r="B40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>china</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>colombia</v>
+      </c>
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>comoros</v>
+      </c>
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>congo</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>costarica</v>
+      </c>
+      <c r="B45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>croatia</v>
+      </c>
+      <c r="B46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>cuba</v>
+      </c>
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>cyprus</v>
+      </c>
+      <c r="B48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>czechia</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>democraticrepublicofthecongo</v>
+      </c>
+      <c r="B50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>denmark</v>
+      </c>
+      <c r="B51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>djibouti</v>
+      </c>
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>dominica</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>dominicanrepublic</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>ecuador</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>egypt</v>
+      </c>
+      <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>elsalvador</v>
+      </c>
+      <c r="B57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>equatorialguinea</v>
+      </c>
+      <c r="B58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>eritrea</v>
+      </c>
+      <c r="B59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>estonia</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>ethiopia</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>fiji</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>finland</v>
+      </c>
+      <c r="B63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>france</v>
+      </c>
+      <c r="B64" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>gabon</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>gambia</v>
+      </c>
+      <c r="B66" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>georgia</v>
+      </c>
+      <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>ghana</v>
+      </c>
+      <c r="B68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>greece</v>
+      </c>
+      <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>grenada</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>guatemala</v>
+      </c>
+      <c r="B71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>guinea</v>
+      </c>
+      <c r="B72" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>guinea-bissau</v>
+      </c>
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>guyana</v>
+      </c>
+      <c r="B74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>haiti</v>
+      </c>
+      <c r="B75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>holysee</v>
+      </c>
+      <c r="B76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>honduras</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>hungary</v>
+      </c>
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>iceland</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>india</v>
+      </c>
+      <c r="B80" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>indonesia</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>iran</v>
+      </c>
+      <c r="B82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>iraq</v>
+      </c>
+      <c r="B83" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>ireland</v>
+      </c>
+      <c r="B84" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>israel</v>
+      </c>
+      <c r="B85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>italy</v>
+      </c>
+      <c r="B86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>jamaica</v>
+      </c>
+      <c r="B87" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>japan</v>
+      </c>
+      <c r="B88" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>jordan</v>
+      </c>
+      <c r="B89" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>kazakhstan</v>
+      </c>
+      <c r="B90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>kenya</v>
+      </c>
+      <c r="B91" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>kiribati</v>
+      </c>
+      <c r="B92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>kuwait</v>
+      </c>
+      <c r="B93" t="s">
+        <v>160</v>
+      </c>
+      <c r="C93" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>kyrgyzstan</v>
+      </c>
+      <c r="B94" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>laos</v>
+      </c>
+      <c r="B95" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>latvia</v>
+      </c>
+      <c r="B96" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>lebanon</v>
+      </c>
+      <c r="B97" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>lesotho</v>
+      </c>
+      <c r="B98" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>liberia</v>
+      </c>
+      <c r="B99" t="s">
+        <v>160</v>
+      </c>
+      <c r="C99" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>libya</v>
+      </c>
+      <c r="B100" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>liechtenstein</v>
+      </c>
+      <c r="B101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>lithuania</v>
+      </c>
+      <c r="B102" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>luxembourg</v>
+      </c>
+      <c r="B103" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>madagascar</v>
+      </c>
+      <c r="B104" t="s">
+        <v>160</v>
+      </c>
+      <c r="C104" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>malawi</v>
+      </c>
+      <c r="B105" t="s">
+        <v>160</v>
+      </c>
+      <c r="C105" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>malaysia</v>
+      </c>
+      <c r="B106" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>maldives</v>
+      </c>
+      <c r="B107" t="s">
+        <v>160</v>
+      </c>
+      <c r="C107" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>mali</v>
+      </c>
+      <c r="B108" t="s">
+        <v>160</v>
+      </c>
+      <c r="C108" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>malta</v>
+      </c>
+      <c r="B109" t="s">
+        <v>160</v>
+      </c>
+      <c r="C109" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>marshallislands</v>
+      </c>
+      <c r="B110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>mauritania</v>
+      </c>
+      <c r="B111" t="s">
+        <v>160</v>
+      </c>
+      <c r="C111" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>mauritius</v>
+      </c>
+      <c r="B112" t="s">
+        <v>160</v>
+      </c>
+      <c r="C112" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>mexico</v>
+      </c>
+      <c r="B113" t="s">
+        <v>160</v>
+      </c>
+      <c r="C113" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>micronesia</v>
+      </c>
+      <c r="B114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C114" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>moldova</v>
+      </c>
+      <c r="B115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>monaco</v>
+      </c>
+      <c r="B116" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>mongolia</v>
+      </c>
+      <c r="B117" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>montenegro</v>
+      </c>
+      <c r="B118" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>morocco</v>
+      </c>
+      <c r="B119" t="s">
+        <v>160</v>
+      </c>
+      <c r="C119" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>mozambique</v>
+      </c>
+      <c r="B120" t="s">
+        <v>160</v>
+      </c>
+      <c r="C120" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>myanmar</v>
+      </c>
+      <c r="B121" t="s">
+        <v>160</v>
+      </c>
+      <c r="C121" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>namibia</v>
+      </c>
+      <c r="B122" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>nauru</v>
+      </c>
+      <c r="B123" t="s">
+        <v>160</v>
+      </c>
+      <c r="C123" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>nepal</v>
+      </c>
+      <c r="B124" t="s">
+        <v>160</v>
+      </c>
+      <c r="C124" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>newzealand</v>
+      </c>
+      <c r="B125" t="s">
+        <v>160</v>
+      </c>
+      <c r="C125" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>nicaragua</v>
+      </c>
+      <c r="B126" t="s">
+        <v>160</v>
+      </c>
+      <c r="C126" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>niger</v>
+      </c>
+      <c r="B127" t="s">
+        <v>160</v>
+      </c>
+      <c r="C127" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>nigeria</v>
+      </c>
+      <c r="B128" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>northkorea</v>
+      </c>
+      <c r="B129" t="s">
+        <v>160</v>
+      </c>
+      <c r="C129" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>northmacedonia</v>
+      </c>
+      <c r="B130" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>norway</v>
+      </c>
+      <c r="B131" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>oman</v>
+      </c>
+      <c r="B132" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>pakistan</v>
+      </c>
+      <c r="B133" t="s">
+        <v>160</v>
+      </c>
+      <c r="C133" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>palau</v>
+      </c>
+      <c r="B134" t="s">
+        <v>160</v>
+      </c>
+      <c r="C134" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>palestinestate</v>
+      </c>
+      <c r="B135" t="s">
+        <v>160</v>
+      </c>
+      <c r="C135" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>panama</v>
+      </c>
+      <c r="B136" t="s">
+        <v>160</v>
+      </c>
+      <c r="C136" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>papuanewguinea</v>
+      </c>
+      <c r="B137" t="s">
+        <v>160</v>
+      </c>
+      <c r="C137" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>paraguay</v>
+      </c>
+      <c r="B138" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>peru</v>
+      </c>
+      <c r="B139" t="s">
+        <v>160</v>
+      </c>
+      <c r="C139" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>philippines</v>
+      </c>
+      <c r="B140" t="s">
+        <v>160</v>
+      </c>
+      <c r="C140" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>poland</v>
+      </c>
+      <c r="B141" t="s">
+        <v>160</v>
+      </c>
+      <c r="C141" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>portugal</v>
+      </c>
+      <c r="B142" t="s">
+        <v>160</v>
+      </c>
+      <c r="C142" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>qatar</v>
+      </c>
+      <c r="B143" t="s">
+        <v>160</v>
+      </c>
+      <c r="C143" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>romania</v>
+      </c>
+      <c r="B144" t="s">
+        <v>160</v>
+      </c>
+      <c r="C144" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>russia</v>
+      </c>
+      <c r="B145" t="s">
+        <v>160</v>
+      </c>
+      <c r="C145" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>rwanda</v>
+      </c>
+      <c r="B146" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>saintkittsandnevis</v>
+      </c>
+      <c r="B147" t="s">
+        <v>160</v>
+      </c>
+      <c r="C147" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>saintlucia</v>
+      </c>
+      <c r="B148" t="s">
+        <v>160</v>
+      </c>
+      <c r="C148" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>saintvincentandthegrenadines</v>
+      </c>
+      <c r="B149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C149" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>samoa</v>
+      </c>
+      <c r="B150" t="s">
+        <v>160</v>
+      </c>
+      <c r="C150" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>sanmarino</v>
+      </c>
+      <c r="B151" t="s">
+        <v>160</v>
+      </c>
+      <c r="C151" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>saotomeandprincipe</v>
+      </c>
+      <c r="B152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C152" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>saudiarabia</v>
+      </c>
+      <c r="B153" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>senegal</v>
+      </c>
+      <c r="B154" t="s">
+        <v>160</v>
+      </c>
+      <c r="C154" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>serbia</v>
+      </c>
+      <c r="B155" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>seychelles</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>sierraleone</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>singapore</v>
+      </c>
+      <c r="B158" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>slovakia</v>
+      </c>
+      <c r="B159" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>slovenia</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>solomonislands</v>
+      </c>
+      <c r="B161" t="s">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>somalia</v>
+      </c>
+      <c r="B162" t="s">
+        <v>160</v>
+      </c>
+      <c r="C162" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>southafrica</v>
+      </c>
+      <c r="B163" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>southkorea</v>
+      </c>
+      <c r="B164" t="s">
+        <v>160</v>
+      </c>
+      <c r="C164" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>southsudan</v>
+      </c>
+      <c r="B165" t="s">
+        <v>160</v>
+      </c>
+      <c r="C165" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>spain</v>
+      </c>
+      <c r="B166" t="s">
+        <v>160</v>
+      </c>
+      <c r="C166" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>srilanka</v>
+      </c>
+      <c r="B167" t="s">
+        <v>160</v>
+      </c>
+      <c r="C167" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>sudan</v>
+      </c>
+      <c r="B168" t="s">
+        <v>160</v>
+      </c>
+      <c r="C168" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>suriname</v>
+      </c>
+      <c r="B169" t="s">
+        <v>160</v>
+      </c>
+      <c r="C169" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>sweden</v>
+      </c>
+      <c r="B170" t="s">
+        <v>160</v>
+      </c>
+      <c r="C170" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>switzerland</v>
+      </c>
+      <c r="B171" t="s">
+        <v>160</v>
+      </c>
+      <c r="C171" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>syria</v>
+      </c>
+      <c r="B172" t="s">
+        <v>160</v>
+      </c>
+      <c r="C172" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>tajikistan</v>
+      </c>
+      <c r="B173" t="s">
+        <v>160</v>
+      </c>
+      <c r="C173" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>tanzania</v>
+      </c>
+      <c r="B174" t="s">
+        <v>160</v>
+      </c>
+      <c r="C174" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>thailand</v>
+      </c>
+      <c r="B175" t="s">
+        <v>160</v>
+      </c>
+      <c r="C175" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>timor-leste</v>
+      </c>
+      <c r="B176" t="s">
+        <v>160</v>
+      </c>
+      <c r="C176" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>togo</v>
+      </c>
+      <c r="B177" t="s">
+        <v>160</v>
+      </c>
+      <c r="C177" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>tonga</v>
+      </c>
+      <c r="B178" t="s">
+        <v>160</v>
+      </c>
+      <c r="C178" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>trinidadandtobago</v>
+      </c>
+      <c r="B179" t="s">
+        <v>160</v>
+      </c>
+      <c r="C179" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>tunisia</v>
+      </c>
+      <c r="B180" t="s">
+        <v>160</v>
+      </c>
+      <c r="C180" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>turkey</v>
+      </c>
+      <c r="B181" t="s">
+        <v>160</v>
+      </c>
+      <c r="C181" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>turkmenistan</v>
+      </c>
+      <c r="B182" t="s">
+        <v>160</v>
+      </c>
+      <c r="C182" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>tuvalu</v>
+      </c>
+      <c r="B183" t="s">
+        <v>160</v>
+      </c>
+      <c r="C183" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>uganda</v>
+      </c>
+      <c r="B184" t="s">
+        <v>160</v>
+      </c>
+      <c r="C184" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>ukraine</v>
+      </c>
+      <c r="B185" t="s">
+        <v>160</v>
+      </c>
+      <c r="C185" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>unitedarabemirates</v>
+      </c>
+      <c r="B186" t="s">
+        <v>160</v>
+      </c>
+      <c r="C186" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>unitedkingdom</v>
+      </c>
+      <c r="B187" t="s">
+        <v>160</v>
+      </c>
+      <c r="C187" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>uruguay</v>
+      </c>
+      <c r="B188" t="s">
+        <v>160</v>
+      </c>
+      <c r="C188" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>uzbekistan</v>
+      </c>
+      <c r="B189" t="s">
+        <v>160</v>
+      </c>
+      <c r="C189" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>vanuatu</v>
+      </c>
+      <c r="B190" t="s">
+        <v>160</v>
+      </c>
+      <c r="C190" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>venezuela</v>
+      </c>
+      <c r="B191" t="s">
+        <v>160</v>
+      </c>
+      <c r="C191" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>vietnam</v>
+      </c>
+      <c r="B192" t="s">
+        <v>160</v>
+      </c>
+      <c r="C192" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>yemen</v>
+      </c>
+      <c r="B193" t="s">
+        <v>160</v>
+      </c>
+      <c r="C193" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>zambia</v>
+      </c>
+      <c r="B194" t="s">
+        <v>160</v>
+      </c>
+      <c r="C194" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>zimbabwe</v>
+      </c>
+      <c r="B195" t="s">
+        <v>160</v>
+      </c>
+      <c r="C195" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -6991,7 +9845,7 @@
           <x14:formula1>
             <xm:f>Planets!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B5</xm:sqref>
+          <xm:sqref>B2:B195</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7025,12 +9879,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>165</v>
@@ -7044,7 +9898,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>165</v>
@@ -7058,13 +9912,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4">
         <v>284817</v>
@@ -7072,13 +9926,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
         <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5">
         <v>506922</v>
@@ -7086,13 +9940,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6">
         <v>753056</v>
@@ -7144,7 +9998,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -7170,7 +10024,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -7196,7 +10050,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -7216,62 +10070,62 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
         <v>183</v>
       </c>
-      <c r="B4" t="s">
-        <v>184</v>
-      </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
         <v>185</v>
       </c>
-      <c r="B5" t="s">
-        <v>186</v>
-      </c>
       <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" t="s">
         <v>179</v>
       </c>
-      <c r="D5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" t="s">
-        <v>180</v>
-      </c>
       <c r="H5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
         <v>189</v>
       </c>
-      <c r="B6" t="s">
-        <v>190</v>
-      </c>
       <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" t="s">
         <v>176</v>
       </c>
-      <c r="D6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" t="s">
-        <v>177</v>
-      </c>
       <c r="H6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -7353,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -7361,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -7369,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -7377,7 +10231,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -7385,7 +10239,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -7393,7 +10247,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7544,13 +10398,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -7558,13 +10412,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -7726,7 +10580,7 @@
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -8985,13 +11839,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -9003,13 +11857,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -9021,13 +11875,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -9039,13 +11893,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -9057,13 +11911,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -9075,16 +11929,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -9096,16 +11950,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -9117,16 +11971,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -9138,16 +11992,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -9159,16 +12013,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -9180,16 +12034,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -9201,13 +12055,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -9219,13 +12073,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -9237,13 +12091,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E82">
         <v>3</v>
@@ -9255,13 +12109,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -9273,13 +12127,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -9291,13 +12145,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -9353,12 +12207,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9367,7 +12221,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9376,7 +12230,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9385,7 +12239,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9394,7 +12248,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9403,7 +12257,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9412,7 +12266,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9421,7 +12275,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9430,7 +12284,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9439,7 +12293,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9448,7 +12302,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9457,7 +12311,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9466,7 +12320,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9475,7 +12329,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9484,7 +12338,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9493,7 +12347,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9502,7 +12356,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9511,7 +12365,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9520,7 +12374,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9529,7 +12383,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9538,7 +12392,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9547,7 +12401,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9556,7 +12410,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9565,7 +12419,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9574,7 +12428,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9583,7 +12437,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9592,7 +12446,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9601,7 +12455,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9610,7 +12464,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9619,7 +12473,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9628,7 +12482,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9637,7 +12491,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9646,7 +12500,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9655,7 +12509,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9664,7 +12518,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9673,7 +12527,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9682,7 +12536,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9691,7 +12545,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9700,7 +12554,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9709,7 +12563,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9718,7 +12572,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9727,7 +12581,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9736,7 +12590,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9745,7 +12599,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9754,7 +12608,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9763,7 +12617,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9772,7 +12626,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9781,7 +12635,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9790,7 +12644,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9799,7 +12653,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9808,7 +12662,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9817,7 +12671,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9826,7 +12680,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9835,7 +12689,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9844,7 +12698,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9853,7 +12707,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9862,7 +12716,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9871,7 +12725,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9880,7 +12734,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9889,7 +12743,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9898,7 +12752,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9907,7 +12761,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9916,7 +12770,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9925,7 +12779,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9934,7 +12788,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9943,7 +12797,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9952,7 +12806,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9961,7 +12815,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9970,7 +12824,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9979,7 +12833,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9988,7 +12842,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9997,7 +12851,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10006,7 +12860,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10015,7 +12869,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10024,7 +12878,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10033,7 +12887,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10042,7 +12896,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10051,7 +12905,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10060,7 +12914,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10069,7 +12923,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10078,7 +12932,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10087,7 +12941,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10096,7 +12950,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10105,7 +12959,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B85" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>

--- a/config/ctw.xlsx
+++ b/config/ctw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github\copy-the-world\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3A8FD9-B334-42A0-B1F8-0A2CF3181F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0DF954-FAFF-422F-B79B-86F1866AA280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="640" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
+    <workbookView xWindow="-32400" yWindow="640" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planets" sheetId="11" r:id="rId1"/>
@@ -559,9 +559,6 @@
     <t>belgium</t>
   </si>
   <si>
-    <t>usa</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -2336,6 +2333,9 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>unitedstatesofamerica</t>
   </si>
 </sst>
 </file>
@@ -2478,9 +2478,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2542,6 +2539,9 @@
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2594,7 +2594,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4E39A4B4-5299-4C0B-87C0-9534BB70D093}" name="Table1811" displayName="Table1811" ref="A1:C195" totalsRowShown="0">
   <autoFilter ref="A1:C195" xr:uid="{4E39A4B4-5299-4C0B-87C0-9534BB70D093}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CC2A72F3-D3FD-4E0B-9658-88A3C9132BA3}" name="ID" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{CC2A72F3-D3FD-4E0B-9658-88A3C9132BA3}" name="ID" dataDxfId="6">
       <calculatedColumnFormula>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{EA3C7334-0F95-4EED-B230-BB47635F502D}" name="Planet"/>
@@ -2638,7 +2638,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{16DBF3CF-DFAA-4226-A74F-3FF95F5614F0}" name="Table2" displayName="Table2" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{16DBF3CF-DFAA-4226-A74F-3FF95F5614F0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FE7D0D47-DC0C-43F7-81AE-4C733CE27A01}" name="ID" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{FE7D0D47-DC0C-43F7-81AE-4C733CE27A01}" name="ID" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{BCB2ED7B-FC9C-482A-B7E5-40AD2BC48DEC}" name="Building"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2646,11 +2646,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7ACCEDDF-2DE4-49BC-B6EC-2DAB6698B40C}" name="Table8" displayName="Table8" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7ACCEDDF-2DE4-49BC-B6EC-2DAB6698B40C}" name="Table8" displayName="Table8" ref="A1:D10" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:D10" xr:uid="{7ACCEDDF-2DE4-49BC-B6EC-2DAB6698B40C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E85DA0FE-32F9-4428-811C-D5E3ED923FA6}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{B68FA473-2AD7-4BFA-84E4-9A8F85F569D8}" name="Building" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B68FA473-2AD7-4BFA-84E4-9A8F85F569D8}" name="Building" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{C574EEC4-AF96-4547-8821-86BDB9619A97}" name="Name"/>
     <tableColumn id="4" xr3:uid="{76325719-C930-4888-A2C5-86FF12E71230}" name="Level"/>
   </tableColumns>
@@ -2684,7 +2684,7 @@
     <tableColumn id="3" xr3:uid="{553B7577-C52D-4256-9C71-F31A3AAD5A91}" name="Name"/>
     <tableColumn id="5" xr3:uid="{94606806-F489-4FB4-BB42-58D2B96D413F}" name="Zone"/>
     <tableColumn id="4" xr3:uid="{C0AB62C2-5551-4DDB-A88E-E06B3F126747}" name="Level"/>
-    <tableColumn id="6" xr3:uid="{B673594F-DC7C-4798-8B09-7FE5A8304541}" name="TwinId (Generated)" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{B673594F-DC7C-4798-8B09-7FE5A8304541}" name="TwinId (Generated)" dataDxfId="1">
       <calculatedColumnFormula>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2700,7 +2700,7 @@
     <tableColumn id="2" xr3:uid="{350C66A8-75EE-4471-896F-5EEE3965EC40}" name="Building"/>
     <tableColumn id="4" xr3:uid="{0924DE52-08A4-4103-A802-0802735A30AC}" name="Zone"/>
     <tableColumn id="3" xr3:uid="{5467CA94-5087-4D6C-9991-8475D8A1C3B6}" name="Level"/>
-    <tableColumn id="5" xr3:uid="{223B6C68-C6C1-4F6A-A913-4644E3944B8E}" name="TwinId (Generated)" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{223B6C68-C6C1-4F6A-A913-4644E3944B8E}" name="TwinId (Generated)" dataDxfId="0">
       <calculatedColumnFormula>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3039,50 +3039,50 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B9" t="s">
         <v>564</v>
-      </c>
-      <c r="B9" t="s">
-        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -3112,12 +3112,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B85" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3895,12 +3895,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B85" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4687,7 +4687,7 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -5127,7 +5127,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -5142,7 +5142,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5157,7 +5157,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5172,7 +5172,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5187,7 +5187,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5217,7 +5217,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5232,7 +5232,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5247,7 +5247,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5292,7 +5292,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5307,7 +5307,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5322,7 +5322,7 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -5337,7 +5337,7 @@
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -5352,7 +5352,7 @@
         <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -5367,7 +5367,7 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -5382,7 +5382,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -5397,7 +5397,7 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -5412,7 +5412,7 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -5427,7 +5427,7 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -5442,7 +5442,7 @@
         <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -5457,7 +5457,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -5472,7 +5472,7 @@
         <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -5487,7 +5487,7 @@
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -5502,7 +5502,7 @@
         <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -5517,10 +5517,10 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -5535,10 +5535,10 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -5553,10 +5553,10 @@
         <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5571,10 +5571,10 @@
         <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -5589,10 +5589,10 @@
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5607,10 +5607,10 @@
         <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -5625,10 +5625,10 @@
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -5643,10 +5643,10 @@
         <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5661,10 +5661,10 @@
         <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -5679,10 +5679,10 @@
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -5697,10 +5697,10 @@
         <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -5715,10 +5715,10 @@
         <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -5733,10 +5733,10 @@
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -5751,10 +5751,10 @@
         <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -5769,10 +5769,10 @@
         <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -5787,10 +5787,10 @@
         <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -5805,10 +5805,10 @@
         <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -5823,10 +5823,10 @@
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -5841,10 +5841,10 @@
         <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -5859,10 +5859,10 @@
         <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -5877,7 +5877,7 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -5892,7 +5892,7 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -5907,7 +5907,7 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -5922,7 +5922,7 @@
         <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -5937,7 +5937,7 @@
         <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -5952,7 +5952,7 @@
         <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -5967,7 +5967,7 @@
         <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -5982,7 +5982,7 @@
         <v>33</v>
       </c>
       <c r="B79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -5997,7 +5997,7 @@
         <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -6012,7 +6012,7 @@
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -6027,7 +6027,7 @@
         <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -6042,7 +6042,7 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -6072,7 +6072,7 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -6087,7 +6087,7 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -6102,7 +6102,7 @@
         <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -6117,7 +6117,7 @@
         <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -6132,7 +6132,7 @@
         <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -6147,7 +6147,7 @@
         <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -6162,7 +6162,7 @@
         <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D91">
         <v>4</v>
@@ -6177,7 +6177,7 @@
         <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -6192,7 +6192,7 @@
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -6207,7 +6207,7 @@
         <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -6222,7 +6222,7 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -6278,12 +6278,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6292,7 +6292,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6301,7 +6301,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6310,7 +6310,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6373,7 +6373,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6382,7 +6382,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6400,7 +6400,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6436,7 +6436,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6472,7 +6472,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6481,7 +6481,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6517,7 +6517,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6571,7 +6571,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6616,7 +6616,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6661,7 +6661,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6688,7 +6688,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6760,7 +6760,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6769,7 +6769,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6796,7 +6796,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6841,7 +6841,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6976,7 +6976,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -7030,7 +7030,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B85" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B86" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B87" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -7057,7 +7057,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B88" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -7066,7 +7066,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B89" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B90" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B91" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -7093,7 +7093,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B92" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B93" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B94" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B95" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -7483,7 +7483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABCCC7B-39F1-4D4A-A87E-82A807CA683D}">
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -7526,7 +7526,7 @@
         <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -7538,7 +7538,7 @@
         <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -7550,7 +7550,7 @@
         <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -7562,7 +7562,7 @@
         <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -7574,7 +7574,7 @@
         <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -7586,7 +7586,7 @@
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -7598,7 +7598,7 @@
         <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -7610,7 +7610,7 @@
         <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -7622,7 +7622,7 @@
         <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -7634,7 +7634,7 @@
         <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -7646,7 +7646,7 @@
         <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -7658,7 +7658,7 @@
         <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -7670,7 +7670,7 @@
         <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -7682,7 +7682,7 @@
         <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -7694,7 +7694,7 @@
         <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -7706,7 +7706,7 @@
         <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -7718,7 +7718,7 @@
         <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -7730,7 +7730,7 @@
         <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -7742,7 +7742,7 @@
         <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -7754,7 +7754,7 @@
         <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -7766,7 +7766,7 @@
         <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -7778,7 +7778,7 @@
         <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -7790,7 +7790,7 @@
         <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -7802,7 +7802,7 @@
         <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -7814,7 +7814,7 @@
         <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -7826,7 +7826,7 @@
         <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -7838,7 +7838,7 @@
         <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -7850,7 +7850,7 @@
         <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -7862,7 +7862,7 @@
         <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -7874,7 +7874,7 @@
         <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -7886,7 +7886,7 @@
         <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -7898,7 +7898,7 @@
         <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -7910,7 +7910,7 @@
         <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -7922,7 +7922,7 @@
         <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -7934,7 +7934,7 @@
         <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -7946,7 +7946,7 @@
         <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -7958,7 +7958,7 @@
         <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -7970,7 +7970,7 @@
         <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -7982,7 +7982,7 @@
         <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -7994,7 +7994,7 @@
         <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -8006,7 +8006,7 @@
         <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -8018,7 +8018,7 @@
         <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -8030,7 +8030,7 @@
         <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -8042,7 +8042,7 @@
         <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -8054,7 +8054,7 @@
         <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -8066,7 +8066,7 @@
         <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -8078,7 +8078,7 @@
         <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -8090,7 +8090,7 @@
         <v>160</v>
       </c>
       <c r="C50" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -8102,7 +8102,7 @@
         <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -8114,7 +8114,7 @@
         <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -8126,7 +8126,7 @@
         <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -8138,7 +8138,7 @@
         <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -8150,7 +8150,7 @@
         <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -8162,7 +8162,7 @@
         <v>160</v>
       </c>
       <c r="C56" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -8174,7 +8174,7 @@
         <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -8186,7 +8186,7 @@
         <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -8198,7 +8198,7 @@
         <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -8210,7 +8210,7 @@
         <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -8222,7 +8222,7 @@
         <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -8234,7 +8234,7 @@
         <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -8246,7 +8246,7 @@
         <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -8258,7 +8258,7 @@
         <v>160</v>
       </c>
       <c r="C64" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -8270,7 +8270,7 @@
         <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -8282,7 +8282,7 @@
         <v>160</v>
       </c>
       <c r="C66" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -8294,7 +8294,7 @@
         <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -8306,7 +8306,7 @@
         <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -8318,7 +8318,7 @@
         <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -8330,7 +8330,7 @@
         <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -8342,7 +8342,7 @@
         <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -8354,7 +8354,7 @@
         <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -8366,7 +8366,7 @@
         <v>160</v>
       </c>
       <c r="C73" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -8378,7 +8378,7 @@
         <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -8390,7 +8390,7 @@
         <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -8402,7 +8402,7 @@
         <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -8414,7 +8414,7 @@
         <v>160</v>
       </c>
       <c r="C77" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -8426,7 +8426,7 @@
         <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -8438,7 +8438,7 @@
         <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -8450,7 +8450,7 @@
         <v>160</v>
       </c>
       <c r="C80" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -8462,7 +8462,7 @@
         <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -8474,7 +8474,7 @@
         <v>160</v>
       </c>
       <c r="C82" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -8486,7 +8486,7 @@
         <v>160</v>
       </c>
       <c r="C83" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -8498,7 +8498,7 @@
         <v>160</v>
       </c>
       <c r="C84" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -8510,7 +8510,7 @@
         <v>160</v>
       </c>
       <c r="C85" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -8522,7 +8522,7 @@
         <v>160</v>
       </c>
       <c r="C86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -8534,7 +8534,7 @@
         <v>160</v>
       </c>
       <c r="C87" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -8546,7 +8546,7 @@
         <v>160</v>
       </c>
       <c r="C88" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -8558,7 +8558,7 @@
         <v>160</v>
       </c>
       <c r="C89" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -8570,7 +8570,7 @@
         <v>160</v>
       </c>
       <c r="C90" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -8582,7 +8582,7 @@
         <v>160</v>
       </c>
       <c r="C91" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -8594,7 +8594,7 @@
         <v>160</v>
       </c>
       <c r="C92" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -8606,7 +8606,7 @@
         <v>160</v>
       </c>
       <c r="C93" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -8618,7 +8618,7 @@
         <v>160</v>
       </c>
       <c r="C94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -8630,7 +8630,7 @@
         <v>160</v>
       </c>
       <c r="C95" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -8642,7 +8642,7 @@
         <v>160</v>
       </c>
       <c r="C96" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -8654,7 +8654,7 @@
         <v>160</v>
       </c>
       <c r="C97" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -8666,7 +8666,7 @@
         <v>160</v>
       </c>
       <c r="C98" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -8678,7 +8678,7 @@
         <v>160</v>
       </c>
       <c r="C99" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -8690,7 +8690,7 @@
         <v>160</v>
       </c>
       <c r="C100" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -8702,7 +8702,7 @@
         <v>160</v>
       </c>
       <c r="C101" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -8714,7 +8714,7 @@
         <v>160</v>
       </c>
       <c r="C102" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -8726,7 +8726,7 @@
         <v>160</v>
       </c>
       <c r="C103" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -8738,7 +8738,7 @@
         <v>160</v>
       </c>
       <c r="C104" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -8750,7 +8750,7 @@
         <v>160</v>
       </c>
       <c r="C105" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -8762,7 +8762,7 @@
         <v>160</v>
       </c>
       <c r="C106" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -8774,7 +8774,7 @@
         <v>160</v>
       </c>
       <c r="C107" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -8786,7 +8786,7 @@
         <v>160</v>
       </c>
       <c r="C108" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -8798,7 +8798,7 @@
         <v>160</v>
       </c>
       <c r="C109" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -8810,7 +8810,7 @@
         <v>160</v>
       </c>
       <c r="C110" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -8822,7 +8822,7 @@
         <v>160</v>
       </c>
       <c r="C111" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -8834,7 +8834,7 @@
         <v>160</v>
       </c>
       <c r="C112" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -8846,7 +8846,7 @@
         <v>160</v>
       </c>
       <c r="C113" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -8858,7 +8858,7 @@
         <v>160</v>
       </c>
       <c r="C114" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -8870,7 +8870,7 @@
         <v>160</v>
       </c>
       <c r="C115" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -8882,7 +8882,7 @@
         <v>160</v>
       </c>
       <c r="C116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -8894,7 +8894,7 @@
         <v>160</v>
       </c>
       <c r="C117" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -8906,7 +8906,7 @@
         <v>160</v>
       </c>
       <c r="C118" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -8918,7 +8918,7 @@
         <v>160</v>
       </c>
       <c r="C119" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -8930,7 +8930,7 @@
         <v>160</v>
       </c>
       <c r="C120" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -8942,7 +8942,7 @@
         <v>160</v>
       </c>
       <c r="C121" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -8954,7 +8954,7 @@
         <v>160</v>
       </c>
       <c r="C122" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -8966,7 +8966,7 @@
         <v>160</v>
       </c>
       <c r="C123" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
@@ -8978,7 +8978,7 @@
         <v>160</v>
       </c>
       <c r="C124" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -8990,7 +8990,7 @@
         <v>160</v>
       </c>
       <c r="C125" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
@@ -9002,7 +9002,7 @@
         <v>160</v>
       </c>
       <c r="C126" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
@@ -9014,7 +9014,7 @@
         <v>160</v>
       </c>
       <c r="C127" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
@@ -9026,7 +9026,7 @@
         <v>160</v>
       </c>
       <c r="C128" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -9038,7 +9038,7 @@
         <v>160</v>
       </c>
       <c r="C129" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -9050,7 +9050,7 @@
         <v>160</v>
       </c>
       <c r="C130" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -9062,7 +9062,7 @@
         <v>160</v>
       </c>
       <c r="C131" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -9074,7 +9074,7 @@
         <v>160</v>
       </c>
       <c r="C132" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
@@ -9086,7 +9086,7 @@
         <v>160</v>
       </c>
       <c r="C133" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
@@ -9098,7 +9098,7 @@
         <v>160</v>
       </c>
       <c r="C134" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -9110,7 +9110,7 @@
         <v>160</v>
       </c>
       <c r="C135" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
@@ -9122,7 +9122,7 @@
         <v>160</v>
       </c>
       <c r="C136" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
@@ -9134,7 +9134,7 @@
         <v>160</v>
       </c>
       <c r="C137" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
@@ -9146,7 +9146,7 @@
         <v>160</v>
       </c>
       <c r="C138" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
@@ -9158,7 +9158,7 @@
         <v>160</v>
       </c>
       <c r="C139" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
@@ -9170,7 +9170,7 @@
         <v>160</v>
       </c>
       <c r="C140" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
@@ -9182,7 +9182,7 @@
         <v>160</v>
       </c>
       <c r="C141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
@@ -9194,7 +9194,7 @@
         <v>160</v>
       </c>
       <c r="C142" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
@@ -9206,7 +9206,7 @@
         <v>160</v>
       </c>
       <c r="C143" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
@@ -9218,7 +9218,7 @@
         <v>160</v>
       </c>
       <c r="C144" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
@@ -9230,7 +9230,7 @@
         <v>160</v>
       </c>
       <c r="C145" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
@@ -9242,7 +9242,7 @@
         <v>160</v>
       </c>
       <c r="C146" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
@@ -9254,7 +9254,7 @@
         <v>160</v>
       </c>
       <c r="C147" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
@@ -9266,7 +9266,7 @@
         <v>160</v>
       </c>
       <c r="C148" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
@@ -9278,7 +9278,7 @@
         <v>160</v>
       </c>
       <c r="C149" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
@@ -9290,7 +9290,7 @@
         <v>160</v>
       </c>
       <c r="C150" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
@@ -9302,7 +9302,7 @@
         <v>160</v>
       </c>
       <c r="C151" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -9314,7 +9314,7 @@
         <v>160</v>
       </c>
       <c r="C152" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -9326,7 +9326,7 @@
         <v>160</v>
       </c>
       <c r="C153" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
@@ -9338,7 +9338,7 @@
         <v>160</v>
       </c>
       <c r="C154" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
@@ -9350,7 +9350,7 @@
         <v>160</v>
       </c>
       <c r="C155" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -9362,7 +9362,7 @@
         <v>160</v>
       </c>
       <c r="C156" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
@@ -9374,7 +9374,7 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -9386,7 +9386,7 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -9398,7 +9398,7 @@
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -9410,7 +9410,7 @@
         <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -9422,7 +9422,7 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -9434,7 +9434,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -9446,7 +9446,7 @@
         <v>160</v>
       </c>
       <c r="C163" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
@@ -9458,7 +9458,7 @@
         <v>160</v>
       </c>
       <c r="C164" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
@@ -9470,7 +9470,7 @@
         <v>160</v>
       </c>
       <c r="C165" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
@@ -9482,7 +9482,7 @@
         <v>160</v>
       </c>
       <c r="C166" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -9494,7 +9494,7 @@
         <v>160</v>
       </c>
       <c r="C167" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
@@ -9506,7 +9506,7 @@
         <v>160</v>
       </c>
       <c r="C168" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
@@ -9518,7 +9518,7 @@
         <v>160</v>
       </c>
       <c r="C169" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
@@ -9530,7 +9530,7 @@
         <v>160</v>
       </c>
       <c r="C170" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
@@ -9542,7 +9542,7 @@
         <v>160</v>
       </c>
       <c r="C171" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
@@ -9554,7 +9554,7 @@
         <v>160</v>
       </c>
       <c r="C172" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
@@ -9566,7 +9566,7 @@
         <v>160</v>
       </c>
       <c r="C173" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
@@ -9578,7 +9578,7 @@
         <v>160</v>
       </c>
       <c r="C174" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
@@ -9590,7 +9590,7 @@
         <v>160</v>
       </c>
       <c r="C175" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
@@ -9602,7 +9602,7 @@
         <v>160</v>
       </c>
       <c r="C176" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
@@ -9614,7 +9614,7 @@
         <v>160</v>
       </c>
       <c r="C177" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
@@ -9626,7 +9626,7 @@
         <v>160</v>
       </c>
       <c r="C178" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
@@ -9638,7 +9638,7 @@
         <v>160</v>
       </c>
       <c r="C179" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
@@ -9650,7 +9650,7 @@
         <v>160</v>
       </c>
       <c r="C180" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
@@ -9662,7 +9662,7 @@
         <v>160</v>
       </c>
       <c r="C181" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
@@ -9674,7 +9674,7 @@
         <v>160</v>
       </c>
       <c r="C182" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
@@ -9686,7 +9686,7 @@
         <v>160</v>
       </c>
       <c r="C183" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
@@ -9698,7 +9698,7 @@
         <v>160</v>
       </c>
       <c r="C184" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
@@ -9710,7 +9710,7 @@
         <v>160</v>
       </c>
       <c r="C185" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
@@ -9722,7 +9722,7 @@
         <v>160</v>
       </c>
       <c r="C186" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
@@ -9734,7 +9734,7 @@
         <v>160</v>
       </c>
       <c r="C187" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
@@ -9746,7 +9746,7 @@
         <v>160</v>
       </c>
       <c r="C188" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
@@ -9758,7 +9758,7 @@
         <v>160</v>
       </c>
       <c r="C189" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
@@ -9770,7 +9770,7 @@
         <v>160</v>
       </c>
       <c r="C190" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
@@ -9782,7 +9782,7 @@
         <v>160</v>
       </c>
       <c r="C191" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
@@ -9794,7 +9794,7 @@
         <v>160</v>
       </c>
       <c r="C192" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
@@ -9806,7 +9806,7 @@
         <v>160</v>
       </c>
       <c r="C193" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
@@ -9818,7 +9818,7 @@
         <v>160</v>
       </c>
       <c r="C194" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
@@ -9830,7 +9830,7 @@
         <v>160</v>
       </c>
       <c r="C195" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -9857,8 +9857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73738864-F428-4908-AB05-D87D631C82A3}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9879,12 +9879,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
         <v>165</v>
@@ -9898,7 +9898,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
         <v>165</v>
@@ -9912,13 +9912,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>760</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4">
         <v>284817</v>
@@ -9926,13 +9926,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5">
         <v>506922</v>
@@ -9940,13 +9940,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6">
         <v>753056</v>
@@ -9998,7 +9998,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -10024,7 +10024,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -10050,7 +10050,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -10070,62 +10070,62 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
         <v>182</v>
       </c>
-      <c r="B4" t="s">
-        <v>183</v>
-      </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
         <v>184</v>
       </c>
-      <c r="B5" t="s">
-        <v>185</v>
-      </c>
       <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
         <v>178</v>
       </c>
-      <c r="D5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" t="s">
-        <v>179</v>
-      </c>
       <c r="H5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
         <v>188</v>
       </c>
-      <c r="B6" t="s">
-        <v>189</v>
-      </c>
       <c r="C6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" t="s">
         <v>175</v>
       </c>
-      <c r="D6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" t="s">
-        <v>176</v>
-      </c>
       <c r="H6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -10207,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -10231,7 +10231,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -10239,7 +10239,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -10247,7 +10247,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -10398,13 +10398,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -10412,13 +10412,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -10580,7 +10580,7 @@
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -11839,13 +11839,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -11857,13 +11857,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -11875,13 +11875,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -11893,13 +11893,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -11911,13 +11911,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -11929,16 +11929,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -11950,16 +11950,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -11971,16 +11971,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -11992,16 +11992,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -12013,16 +12013,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -12034,16 +12034,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -12055,13 +12055,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -12073,13 +12073,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -12091,13 +12091,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E82">
         <v>3</v>
@@ -12109,13 +12109,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -12127,13 +12127,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C84" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -12145,13 +12145,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -12207,12 +12207,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12221,7 +12221,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12230,7 +12230,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12239,7 +12239,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12248,7 +12248,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12257,7 +12257,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12266,7 +12266,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12275,7 +12275,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12284,7 +12284,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12293,7 +12293,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12302,7 +12302,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12311,7 +12311,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12320,7 +12320,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12329,7 +12329,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12338,7 +12338,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12347,7 +12347,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12356,7 +12356,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12365,7 +12365,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12374,7 +12374,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12383,7 +12383,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12392,7 +12392,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12401,7 +12401,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12410,7 +12410,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12419,7 +12419,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12428,7 +12428,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12437,7 +12437,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12446,7 +12446,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12455,7 +12455,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12464,7 +12464,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12473,7 +12473,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12482,7 +12482,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12491,7 +12491,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12500,7 +12500,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12509,7 +12509,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12518,7 +12518,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12527,7 +12527,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12536,7 +12536,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12545,7 +12545,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12554,7 +12554,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12563,7 +12563,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12572,7 +12572,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12581,7 +12581,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12590,7 +12590,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12599,7 +12599,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12608,7 +12608,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12617,7 +12617,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12626,7 +12626,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12635,7 +12635,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12644,7 +12644,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12653,7 +12653,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12662,7 +12662,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12680,7 +12680,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12698,7 +12698,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12707,7 +12707,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12716,7 +12716,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12725,7 +12725,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12734,7 +12734,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12743,7 +12743,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12752,7 +12752,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12770,7 +12770,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12779,7 +12779,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12788,7 +12788,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12797,7 +12797,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12806,7 +12806,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12815,7 +12815,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12824,7 +12824,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12833,7 +12833,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12842,7 +12842,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12851,7 +12851,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12860,7 +12860,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12869,7 +12869,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12878,7 +12878,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12887,7 +12887,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12896,7 +12896,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12905,7 +12905,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12914,7 +12914,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12923,7 +12923,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12932,7 +12932,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12941,7 +12941,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12950,7 +12950,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -12959,7 +12959,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B85" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>

--- a/config/ctw.xlsx
+++ b/config/ctw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\github\copy-the-world\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github\copy-the-world\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C477086-A29C-48F9-8AF2-B942A59A2AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0DF954-FAFF-422F-B79B-86F1866AA280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32230" yWindow="4210" windowWidth="28800" windowHeight="15370" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
+    <workbookView xWindow="-32400" yWindow="640" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planets" sheetId="11" r:id="rId1"/>
@@ -43,9 +43,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -55,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="761">
   <si>
     <t>ID</t>
   </si>
@@ -561,12 +559,6 @@
     <t>belgium</t>
   </si>
   <si>
-    <t>usa</t>
-  </si>
-  <si>
-    <t>The Netherlands</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -1771,6 +1763,579 @@
   </si>
   <si>
     <t>Mercury</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palestine State</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>unitedstatesofamerica</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +2470,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1974,6 +2539,9 @@
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2023,10 +2591,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4E39A4B4-5299-4C0B-87C0-9534BB70D093}" name="Table1811" displayName="Table1811" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{4E39A4B4-5299-4C0B-87C0-9534BB70D093}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4E39A4B4-5299-4C0B-87C0-9534BB70D093}" name="Table1811" displayName="Table1811" ref="A1:C195" totalsRowShown="0">
+  <autoFilter ref="A1:C195" xr:uid="{4E39A4B4-5299-4C0B-87C0-9534BB70D093}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CC2A72F3-D3FD-4E0B-9658-88A3C9132BA3}" name="ID"/>
+    <tableColumn id="1" xr3:uid="{CC2A72F3-D3FD-4E0B-9658-88A3C9132BA3}" name="ID" dataDxfId="6">
+      <calculatedColumnFormula>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{EA3C7334-0F95-4EED-B230-BB47635F502D}" name="Planet"/>
     <tableColumn id="7" xr3:uid="{A9AC266E-232B-47AD-8D74-EC32ED101E1D}" name="Name"/>
   </tableColumns>
@@ -2437,7 +3007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA510EF-B804-42E2-B8DD-C1D72D4A589B}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2469,50 +3039,50 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -2527,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E385D5A-40C9-462D-AD16-FC1D40C4A3E2}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2542,12 +3112,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2556,7 +3126,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2565,7 +3135,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2574,7 +3144,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2583,7 +3153,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2592,7 +3162,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2601,7 +3171,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2610,7 +3180,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2619,7 +3189,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2628,7 +3198,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2637,7 +3207,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2646,7 +3216,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2655,7 +3225,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2664,7 +3234,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2673,7 +3243,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2682,7 +3252,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2691,7 +3261,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2700,7 +3270,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2709,7 +3279,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2718,7 +3288,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2727,7 +3297,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2736,7 +3306,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2745,7 +3315,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2754,7 +3324,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2763,7 +3333,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2772,7 +3342,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2781,7 +3351,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2790,7 +3360,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2799,7 +3369,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2808,7 +3378,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2817,7 +3387,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2826,7 +3396,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2835,7 +3405,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2844,7 +3414,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2853,7 +3423,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2862,7 +3432,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2871,7 +3441,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2880,7 +3450,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2889,7 +3459,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2898,7 +3468,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2907,7 +3477,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2916,7 +3486,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2925,7 +3495,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2934,7 +3504,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2943,7 +3513,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2952,7 +3522,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2961,7 +3531,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2970,7 +3540,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2979,7 +3549,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2988,7 +3558,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -2997,7 +3567,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3006,7 +3576,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3015,7 +3585,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3024,7 +3594,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3033,7 +3603,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3042,7 +3612,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3051,7 +3621,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3060,7 +3630,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3069,7 +3639,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3078,7 +3648,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3087,7 +3657,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3096,7 +3666,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3105,7 +3675,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3114,7 +3684,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3123,7 +3693,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3132,7 +3702,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3141,7 +3711,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3150,7 +3720,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3159,7 +3729,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3168,7 +3738,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3177,7 +3747,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3186,7 +3756,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3195,7 +3765,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3204,7 +3774,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3213,7 +3783,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3222,7 +3792,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3231,7 +3801,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3240,7 +3810,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3249,7 +3819,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3258,7 +3828,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3267,7 +3837,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3276,7 +3846,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3285,7 +3855,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3294,7 +3864,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B85" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3310,8 +3880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C19D2-729C-4E84-B2FE-45F185621D28}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3325,12 +3895,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3339,7 +3909,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3348,7 +3918,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3357,7 +3927,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3366,7 +3936,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3375,7 +3945,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3384,7 +3954,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3393,7 +3963,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3402,7 +3972,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3411,7 +3981,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3420,7 +3990,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3429,7 +3999,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3438,7 +4008,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3447,7 +4017,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3456,7 +4026,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3465,7 +4035,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3474,7 +4044,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3483,7 +4053,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3492,7 +4062,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3501,7 +4071,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3510,7 +4080,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3519,7 +4089,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3528,7 +4098,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3537,7 +4107,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3546,7 +4116,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3555,7 +4125,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3564,7 +4134,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3573,7 +4143,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3582,7 +4152,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3591,7 +4161,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3600,7 +4170,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3609,7 +4179,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3618,7 +4188,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3627,7 +4197,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3636,7 +4206,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3645,7 +4215,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3654,7 +4224,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3663,7 +4233,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3672,7 +4242,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3681,7 +4251,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3690,7 +4260,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3699,7 +4269,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3708,7 +4278,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3717,7 +4287,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3726,7 +4296,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3735,7 +4305,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3744,7 +4314,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3753,7 +4323,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3762,7 +4332,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3771,7 +4341,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3780,7 +4350,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3789,7 +4359,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3798,7 +4368,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3807,7 +4377,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3816,7 +4386,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3825,7 +4395,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3834,7 +4404,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3843,7 +4413,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3852,7 +4422,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3861,7 +4431,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3870,7 +4440,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3879,7 +4449,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3888,7 +4458,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3897,7 +4467,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3906,7 +4476,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3915,7 +4485,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3924,7 +4494,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3933,7 +4503,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3942,7 +4512,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3951,7 +4521,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3960,7 +4530,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3969,7 +4539,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3978,7 +4548,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3987,7 +4557,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -3996,7 +4566,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4005,7 +4575,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4014,7 +4584,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4023,7 +4593,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4032,7 +4602,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4041,7 +4611,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4050,7 +4620,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4059,7 +4629,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4068,7 +4638,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4077,7 +4647,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B85" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -4117,7 +4687,7 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4557,7 +5127,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4572,7 +5142,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4587,7 +5157,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4602,7 +5172,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4617,7 +5187,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4632,7 +5202,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4647,7 +5217,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4662,7 +5232,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4677,7 +5247,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4692,7 +5262,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4707,7 +5277,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -4722,7 +5292,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4737,7 +5307,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -4752,7 +5322,7 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4767,7 +5337,7 @@
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4782,7 +5352,7 @@
         <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4797,7 +5367,7 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -4812,7 +5382,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4827,7 +5397,7 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -4842,7 +5412,7 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -4857,7 +5427,7 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4872,7 +5442,7 @@
         <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -4887,7 +5457,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -4902,7 +5472,7 @@
         <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -4917,7 +5487,7 @@
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -4932,7 +5502,7 @@
         <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -4947,10 +5517,10 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -4965,10 +5535,10 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -4983,10 +5553,10 @@
         <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5001,10 +5571,10 @@
         <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -5019,10 +5589,10 @@
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5037,10 +5607,10 @@
         <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -5055,10 +5625,10 @@
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -5073,10 +5643,10 @@
         <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5091,10 +5661,10 @@
         <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -5109,10 +5679,10 @@
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -5127,10 +5697,10 @@
         <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -5145,10 +5715,10 @@
         <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -5163,10 +5733,10 @@
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -5181,10 +5751,10 @@
         <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -5199,10 +5769,10 @@
         <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -5217,10 +5787,10 @@
         <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -5235,10 +5805,10 @@
         <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -5253,10 +5823,10 @@
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -5271,10 +5841,10 @@
         <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -5289,10 +5859,10 @@
         <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -5307,7 +5877,7 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -5322,7 +5892,7 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -5337,7 +5907,7 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -5352,7 +5922,7 @@
         <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -5367,7 +5937,7 @@
         <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -5382,7 +5952,7 @@
         <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -5397,7 +5967,7 @@
         <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -5412,7 +5982,7 @@
         <v>33</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -5427,7 +5997,7 @@
         <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -5442,7 +6012,7 @@
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -5457,7 +6027,7 @@
         <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -5472,7 +6042,7 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -5487,7 +6057,7 @@
         <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -5502,7 +6072,7 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -5517,7 +6087,7 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -5532,7 +6102,7 @@
         <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -5547,7 +6117,7 @@
         <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -5562,7 +6132,7 @@
         <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -5577,7 +6147,7 @@
         <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -5592,7 +6162,7 @@
         <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D91">
         <v>4</v>
@@ -5607,7 +6177,7 @@
         <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -5622,7 +6192,7 @@
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -5637,7 +6207,7 @@
         <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -5652,7 +6222,7 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -5708,12 +6278,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5722,7 +6292,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5731,7 +6301,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5740,7 +6310,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5749,7 +6319,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5758,7 +6328,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5767,7 +6337,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5776,7 +6346,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5785,7 +6355,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5794,7 +6364,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5803,7 +6373,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5812,7 +6382,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5821,7 +6391,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5830,7 +6400,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5839,7 +6409,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5848,7 +6418,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5857,7 +6427,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5866,7 +6436,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5875,7 +6445,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5884,7 +6454,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5893,7 +6463,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5902,7 +6472,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5911,7 +6481,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5920,7 +6490,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5929,7 +6499,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5938,7 +6508,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5947,7 +6517,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5956,7 +6526,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5965,7 +6535,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5974,7 +6544,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5983,7 +6553,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -5992,7 +6562,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6001,7 +6571,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6010,7 +6580,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6019,7 +6589,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6028,7 +6598,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6037,7 +6607,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6046,7 +6616,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6055,7 +6625,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6064,7 +6634,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6073,7 +6643,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6082,7 +6652,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6091,7 +6661,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6100,7 +6670,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6109,7 +6679,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6118,7 +6688,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6127,7 +6697,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6136,7 +6706,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6145,7 +6715,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6154,7 +6724,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6163,7 +6733,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6172,7 +6742,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6181,7 +6751,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6190,7 +6760,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6199,7 +6769,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6208,7 +6778,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6217,7 +6787,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6226,7 +6796,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6235,7 +6805,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6244,7 +6814,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6253,7 +6823,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6262,7 +6832,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6271,7 +6841,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6280,7 +6850,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6289,7 +6859,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6298,7 +6868,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6307,7 +6877,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6316,7 +6886,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6325,7 +6895,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6334,7 +6904,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6343,7 +6913,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6352,7 +6922,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6361,7 +6931,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6370,7 +6940,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6379,7 +6949,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6388,7 +6958,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6397,7 +6967,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6406,7 +6976,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6415,7 +6985,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6424,7 +6994,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6433,7 +7003,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6442,7 +7012,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6451,7 +7021,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6460,7 +7030,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B85" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6469,7 +7039,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B86" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6478,7 +7048,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B87" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6487,7 +7057,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B88" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6496,7 +7066,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B89" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6505,7 +7075,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B90" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6514,7 +7084,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B91" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6523,7 +7093,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B92" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6532,7 +7102,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B93" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6541,7 +7111,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B94" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6550,7 +7120,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B95" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</f>
@@ -6911,17 +7481,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABCCC7B-39F1-4D4A-A87E-82A807CA683D}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -6936,47 +7506,2331 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>165</v>
+      <c r="A2" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>netherlands</v>
       </c>
       <c r="B2" t="s">
         <v>160</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>germany</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>belgium</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>unitedstatesofamerica</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" t="s">
-        <v>172</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>afghanistan</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>albania</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>algeria</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>andorra</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>angola</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>antiguaandbarbuda</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>argentina</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>armenia</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>australia</v>
+      </c>
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>austria</v>
+      </c>
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>azerbaijan</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>bahamas</v>
+      </c>
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>bahrain</v>
+      </c>
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>bangladesh</v>
+      </c>
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>barbados</v>
+      </c>
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>belarus</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>belize</v>
+      </c>
+      <c r="B22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>benin</v>
+      </c>
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>bhutan</v>
+      </c>
+      <c r="B24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>bolivia</v>
+      </c>
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>bosniaandherzegovina</v>
+      </c>
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>botswana</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>brazil</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>brunei</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>bulgaria</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>burkinafaso</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>burundi</v>
+      </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>côted'ivoire</v>
+      </c>
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>caboverde</v>
+      </c>
+      <c r="B34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>cambodia</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>cameroon</v>
+      </c>
+      <c r="B36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>canada</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>centralafricanrepublic</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>chad</v>
+      </c>
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>chile</v>
+      </c>
+      <c r="B40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>china</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>colombia</v>
+      </c>
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>comoros</v>
+      </c>
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>congo</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>costarica</v>
+      </c>
+      <c r="B45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>croatia</v>
+      </c>
+      <c r="B46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>cuba</v>
+      </c>
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>cyprus</v>
+      </c>
+      <c r="B48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>czechia</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>democraticrepublicofthecongo</v>
+      </c>
+      <c r="B50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>denmark</v>
+      </c>
+      <c r="B51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>djibouti</v>
+      </c>
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>dominica</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>dominicanrepublic</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>ecuador</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>egypt</v>
+      </c>
+      <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>elsalvador</v>
+      </c>
+      <c r="B57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>equatorialguinea</v>
+      </c>
+      <c r="B58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>eritrea</v>
+      </c>
+      <c r="B59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>estonia</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>ethiopia</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>fiji</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>finland</v>
+      </c>
+      <c r="B63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>france</v>
+      </c>
+      <c r="B64" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>gabon</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>gambia</v>
+      </c>
+      <c r="B66" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>georgia</v>
+      </c>
+      <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>ghana</v>
+      </c>
+      <c r="B68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>greece</v>
+      </c>
+      <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>grenada</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>guatemala</v>
+      </c>
+      <c r="B71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>guinea</v>
+      </c>
+      <c r="B72" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>guinea-bissau</v>
+      </c>
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>guyana</v>
+      </c>
+      <c r="B74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>haiti</v>
+      </c>
+      <c r="B75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>holysee</v>
+      </c>
+      <c r="B76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>honduras</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>hungary</v>
+      </c>
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>iceland</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>india</v>
+      </c>
+      <c r="B80" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>indonesia</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>iran</v>
+      </c>
+      <c r="B82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>iraq</v>
+      </c>
+      <c r="B83" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>ireland</v>
+      </c>
+      <c r="B84" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>israel</v>
+      </c>
+      <c r="B85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>italy</v>
+      </c>
+      <c r="B86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>jamaica</v>
+      </c>
+      <c r="B87" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>japan</v>
+      </c>
+      <c r="B88" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>jordan</v>
+      </c>
+      <c r="B89" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>kazakhstan</v>
+      </c>
+      <c r="B90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>kenya</v>
+      </c>
+      <c r="B91" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>kiribati</v>
+      </c>
+      <c r="B92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>kuwait</v>
+      </c>
+      <c r="B93" t="s">
+        <v>160</v>
+      </c>
+      <c r="C93" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>kyrgyzstan</v>
+      </c>
+      <c r="B94" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>laos</v>
+      </c>
+      <c r="B95" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>latvia</v>
+      </c>
+      <c r="B96" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>lebanon</v>
+      </c>
+      <c r="B97" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>lesotho</v>
+      </c>
+      <c r="B98" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>liberia</v>
+      </c>
+      <c r="B99" t="s">
+        <v>160</v>
+      </c>
+      <c r="C99" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>libya</v>
+      </c>
+      <c r="B100" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>liechtenstein</v>
+      </c>
+      <c r="B101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>lithuania</v>
+      </c>
+      <c r="B102" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>luxembourg</v>
+      </c>
+      <c r="B103" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>madagascar</v>
+      </c>
+      <c r="B104" t="s">
+        <v>160</v>
+      </c>
+      <c r="C104" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>malawi</v>
+      </c>
+      <c r="B105" t="s">
+        <v>160</v>
+      </c>
+      <c r="C105" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>malaysia</v>
+      </c>
+      <c r="B106" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>maldives</v>
+      </c>
+      <c r="B107" t="s">
+        <v>160</v>
+      </c>
+      <c r="C107" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>mali</v>
+      </c>
+      <c r="B108" t="s">
+        <v>160</v>
+      </c>
+      <c r="C108" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>malta</v>
+      </c>
+      <c r="B109" t="s">
+        <v>160</v>
+      </c>
+      <c r="C109" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>marshallislands</v>
+      </c>
+      <c r="B110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>mauritania</v>
+      </c>
+      <c r="B111" t="s">
+        <v>160</v>
+      </c>
+      <c r="C111" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>mauritius</v>
+      </c>
+      <c r="B112" t="s">
+        <v>160</v>
+      </c>
+      <c r="C112" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>mexico</v>
+      </c>
+      <c r="B113" t="s">
+        <v>160</v>
+      </c>
+      <c r="C113" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>micronesia</v>
+      </c>
+      <c r="B114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C114" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>moldova</v>
+      </c>
+      <c r="B115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>monaco</v>
+      </c>
+      <c r="B116" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>mongolia</v>
+      </c>
+      <c r="B117" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>montenegro</v>
+      </c>
+      <c r="B118" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>morocco</v>
+      </c>
+      <c r="B119" t="s">
+        <v>160</v>
+      </c>
+      <c r="C119" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>mozambique</v>
+      </c>
+      <c r="B120" t="s">
+        <v>160</v>
+      </c>
+      <c r="C120" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>myanmar</v>
+      </c>
+      <c r="B121" t="s">
+        <v>160</v>
+      </c>
+      <c r="C121" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>namibia</v>
+      </c>
+      <c r="B122" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>nauru</v>
+      </c>
+      <c r="B123" t="s">
+        <v>160</v>
+      </c>
+      <c r="C123" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>nepal</v>
+      </c>
+      <c r="B124" t="s">
+        <v>160</v>
+      </c>
+      <c r="C124" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>newzealand</v>
+      </c>
+      <c r="B125" t="s">
+        <v>160</v>
+      </c>
+      <c r="C125" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>nicaragua</v>
+      </c>
+      <c r="B126" t="s">
+        <v>160</v>
+      </c>
+      <c r="C126" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>niger</v>
+      </c>
+      <c r="B127" t="s">
+        <v>160</v>
+      </c>
+      <c r="C127" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>nigeria</v>
+      </c>
+      <c r="B128" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>northkorea</v>
+      </c>
+      <c r="B129" t="s">
+        <v>160</v>
+      </c>
+      <c r="C129" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>northmacedonia</v>
+      </c>
+      <c r="B130" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>norway</v>
+      </c>
+      <c r="B131" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>oman</v>
+      </c>
+      <c r="B132" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>pakistan</v>
+      </c>
+      <c r="B133" t="s">
+        <v>160</v>
+      </c>
+      <c r="C133" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>palau</v>
+      </c>
+      <c r="B134" t="s">
+        <v>160</v>
+      </c>
+      <c r="C134" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>palestinestate</v>
+      </c>
+      <c r="B135" t="s">
+        <v>160</v>
+      </c>
+      <c r="C135" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>panama</v>
+      </c>
+      <c r="B136" t="s">
+        <v>160</v>
+      </c>
+      <c r="C136" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>papuanewguinea</v>
+      </c>
+      <c r="B137" t="s">
+        <v>160</v>
+      </c>
+      <c r="C137" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>paraguay</v>
+      </c>
+      <c r="B138" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>peru</v>
+      </c>
+      <c r="B139" t="s">
+        <v>160</v>
+      </c>
+      <c r="C139" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>philippines</v>
+      </c>
+      <c r="B140" t="s">
+        <v>160</v>
+      </c>
+      <c r="C140" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>poland</v>
+      </c>
+      <c r="B141" t="s">
+        <v>160</v>
+      </c>
+      <c r="C141" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>portugal</v>
+      </c>
+      <c r="B142" t="s">
+        <v>160</v>
+      </c>
+      <c r="C142" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>qatar</v>
+      </c>
+      <c r="B143" t="s">
+        <v>160</v>
+      </c>
+      <c r="C143" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>romania</v>
+      </c>
+      <c r="B144" t="s">
+        <v>160</v>
+      </c>
+      <c r="C144" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>russia</v>
+      </c>
+      <c r="B145" t="s">
+        <v>160</v>
+      </c>
+      <c r="C145" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>rwanda</v>
+      </c>
+      <c r="B146" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>saintkittsandnevis</v>
+      </c>
+      <c r="B147" t="s">
+        <v>160</v>
+      </c>
+      <c r="C147" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>saintlucia</v>
+      </c>
+      <c r="B148" t="s">
+        <v>160</v>
+      </c>
+      <c r="C148" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>saintvincentandthegrenadines</v>
+      </c>
+      <c r="B149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C149" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>samoa</v>
+      </c>
+      <c r="B150" t="s">
+        <v>160</v>
+      </c>
+      <c r="C150" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>sanmarino</v>
+      </c>
+      <c r="B151" t="s">
+        <v>160</v>
+      </c>
+      <c r="C151" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>saotomeandprincipe</v>
+      </c>
+      <c r="B152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C152" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>saudiarabia</v>
+      </c>
+      <c r="B153" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>senegal</v>
+      </c>
+      <c r="B154" t="s">
+        <v>160</v>
+      </c>
+      <c r="C154" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>serbia</v>
+      </c>
+      <c r="B155" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>seychelles</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>sierraleone</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>singapore</v>
+      </c>
+      <c r="B158" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>slovakia</v>
+      </c>
+      <c r="B159" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>slovenia</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>solomonislands</v>
+      </c>
+      <c r="B161" t="s">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>somalia</v>
+      </c>
+      <c r="B162" t="s">
+        <v>160</v>
+      </c>
+      <c r="C162" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>southafrica</v>
+      </c>
+      <c r="B163" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>southkorea</v>
+      </c>
+      <c r="B164" t="s">
+        <v>160</v>
+      </c>
+      <c r="C164" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>southsudan</v>
+      </c>
+      <c r="B165" t="s">
+        <v>160</v>
+      </c>
+      <c r="C165" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>spain</v>
+      </c>
+      <c r="B166" t="s">
+        <v>160</v>
+      </c>
+      <c r="C166" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>srilanka</v>
+      </c>
+      <c r="B167" t="s">
+        <v>160</v>
+      </c>
+      <c r="C167" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>sudan</v>
+      </c>
+      <c r="B168" t="s">
+        <v>160</v>
+      </c>
+      <c r="C168" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>suriname</v>
+      </c>
+      <c r="B169" t="s">
+        <v>160</v>
+      </c>
+      <c r="C169" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>sweden</v>
+      </c>
+      <c r="B170" t="s">
+        <v>160</v>
+      </c>
+      <c r="C170" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>switzerland</v>
+      </c>
+      <c r="B171" t="s">
+        <v>160</v>
+      </c>
+      <c r="C171" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>syria</v>
+      </c>
+      <c r="B172" t="s">
+        <v>160</v>
+      </c>
+      <c r="C172" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>tajikistan</v>
+      </c>
+      <c r="B173" t="s">
+        <v>160</v>
+      </c>
+      <c r="C173" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>tanzania</v>
+      </c>
+      <c r="B174" t="s">
+        <v>160</v>
+      </c>
+      <c r="C174" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>thailand</v>
+      </c>
+      <c r="B175" t="s">
+        <v>160</v>
+      </c>
+      <c r="C175" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>timor-leste</v>
+      </c>
+      <c r="B176" t="s">
+        <v>160</v>
+      </c>
+      <c r="C176" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>togo</v>
+      </c>
+      <c r="B177" t="s">
+        <v>160</v>
+      </c>
+      <c r="C177" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>tonga</v>
+      </c>
+      <c r="B178" t="s">
+        <v>160</v>
+      </c>
+      <c r="C178" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>trinidadandtobago</v>
+      </c>
+      <c r="B179" t="s">
+        <v>160</v>
+      </c>
+      <c r="C179" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>tunisia</v>
+      </c>
+      <c r="B180" t="s">
+        <v>160</v>
+      </c>
+      <c r="C180" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>turkey</v>
+      </c>
+      <c r="B181" t="s">
+        <v>160</v>
+      </c>
+      <c r="C181" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>turkmenistan</v>
+      </c>
+      <c r="B182" t="s">
+        <v>160</v>
+      </c>
+      <c r="C182" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>tuvalu</v>
+      </c>
+      <c r="B183" t="s">
+        <v>160</v>
+      </c>
+      <c r="C183" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>uganda</v>
+      </c>
+      <c r="B184" t="s">
+        <v>160</v>
+      </c>
+      <c r="C184" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>ukraine</v>
+      </c>
+      <c r="B185" t="s">
+        <v>160</v>
+      </c>
+      <c r="C185" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>unitedarabemirates</v>
+      </c>
+      <c r="B186" t="s">
+        <v>160</v>
+      </c>
+      <c r="C186" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>unitedkingdom</v>
+      </c>
+      <c r="B187" t="s">
+        <v>160</v>
+      </c>
+      <c r="C187" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>uruguay</v>
+      </c>
+      <c r="B188" t="s">
+        <v>160</v>
+      </c>
+      <c r="C188" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>uzbekistan</v>
+      </c>
+      <c r="B189" t="s">
+        <v>160</v>
+      </c>
+      <c r="C189" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>vanuatu</v>
+      </c>
+      <c r="B190" t="s">
+        <v>160</v>
+      </c>
+      <c r="C190" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>venezuela</v>
+      </c>
+      <c r="B191" t="s">
+        <v>160</v>
+      </c>
+      <c r="C191" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>vietnam</v>
+      </c>
+      <c r="B192" t="s">
+        <v>160</v>
+      </c>
+      <c r="C192" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>yemen</v>
+      </c>
+      <c r="B193" t="s">
+        <v>160</v>
+      </c>
+      <c r="C193" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>zambia</v>
+      </c>
+      <c r="B194" t="s">
+        <v>160</v>
+      </c>
+      <c r="C194" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" t="str">
+        <f>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</f>
+        <v>zimbabwe</v>
+      </c>
+      <c r="B195" t="s">
+        <v>160</v>
+      </c>
+      <c r="C195" t="s">
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -6991,7 +9845,7 @@
           <x14:formula1>
             <xm:f>Planets!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B5</xm:sqref>
+          <xm:sqref>B2:B195</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7003,8 +9857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73738864-F428-4908-AB05-D87D631C82A3}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7025,12 +9879,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
         <v>165</v>
@@ -7044,7 +9898,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
         <v>165</v>
@@ -7058,13 +9912,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>760</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D4">
         <v>284817</v>
@@ -7072,13 +9926,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D5">
         <v>506922</v>
@@ -7086,13 +9940,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D6">
         <v>753056</v>
@@ -7144,7 +9998,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -7170,7 +10024,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -7196,7 +10050,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -7216,62 +10070,62 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
         <v>186</v>
-      </c>
-      <c r="C5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" t="s">
         <v>190</v>
-      </c>
-      <c r="C6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -7353,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -7361,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -7369,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -7377,7 +10231,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -7385,7 +10239,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -7393,7 +10247,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -7544,13 +10398,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -7558,13 +10412,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -7726,7 +10580,7 @@
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -8985,13 +11839,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -9003,13 +11857,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -9021,13 +11875,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -9039,13 +11893,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B72" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -9057,13 +11911,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -9075,16 +11929,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D74" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -9096,16 +11950,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D75" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -9117,16 +11971,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D76" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -9138,16 +11992,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -9159,16 +12013,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -9180,16 +12034,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" t="s">
         <v>203</v>
-      </c>
-      <c r="B79" t="s">
-        <v>185</v>
-      </c>
-      <c r="C79" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" t="s">
-        <v>205</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -9201,13 +12055,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -9219,13 +12073,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -9237,13 +12091,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E82">
         <v>3</v>
@@ -9255,13 +12109,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C83" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -9273,13 +12127,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -9291,13 +12145,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C85" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -9353,12 +12207,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9367,7 +12221,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9376,7 +12230,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9385,7 +12239,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9394,7 +12248,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9403,7 +12257,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9412,7 +12266,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9421,7 +12275,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9430,7 +12284,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9439,7 +12293,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9448,7 +12302,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9457,7 +12311,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9466,7 +12320,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9475,7 +12329,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9484,7 +12338,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9493,7 +12347,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9502,7 +12356,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9511,7 +12365,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9520,7 +12374,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9529,7 +12383,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9538,7 +12392,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9547,7 +12401,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9556,7 +12410,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9565,7 +12419,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9574,7 +12428,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9583,7 +12437,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9592,7 +12446,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9601,7 +12455,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9610,7 +12464,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9619,7 +12473,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9628,7 +12482,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9637,7 +12491,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9646,7 +12500,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9655,7 +12509,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9664,7 +12518,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9673,7 +12527,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9682,7 +12536,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9691,7 +12545,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B39" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9700,7 +12554,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9709,7 +12563,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9718,7 +12572,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9727,7 +12581,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9736,7 +12590,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9745,7 +12599,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9754,7 +12608,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B46" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9763,7 +12617,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9772,7 +12626,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9781,7 +12635,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9790,7 +12644,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9799,7 +12653,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B51" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9808,7 +12662,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B52" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9817,7 +12671,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B53" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9826,7 +12680,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B54" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9835,7 +12689,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B55" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9844,7 +12698,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B56" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9853,7 +12707,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9862,7 +12716,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9871,7 +12725,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9880,7 +12734,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B60" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9889,7 +12743,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B61" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9898,7 +12752,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B62" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9907,7 +12761,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B63" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9916,7 +12770,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B64" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9925,7 +12779,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9934,7 +12788,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9943,7 +12797,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9952,7 +12806,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9961,7 +12815,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B69" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9970,7 +12824,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B70" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9979,7 +12833,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9988,7 +12842,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -9997,7 +12851,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B73" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10006,7 +12860,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B74" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10015,7 +12869,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B75" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10024,7 +12878,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B76" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10033,7 +12887,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10042,7 +12896,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B78" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10051,7 +12905,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10060,7 +12914,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10069,7 +12923,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10078,7 +12932,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B82" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10087,7 +12941,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B83" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10096,7 +12950,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B84" s="2" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
@@ -10105,7 +12959,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B85" s="10" t="str">
         <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>

--- a/config/ctw.xlsx
+++ b/config/ctw.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github\copy-the-world\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0DF954-FAFF-422F-B79B-86F1866AA280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F146D741-66B9-4F07-9567-9007ED4EB906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="640" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
+    <workbookView xWindow="-32400" yWindow="640" windowWidth="28800" windowHeight="15460" activeTab="4" xr2:uid="{9A802DD3-F802-40DC-B7E9-C4F2EF300A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planets" sheetId="11" r:id="rId1"/>
     <sheet name="Countries" sheetId="12" r:id="rId2"/>
     <sheet name="Cities" sheetId="13" r:id="rId3"/>
     <sheet name="Buildings" sheetId="1" r:id="rId4"/>
-    <sheet name="Levels" sheetId="2" r:id="rId5"/>
-    <sheet name="Zones" sheetId="8" r:id="rId6"/>
-    <sheet name="PhoneBooths" sheetId="4" r:id="rId7"/>
-    <sheet name="Rooms" sheetId="3" r:id="rId8"/>
-    <sheet name="RoomMotionSensors" sheetId="14" r:id="rId9"/>
-    <sheet name="TemperatureSensors" sheetId="17" r:id="rId10"/>
-    <sheet name="Co2Sensors" sheetId="16" r:id="rId11"/>
-    <sheet name="Desks" sheetId="5" r:id="rId12"/>
-    <sheet name="DeskMotionSensors" sheetId="15" r:id="rId13"/>
-    <sheet name="Parking Lots" sheetId="10" r:id="rId14"/>
-    <sheet name="Parking spots" sheetId="6" r:id="rId15"/>
-    <sheet name="Car Chargers" sheetId="9" r:id="rId16"/>
+    <sheet name="Weather" sheetId="18" r:id="rId5"/>
+    <sheet name="Levels" sheetId="2" r:id="rId6"/>
+    <sheet name="Zones" sheetId="8" r:id="rId7"/>
+    <sheet name="PhoneBooths" sheetId="4" r:id="rId8"/>
+    <sheet name="Rooms" sheetId="3" r:id="rId9"/>
+    <sheet name="RoomMotionSensors" sheetId="14" r:id="rId10"/>
+    <sheet name="TemperatureSensors" sheetId="17" r:id="rId11"/>
+    <sheet name="Co2Sensors" sheetId="16" r:id="rId12"/>
+    <sheet name="Desks" sheetId="5" r:id="rId13"/>
+    <sheet name="DeskMotionSensors" sheetId="15" r:id="rId14"/>
+    <sheet name="Parking Lots" sheetId="10" r:id="rId15"/>
+    <sheet name="Parking spots" sheetId="6" r:id="rId16"/>
+    <sheet name="Car Chargers" sheetId="9" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="Buildings" localSheetId="12">Table1[]</definedName>
-    <definedName name="Buildings" localSheetId="9">Table1[]</definedName>
+    <definedName name="Buildings" localSheetId="13">Table1[]</definedName>
+    <definedName name="Buildings" localSheetId="10">Table1[]</definedName>
     <definedName name="Buildings">Table1[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="767">
   <si>
     <t>ID</t>
   </si>
@@ -2336,6 +2337,24 @@
   </si>
   <si>
     <t>unitedstatesofamerica</t>
+  </si>
+  <si>
+    <t>TwinId (generated)</t>
+  </si>
+  <si>
+    <t>xhq</t>
+  </si>
+  <si>
+    <t>whq</t>
+  </si>
+  <si>
+    <t>orl</t>
+  </si>
+  <si>
+    <t>frk</t>
+  </si>
+  <si>
+    <t>ant</t>
   </si>
 </sst>
 </file>
@@ -2470,7 +2489,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2594,7 +2616,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4E39A4B4-5299-4C0B-87C0-9534BB70D093}" name="Table1811" displayName="Table1811" ref="A1:C195" totalsRowShown="0">
   <autoFilter ref="A1:C195" xr:uid="{4E39A4B4-5299-4C0B-87C0-9534BB70D093}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CC2A72F3-D3FD-4E0B-9658-88A3C9132BA3}" name="ID" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{CC2A72F3-D3FD-4E0B-9658-88A3C9132BA3}" name="ID" dataDxfId="7">
       <calculatedColumnFormula>LOWER(SUBSTITUTE(Table1811[[#This Row],[Name]], " ", ""))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{EA3C7334-0F95-4EED-B230-BB47635F502D}" name="Planet"/>
@@ -2618,9 +2640,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{286E368C-FE77-4E6B-9074-2516FF806E1F}" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{286E368C-FE77-4E6B-9074-2516FF806E1F}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{286E368C-FE77-4E6B-9074-2516FF806E1F}" name="Table1" displayName="Table1" ref="A1:I6" totalsRowShown="0">
+  <autoFilter ref="A1:I6" xr:uid="{286E368C-FE77-4E6B-9074-2516FF806E1F}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{CC0D9068-E39E-4DCA-BDFD-DAB0927E9F90}" name="ID"/>
     <tableColumn id="7" xr3:uid="{473F1CEC-5290-4EA9-9033-5EEB95FA3E3B}" name="Name"/>
     <tableColumn id="9" xr3:uid="{D64CD8FC-A734-4663-92B6-9BBF02A5290A}" name="CityTwin"/>
@@ -2629,6 +2651,9 @@
     <tableColumn id="4" xr3:uid="{ECF2DC82-76C7-424B-A6F4-43CD8C67FFFA}" name="PostalCode"/>
     <tableColumn id="5" xr3:uid="{A95647DC-A836-4C48-A820-F3A6496B915D}" name="AddressLine1"/>
     <tableColumn id="6" xr3:uid="{A73FF879-62F8-4382-AA7E-82F51BC4460D}" name="Coordinates"/>
+    <tableColumn id="8" xr3:uid="{B8A411D1-0055-4B65-9F08-5D76893FF88D}" name="TwinId (generated)" dataDxfId="0">
+      <calculatedColumnFormula>LOWER(Table1[[#This Row],[ID]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2638,7 +2663,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{16DBF3CF-DFAA-4226-A74F-3FF95F5614F0}" name="Table2" displayName="Table2" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{16DBF3CF-DFAA-4226-A74F-3FF95F5614F0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FE7D0D47-DC0C-43F7-81AE-4C733CE27A01}" name="ID" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{FE7D0D47-DC0C-43F7-81AE-4C733CE27A01}" name="ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{BCB2ED7B-FC9C-482A-B7E5-40AD2BC48DEC}" name="Building"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2646,11 +2671,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7ACCEDDF-2DE4-49BC-B6EC-2DAB6698B40C}" name="Table8" displayName="Table8" ref="A1:D10" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7ACCEDDF-2DE4-49BC-B6EC-2DAB6698B40C}" name="Table8" displayName="Table8" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D10" xr:uid="{7ACCEDDF-2DE4-49BC-B6EC-2DAB6698B40C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E85DA0FE-32F9-4428-811C-D5E3ED923FA6}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{B68FA473-2AD7-4BFA-84E4-9A8F85F569D8}" name="Building" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B68FA473-2AD7-4BFA-84E4-9A8F85F569D8}" name="Building" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{C574EEC4-AF96-4547-8821-86BDB9619A97}" name="Name"/>
     <tableColumn id="4" xr3:uid="{76325719-C930-4888-A2C5-86FF12E71230}" name="Level"/>
   </tableColumns>
@@ -2684,7 +2709,7 @@
     <tableColumn id="3" xr3:uid="{553B7577-C52D-4256-9C71-F31A3AAD5A91}" name="Name"/>
     <tableColumn id="5" xr3:uid="{94606806-F489-4FB4-BB42-58D2B96D413F}" name="Zone"/>
     <tableColumn id="4" xr3:uid="{C0AB62C2-5551-4DDB-A88E-E06B3F126747}" name="Level"/>
-    <tableColumn id="6" xr3:uid="{B673594F-DC7C-4798-8B09-7FE5A8304541}" name="TwinId (Generated)" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{B673594F-DC7C-4798-8B09-7FE5A8304541}" name="TwinId (Generated)" dataDxfId="2">
       <calculatedColumnFormula>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2700,7 +2725,7 @@
     <tableColumn id="2" xr3:uid="{350C66A8-75EE-4471-896F-5EEE3965EC40}" name="Building"/>
     <tableColumn id="4" xr3:uid="{0924DE52-08A4-4103-A802-0802735A30AC}" name="Zone"/>
     <tableColumn id="3" xr3:uid="{5467CA94-5087-4D6C-9991-8475D8A1C3B6}" name="Level"/>
-    <tableColumn id="5" xr3:uid="{223B6C68-C6C1-4F6A-A913-4644E3944B8E}" name="TwinId (Generated)" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{223B6C68-C6C1-4F6A-A913-4644E3944B8E}" name="TwinId (Generated)" dataDxfId="1">
       <calculatedColumnFormula>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table5[[#This Row],[Building]],Table5[[#This Row],[Level]],Table5[[#This Row],[Zone]],Table5[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3094,6 +3119,789 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3A9034-3F18-4A30-98AB-4FE0DA6214B0}">
+  <dimension ref="A1:B85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-c1.10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-a0.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-0-c0.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.09</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-b1.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>250</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.08</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.09</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-1-a1.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B47" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>257</v>
+      </c>
+      <c r="B48" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.03</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.04</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>260</v>
+      </c>
+      <c r="B51" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.08</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>266</v>
+      </c>
+      <c r="B57" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>267</v>
+      </c>
+      <c r="B58" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-b2.12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>269</v>
+      </c>
+      <c r="B60" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.02</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.03</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>271</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.04</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>272</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>273</v>
+      </c>
+      <c r="B64" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.07</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>275</v>
+      </c>
+      <c r="B66" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.08</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>276</v>
+      </c>
+      <c r="B67" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.09</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>277</v>
+      </c>
+      <c r="B68" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>xhq-2-a2.10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>278</v>
+      </c>
+      <c r="B69" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>orl-0-optimusprime</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>279</v>
+      </c>
+      <c r="B70" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>orl-0-bumblebee</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>280</v>
+      </c>
+      <c r="B71" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>orl-0-cliffjumper</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>281</v>
+      </c>
+      <c r="B72" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>orl-1-wheeljack</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>282</v>
+      </c>
+      <c r="B73" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>orl-1-prowl</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>283</v>
+      </c>
+      <c r="B74" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-bilbo</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>284</v>
+      </c>
+      <c r="B75" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-frodo</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>285</v>
+      </c>
+      <c r="B76" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-samwise</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>286</v>
+      </c>
+      <c r="B77" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-meriadoc</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>287</v>
+      </c>
+      <c r="B78" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-belladonna</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>288</v>
+      </c>
+      <c r="B79" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>frk-0-peregrin</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>289</v>
+      </c>
+      <c r="B80" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-2-wolverine</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>290</v>
+      </c>
+      <c r="B81" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-2-spiderman</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>291</v>
+      </c>
+      <c r="B82" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-3-thor</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>292</v>
+      </c>
+      <c r="B83" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-3-hulk</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>293</v>
+      </c>
+      <c r="B84" s="2" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-4-daredevil</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>294</v>
+      </c>
+      <c r="B85" s="10" t="str">
+        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
+        <v>ant-4-punisher</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E385D5A-40C9-462D-AD16-FC1D40C4A3E2}">
   <dimension ref="A1:B85"/>
   <sheetViews>
@@ -3876,7 +4684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C19D2-729C-4E84-B2FE-45F185621D28}">
   <dimension ref="A1:B85"/>
   <sheetViews>
@@ -4659,7 +5467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CFE91E-FDA2-45F8-B52A-C8C5712828C8}">
   <dimension ref="A1:E95"/>
   <sheetViews>
@@ -6259,7 +7067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2BF07D-DE80-42CA-ADD3-7A061146A9C7}">
   <dimension ref="A1:B95"/>
   <sheetViews>
@@ -7132,7 +7940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C859A245-3C90-4B7C-9DD7-F25A178C6105}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -7178,7 +7986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D3A0EF-4BE8-40EA-8F85-0C9098AE9314}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -7361,7 +8169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D64CDF-AE10-41CD-A603-F1146F496055}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -9857,7 +10665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73738864-F428-4908-AB05-D87D631C82A3}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -9974,10 +10782,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F496CE3C-4FCB-42A2-AD40-19A0C25E579C}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9990,7 +10798,7 @@
     <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10015,8 +10823,11 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -10041,8 +10852,12 @@
       <c r="H2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="str">
+        <f>LOWER(Table1[[#This Row],[ID]])</f>
+        <v>xhq</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -10067,8 +10882,12 @@
       <c r="H3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="str">
+        <f>LOWER(Table1[[#This Row],[ID]])</f>
+        <v>whq</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -10087,8 +10906,12 @@
       <c r="H4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="str">
+        <f>LOWER(Table1[[#This Row],[ID]])</f>
+        <v>orl</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -10107,8 +10930,12 @@
       <c r="H5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" t="str">
+        <f>LOWER(Table1[[#This Row],[ID]])</f>
+        <v>frk</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -10126,6 +10953,10 @@
       </c>
       <c r="H6" t="s">
         <v>190</v>
+      </c>
+      <c r="I6" t="str">
+        <f>LOWER(Table1[[#This Row],[ID]])</f>
+        <v>ant</v>
       </c>
     </row>
   </sheetData>
@@ -10150,6 +10981,66 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8FCA55-2A87-4ECD-95ED-2FCD1E58E876}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65AFBF43-B29C-46BF-AB0E-8853BA2B1385}">
+          <x14:formula1>
+            <xm:f>Buildings!$I$2:$I$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C91AB9F-3898-47A2-861B-71AFD5DEB950}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -10270,7 +11161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBD7FD1-964D-45AB-A9E2-51A514C7A6F2}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -10444,7 +11335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24169BE6-9848-46E7-9522-D69D04E2D41F}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -10545,7 +11436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1535539-AB89-4B69-BFDB-9E52D2F3597C}">
   <dimension ref="A1:F85"/>
   <sheetViews>
@@ -12186,787 +13077,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3A9034-3F18-4A30-98AB-4FE0DA6214B0}">
-  <dimension ref="A1:B85"/>
-  <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection sqref="A1:B85"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-c1.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-c1.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-c1.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-c1.07</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-c1.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-c1.09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-c1.10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-a0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-a0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-a0.03</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-a0.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-a0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-a0.06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-a0.07</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-a0.08</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-c0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-c0.02</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-c0.03</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>229</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-c0.04</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>230</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-c0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-c0.06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-c0.08</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-c0.09</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-c0.10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>235</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-0-c0.11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>236</v>
-      </c>
-      <c r="B27" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-b1.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>237</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-b1.03</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>238</v>
-      </c>
-      <c r="B29" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-b1.04</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>239</v>
-      </c>
-      <c r="B30" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-b1.05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>240</v>
-      </c>
-      <c r="B31" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-b1.06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>241</v>
-      </c>
-      <c r="B32" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-b1.08</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>242</v>
-      </c>
-      <c r="B33" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-b1.09</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>243</v>
-      </c>
-      <c r="B34" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-b1.10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>244</v>
-      </c>
-      <c r="B35" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-b1.11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>245</v>
-      </c>
-      <c r="B36" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-b1.12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>246</v>
-      </c>
-      <c r="B37" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-a1.01</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>247</v>
-      </c>
-      <c r="B38" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-a1.02</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>248</v>
-      </c>
-      <c r="B39" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-a1.03</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B40" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-a1.05</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>250</v>
-      </c>
-      <c r="B41" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-a1.06</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>251</v>
-      </c>
-      <c r="B42" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-a1.08</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>252</v>
-      </c>
-      <c r="B43" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-a1.09</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>253</v>
-      </c>
-      <c r="B44" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-a1.10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>254</v>
-      </c>
-      <c r="B45" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-a1.11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>255</v>
-      </c>
-      <c r="B46" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-1-a1.12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>256</v>
-      </c>
-      <c r="B47" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-b2.01</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>257</v>
-      </c>
-      <c r="B48" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-b2.02</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>258</v>
-      </c>
-      <c r="B49" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-b2.03</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>259</v>
-      </c>
-      <c r="B50" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-b2.04</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>260</v>
-      </c>
-      <c r="B51" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-b2.05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>261</v>
-      </c>
-      <c r="B52" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-b2.06</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>262</v>
-      </c>
-      <c r="B53" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-b2.07</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>263</v>
-      </c>
-      <c r="B54" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-b2.08</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>264</v>
-      </c>
-      <c r="B55" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-b2.09</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>265</v>
-      </c>
-      <c r="B56" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-b2.10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>266</v>
-      </c>
-      <c r="B57" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-b2.11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>267</v>
-      </c>
-      <c r="B58" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-b2.12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>268</v>
-      </c>
-      <c r="B59" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-a2.01</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>269</v>
-      </c>
-      <c r="B60" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-a2.02</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>270</v>
-      </c>
-      <c r="B61" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-a2.03</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>271</v>
-      </c>
-      <c r="B62" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-a2.04</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>272</v>
-      </c>
-      <c r="B63" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-a2.05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>273</v>
-      </c>
-      <c r="B64" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-a2.06</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>274</v>
-      </c>
-      <c r="B65" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-a2.07</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>275</v>
-      </c>
-      <c r="B66" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-a2.08</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>276</v>
-      </c>
-      <c r="B67" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-a2.09</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>277</v>
-      </c>
-      <c r="B68" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>xhq-2-a2.10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>278</v>
-      </c>
-      <c r="B69" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>orl-0-optimusprime</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>279</v>
-      </c>
-      <c r="B70" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>orl-0-bumblebee</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>280</v>
-      </c>
-      <c r="B71" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>orl-0-cliffjumper</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>281</v>
-      </c>
-      <c r="B72" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>orl-1-wheeljack</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>282</v>
-      </c>
-      <c r="B73" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>orl-1-prowl</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>283</v>
-      </c>
-      <c r="B74" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>frk-0-bilbo</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>284</v>
-      </c>
-      <c r="B75" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>frk-0-frodo</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>285</v>
-      </c>
-      <c r="B76" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>frk-0-samwise</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>286</v>
-      </c>
-      <c r="B77" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>frk-0-meriadoc</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>287</v>
-      </c>
-      <c r="B78" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>frk-0-belladonna</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>288</v>
-      </c>
-      <c r="B79" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>frk-0-peregrin</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>289</v>
-      </c>
-      <c r="B80" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>ant-2-wolverine</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>290</v>
-      </c>
-      <c r="B81" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>ant-2-spiderman</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>291</v>
-      </c>
-      <c r="B82" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>ant-3-thor</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>292</v>
-      </c>
-      <c r="B83" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>ant-3-hulk</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>293</v>
-      </c>
-      <c r="B84" s="2" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>ant-4-daredevil</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>294</v>
-      </c>
-      <c r="B85" s="10" t="str">
-        <f>LOWER(_xlfn.TEXTJOIN("-",TRUE,Table3[[#This Row],[Building]],Table3[[#This Row],[Level]],Table3[[#This Row],[ID]]))</f>
-        <v>ant-4-punisher</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>